--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_369.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_369.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d84286-Reviews-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>202</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Holiday-Inn-Express-Los-Angeles-Downtown-West.h22701.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_369.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_369.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="703">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2043 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r586810242-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>84286</t>
+  </si>
+  <si>
+    <t>586810242</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authentic ghetto experience </t>
+  </si>
+  <si>
+    <t>Where to start with this place. We stayed at this Holiday Inn Express this week. Don't let the name fool you, this hotel is not downtown proper. It is located east of downtown in the MacArthur Park area. For those unaware, MacArthur Park is an LA landmark, at which you can participate in many fun activities such as purchasing narcotics, drinking in public, or urinating in the open (which can also be a spectator sport, as I saw no less than six exposed penises in my short time there). In fact, the day we arrived, the LAPD held a fishing event of some sort where they pulled a dead body out of the lake! Fascinating! You can enjoy your walk to and from the park as well, passing by everyone blocking the sidewalks hawking their wares such as pirated DVD's and expired foods. 
+Now, I will admit, upon arrival we noted the parking situation at this hotel was fantastic. No issues there. Underground parking with CCTV cameras left us feeling like our car was safe and secure for the whole stay. 
+The check in process was simple, as usual with most Holiday Inn locations. Staff was helpful and accommodating, and welcome us and our dog happily. 
+Now, we come to the room! I must say that the room was so close to being what I expected, minus the (what appeared to be) ejaculate stains on the headboard. Things like that...Where to start with this place. We stayed at this Holiday Inn Express this week. Don't let the name fool you, this hotel is not downtown proper. It is located east of downtown in the MacArthur Park area. For those unaware, MacArthur Park is an LA landmark, at which you can participate in many fun activities such as purchasing narcotics, drinking in public, or urinating in the open (which can also be a spectator sport, as I saw no less than six exposed penises in my short time there). In fact, the day we arrived, the LAPD held a fishing event of some sort where they pulled a dead body out of the lake! Fascinating! You can enjoy your walk to and from the park as well, passing by everyone blocking the sidewalks hawking their wares such as pirated DVD's and expired foods. Now, I will admit, upon arrival we noted the parking situation at this hotel was fantastic. No issues there. Underground parking with CCTV cameras left us feeling like our car was safe and secure for the whole stay. The check in process was simple, as usual with most Holiday Inn locations. Staff was helpful and accommodating, and welcome us and our dog happily. Now, we come to the room! I must say that the room was so close to being what I expected, minus the (what appeared to be) ejaculate stains on the headboard. Things like that tend to make me lose faith in the cleanliness of the room as a whole. Hard to sleep comfortably, knowing something like that was overlooked.We were on the fifth floor. At least the view should be nice, right? And not a hotel to disappoint, the trash pile and parking lot outside was truly the scenic overlook we were hoping for!All said and done, I must say, you'd probably be better off parking in a decent neighborhood, sleeping in your car, and using the $300 as kindling to keep warm. You'll end up about on par with staying here. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Where to start with this place. We stayed at this Holiday Inn Express this week. Don't let the name fool you, this hotel is not downtown proper. It is located east of downtown in the MacArthur Park area. For those unaware, MacArthur Park is an LA landmark, at which you can participate in many fun activities such as purchasing narcotics, drinking in public, or urinating in the open (which can also be a spectator sport, as I saw no less than six exposed penises in my short time there). In fact, the day we arrived, the LAPD held a fishing event of some sort where they pulled a dead body out of the lake! Fascinating! You can enjoy your walk to and from the park as well, passing by everyone blocking the sidewalks hawking their wares such as pirated DVD's and expired foods. 
+Now, I will admit, upon arrival we noted the parking situation at this hotel was fantastic. No issues there. Underground parking with CCTV cameras left us feeling like our car was safe and secure for the whole stay. 
+The check in process was simple, as usual with most Holiday Inn locations. Staff was helpful and accommodating, and welcome us and our dog happily. 
+Now, we come to the room! I must say that the room was so close to being what I expected, minus the (what appeared to be) ejaculate stains on the headboard. Things like that...Where to start with this place. We stayed at this Holiday Inn Express this week. Don't let the name fool you, this hotel is not downtown proper. It is located east of downtown in the MacArthur Park area. For those unaware, MacArthur Park is an LA landmark, at which you can participate in many fun activities such as purchasing narcotics, drinking in public, or urinating in the open (which can also be a spectator sport, as I saw no less than six exposed penises in my short time there). In fact, the day we arrived, the LAPD held a fishing event of some sort where they pulled a dead body out of the lake! Fascinating! You can enjoy your walk to and from the park as well, passing by everyone blocking the sidewalks hawking their wares such as pirated DVD's and expired foods. Now, I will admit, upon arrival we noted the parking situation at this hotel was fantastic. No issues there. Underground parking with CCTV cameras left us feeling like our car was safe and secure for the whole stay. The check in process was simple, as usual with most Holiday Inn locations. Staff was helpful and accommodating, and welcome us and our dog happily. Now, we come to the room! I must say that the room was so close to being what I expected, minus the (what appeared to be) ejaculate stains on the headboard. Things like that tend to make me lose faith in the cleanliness of the room as a whole. Hard to sleep comfortably, knowing something like that was overlooked.We were on the fifth floor. At least the view should be nice, right? And not a hotel to disappoint, the trash pile and parking lot outside was truly the scenic overlook we were hoping for!All said and done, I must say, you'd probably be better off parking in a decent neighborhood, sleeping in your car, and using the $300 as kindling to keep warm. You'll end up about on par with staying here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r578104619-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>578104619</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Wonderful experience all the way around</t>
+  </si>
+  <si>
+    <t>This hotel is very well managed. There was not a single employee who did not go out of their way to greet us and make sure we had everything we needed. So many smiling faces and everyone working hard to keep the hotel running smoothly and efficiently. It was such a treat to have employees greeting us with a smile. They seemed happy to be working and happy to have us there as customers. Refreshing cold water and delicious (not too sweet) pink lemonade in the lobby. The best part of this hotel was the shuttle service. They will gladly take you anywhere within 4 miles of the hotel. The beds were so comfortable which was wonderful after a hard day's work. Traveling would be a dream if every hotel were like this!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This hotel is very well managed. There was not a single employee who did not go out of their way to greet us and make sure we had everything we needed. So many smiling faces and everyone working hard to keep the hotel running smoothly and efficiently. It was such a treat to have employees greeting us with a smile. They seemed happy to be working and happy to have us there as customers. Refreshing cold water and delicious (not too sweet) pink lemonade in the lobby. The best part of this hotel was the shuttle service. They will gladly take you anywhere within 4 miles of the hotel. The beds were so comfortable which was wonderful after a hard day's work. Traveling would be a dream if every hotel were like this!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r569577082-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>569577082</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Wouldn't enforce parking</t>
+  </si>
+  <si>
+    <t>I require a handicapped space. On our 2nd day, a car without a handicapped sticker was parked in the handicapped space in front of the hotel. The front desk would not ask him to move. I had to park farther away, shoved into a space next to a van and a wall...I could barely open my door. I won't be staying here again. It must have been a friend of theirs parked there.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>I require a handicapped space. On our 2nd day, a car without a handicapped sticker was parked in the handicapped space in front of the hotel. The front desk would not ask him to move. I had to park farther away, shoved into a space next to a van and a wall...I could barely open my door. I won't be staying here again. It must have been a friend of theirs parked there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r549154321-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>549154321</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>Outstanding Hotel</t>
+  </si>
+  <si>
+    <t>Not in a upscale area of Los Angeles but the staff and services more than make up for the area hotel is located.  Aida and staff on the front desk are exceptionally accommodating.  They offer a variety of breakfasts, a complimentary massage, complimentary transportation to sites within four mile radius, and pop corn, ice cream, cookies and lemonade mid day.  The rooms are roomy and very clean.  The hotel is showing its age but they are working on up grading the facilities. For a low cost accommodation in L.A. they are a great choice.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r546501138-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>546501138</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Extremely Bad Service</t>
+  </si>
+  <si>
+    <t>On the morning of the 8th of December my wife and I attempted to check into this hotel after having reserved the room 2 weeks in advance. After confirming the price sent to my email
+From this establishment and calling prior to arriving and speaking to the employee who works the front desk we were under the assumption the price was final. Upon walking into this establishment we were surprised with a $150 deposit in addition to paying for the room. Not only was she not helpful, she didn’t try to resolve the issue, her only help was trying to get us to cancel the room. I was under the assumption this hotel was military friendly but that is obviously not the case. I reserved this room for my wife and I upon receiving orders to California and our stay was ruined by the employee who worked the front desk that day. I will also be contacting corporate to make sure this problem is resolved. The employee who was working the front desk should be re trained on how to greet guest properly and make the guest feel more welcome. From my understanding a deposit is required when you pay with cash or if the guest is perceived to be a high risk stay and neither was the case here as I payed with my visa and my appearance was professional so the fact that I was charged a deposit...On the morning of the 8th of December my wife and I attempted to check into this hotel after having reserved the room 2 weeks in advance. After confirming the price sent to my emailFrom this establishment and calling prior to arriving and speaking to the employee who works the front desk we were under the assumption the price was final. Upon walking into this establishment we were surprised with a $150 deposit in addition to paying for the room. Not only was she not helpful, she didn’t try to resolve the issue, her only help was trying to get us to cancel the room. I was under the assumption this hotel was military friendly but that is obviously not the case. I reserved this room for my wife and I upon receiving orders to California and our stay was ruined by the employee who worked the front desk that day. I will also be contacting corporate to make sure this problem is resolved. The employee who was working the front desk should be re trained on how to greet guest properly and make the guest feel more welcome. From my understanding a deposit is required when you pay with cash or if the guest is perceived to be a high risk stay and neither was the case here as I payed with my visa and my appearance was professional so the fact that I was charged a deposit at the discretion of the employee who worked the front desk makes me feel as if my wife and I were discriminated against. In writing this I hope some form of corrective action is taken to prevent this from happening to guest in the future. Thank you for your time.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded December 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2017</t>
+  </si>
+  <si>
+    <t>On the morning of the 8th of December my wife and I attempted to check into this hotel after having reserved the room 2 weeks in advance. After confirming the price sent to my email
+From this establishment and calling prior to arriving and speaking to the employee who works the front desk we were under the assumption the price was final. Upon walking into this establishment we were surprised with a $150 deposit in addition to paying for the room. Not only was she not helpful, she didn’t try to resolve the issue, her only help was trying to get us to cancel the room. I was under the assumption this hotel was military friendly but that is obviously not the case. I reserved this room for my wife and I upon receiving orders to California and our stay was ruined by the employee who worked the front desk that day. I will also be contacting corporate to make sure this problem is resolved. The employee who was working the front desk should be re trained on how to greet guest properly and make the guest feel more welcome. From my understanding a deposit is required when you pay with cash or if the guest is perceived to be a high risk stay and neither was the case here as I payed with my visa and my appearance was professional so the fact that I was charged a deposit...On the morning of the 8th of December my wife and I attempted to check into this hotel after having reserved the room 2 weeks in advance. After confirming the price sent to my emailFrom this establishment and calling prior to arriving and speaking to the employee who works the front desk we were under the assumption the price was final. Upon walking into this establishment we were surprised with a $150 deposit in addition to paying for the room. Not only was she not helpful, she didn’t try to resolve the issue, her only help was trying to get us to cancel the room. I was under the assumption this hotel was military friendly but that is obviously not the case. I reserved this room for my wife and I upon receiving orders to California and our stay was ruined by the employee who worked the front desk that day. I will also be contacting corporate to make sure this problem is resolved. The employee who was working the front desk should be re trained on how to greet guest properly and make the guest feel more welcome. From my understanding a deposit is required when you pay with cash or if the guest is perceived to be a high risk stay and neither was the case here as I payed with my visa and my appearance was professional so the fact that I was charged a deposit at the discretion of the employee who worked the front desk makes me feel as if my wife and I were discriminated against. In writing this I hope some form of corrective action is taken to prevent this from happening to guest in the future. Thank you for your time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r539846411-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>539846411</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice rooms and friendly staff. </t>
+  </si>
+  <si>
+    <t>As everyone mentioned not the best location but for me it was very close to my customer and who wants to sit in LA traffic when you don’t have to? Rooms were clean and newly decorated. It’s a Downtown hotel so there will be noise. Didn’t bother me. Breakfast was very good and the staff attentive. Parking was not overly expensive and the location allows you to easily get around and visit if you have a car. Enjoyed my stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded November 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2017</t>
+  </si>
+  <si>
+    <t>As everyone mentioned not the best location but for me it was very close to my customer and who wants to sit in LA traffic when you don’t have to? Rooms were clean and newly decorated. It’s a Downtown hotel so there will be noise. Didn’t bother me. Breakfast was very good and the staff attentive. Parking was not overly expensive and the location allows you to easily get around and visit if you have a car. Enjoyed my stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r528177757-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>528177757</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Friendly people; Location is a problem</t>
+  </si>
+  <si>
+    <t>We stayed here for a couple of nights and the staff was warm and friendly. Did not like the location - though it is close to downtown, walked around a bit and did not feel comfortable in the locality - retail and food options around it was not appealing and we drove down to downtown next day for lunch... Tried the gym here and like most other Expresses, it was not good as well... only one treadmill, an exercise bike and no weights... will possibly not go back...MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for a couple of nights and the staff was warm and friendly. Did not like the location - though it is close to downtown, walked around a bit and did not feel comfortable in the locality - retail and food options around it was not appealing and we drove down to downtown next day for lunch... Tried the gym here and like most other Expresses, it was not good as well... only one treadmill, an exercise bike and no weights... will possibly not go back...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r525981759-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>525981759</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>Here are the four primary reasons my stay at this property was so awesome:  1) Aida 2) Rafael  3) Juan  4) Ivan.   Wow!  These four individual know customer service.  Aida was the person who checked me in.  She made me feel as though our meeting was a reunion of sorts.  For me, the reception is almost everything, and her reception truly set the stage for the remainder of my stay.  Aida's style of welcoming me was an 11, on a scale of 1 to 10, with 10 being the highest.  Rafael was the person who prepared the breakfast each morning.  If I didn't know any better, I would think that he and I were best friends back in high school.  He is one of the happiest and most pleasant persons you'll ever come across.  Each day I needed a ride in the hotel van to the Staples Center area, and that's where Ivan and Juan took center stage.  These gentlemen transported me with such pleasure, it's as if they were told that I was some sort of dignitary.  Each morning there was a wonderful hot breakfast.  The hotel was typical Holiday Inn quality.  The hotel offers complimentary messages.  There's free Wi-Fi.  One evening there was a wine tasting.  I don't recall if the lady hosting this event said that this was done Tue and Thur, or just Tue.  One thing is for sure, it was each week.  There were other...Here are the four primary reasons my stay at this property was so awesome:  1) Aida 2) Rafael  3) Juan  4) Ivan.   Wow!  These four individual know customer service.  Aida was the person who checked me in.  She made me feel as though our meeting was a reunion of sorts.  For me, the reception is almost everything, and her reception truly set the stage for the remainder of my stay.  Aida's style of welcoming me was an 11, on a scale of 1 to 10, with 10 being the highest.  Rafael was the person who prepared the breakfast each morning.  If I didn't know any better, I would think that he and I were best friends back in high school.  He is one of the happiest and most pleasant persons you'll ever come across.  Each day I needed a ride in the hotel van to the Staples Center area, and that's where Ivan and Juan took center stage.  These gentlemen transported me with such pleasure, it's as if they were told that I was some sort of dignitary.  Each morning there was a wonderful hot breakfast.  The hotel was typical Holiday Inn quality.  The hotel offers complimentary messages.  There's free Wi-Fi.  One evening there was a wine tasting.  I don't recall if the lady hosting this event said that this was done Tue and Thur, or just Tue.  One thing is for sure, it was each week.  There were other snacks to go along with the wine offering.  Oh, and then there was free ice cream available.  For you old schoolers, you would appreciate having to dip it from this 5-gallon drum.  I loved it.  I have ice cream maybe 10 times a year.  During my 4-day stay, I treated myself each night.  It was just too tasty.  There was a microwave in the breakfast area.  There was a refrigerator in my room.  The location of the hotel is very convenient to the Staples Center area, without the high price tag of hotels in the middle of the Staples Center area.  I had a rental car for one day, and there's FREE parking.  If I ever have a stay in the downtown/Staples Center area in the future, I know where I'll book my hotel stay.   Aida, Rafael, Ivan, and Juan, thank you very, very, very much for a most pleasurable experience.  The amenities were great, but you all, with your 5-star level of customer service made all the difference!MoreShow less</t>
+  </si>
+  <si>
+    <t>Here are the four primary reasons my stay at this property was so awesome:  1) Aida 2) Rafael  3) Juan  4) Ivan.   Wow!  These four individual know customer service.  Aida was the person who checked me in.  She made me feel as though our meeting was a reunion of sorts.  For me, the reception is almost everything, and her reception truly set the stage for the remainder of my stay.  Aida's style of welcoming me was an 11, on a scale of 1 to 10, with 10 being the highest.  Rafael was the person who prepared the breakfast each morning.  If I didn't know any better, I would think that he and I were best friends back in high school.  He is one of the happiest and most pleasant persons you'll ever come across.  Each day I needed a ride in the hotel van to the Staples Center area, and that's where Ivan and Juan took center stage.  These gentlemen transported me with such pleasure, it's as if they were told that I was some sort of dignitary.  Each morning there was a wonderful hot breakfast.  The hotel was typical Holiday Inn quality.  The hotel offers complimentary messages.  There's free Wi-Fi.  One evening there was a wine tasting.  I don't recall if the lady hosting this event said that this was done Tue and Thur, or just Tue.  One thing is for sure, it was each week.  There were other...Here are the four primary reasons my stay at this property was so awesome:  1) Aida 2) Rafael  3) Juan  4) Ivan.   Wow!  These four individual know customer service.  Aida was the person who checked me in.  She made me feel as though our meeting was a reunion of sorts.  For me, the reception is almost everything, and her reception truly set the stage for the remainder of my stay.  Aida's style of welcoming me was an 11, on a scale of 1 to 10, with 10 being the highest.  Rafael was the person who prepared the breakfast each morning.  If I didn't know any better, I would think that he and I were best friends back in high school.  He is one of the happiest and most pleasant persons you'll ever come across.  Each day I needed a ride in the hotel van to the Staples Center area, and that's where Ivan and Juan took center stage.  These gentlemen transported me with such pleasure, it's as if they were told that I was some sort of dignitary.  Each morning there was a wonderful hot breakfast.  The hotel was typical Holiday Inn quality.  The hotel offers complimentary messages.  There's free Wi-Fi.  One evening there was a wine tasting.  I don't recall if the lady hosting this event said that this was done Tue and Thur, or just Tue.  One thing is for sure, it was each week.  There were other snacks to go along with the wine offering.  Oh, and then there was free ice cream available.  For you old schoolers, you would appreciate having to dip it from this 5-gallon drum.  I loved it.  I have ice cream maybe 10 times a year.  During my 4-day stay, I treated myself each night.  It was just too tasty.  There was a microwave in the breakfast area.  There was a refrigerator in my room.  The location of the hotel is very convenient to the Staples Center area, without the high price tag of hotels in the middle of the Staples Center area.  I had a rental car for one day, and there's FREE parking.  If I ever have a stay in the downtown/Staples Center area in the future, I know where I'll book my hotel stay.   Aida, Rafael, Ivan, and Juan, thank you very, very, very much for a most pleasurable experience.  The amenities were great, but you all, with your 5-star level of customer service made all the difference!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r521098426-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>521098426</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe not again </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed on points a second trip and this will probably be my last stay there. Location is sketchy though close to downtown. Homeless everywhere and grime and low end retail options. The halls were a sauna and so was the room - it was a heatwave apparently. Ac couldn't cope. Fridges in room didn't work. Parking isn't free either anymore. Boo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r486666240-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>486666240</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Don't bother</t>
+  </si>
+  <si>
+    <t>I have stayed with holiday inn chain for a month now, so you'd think I was a "loyal &amp;I trusted" guest right? Wrong! This poor excuse of a hotel left me standing on the street after they refused to use my credit card because it did not have my name on it! I have a confirmation of my booking inc. the credit card, which is the same card I have used all over the country! They could not help me at all! No offers to assist in anyway, no offer to let me pay cash. Mind you the place looks abandoned from out side!I refuse to use any holiday inn after this and will now try the competition at La Quinta!! Ps. I have been travelling with a friend who also will book his room elsewhere from now on!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>I have stayed with holiday inn chain for a month now, so you'd think I was a "loyal &amp;I trusted" guest right? Wrong! This poor excuse of a hotel left me standing on the street after they refused to use my credit card because it did not have my name on it! I have a confirmation of my booking inc. the credit card, which is the same card I have used all over the country! They could not help me at all! No offers to assist in anyway, no offer to let me pay cash. Mind you the place looks abandoned from out side!I refuse to use any holiday inn after this and will now try the competition at La Quinta!! Ps. I have been travelling with a friend who also will book his room elsewhere from now on!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r480375092-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>480375092</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price/value is excellent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have spend many nights in different Hotels in LA and California. Now being at home I have to say that this stay was one of my most pleasant. Honest, friendly and super close to downtown. I also stayed in different HI Express and this one was definitely the best!I find it honest to put ear blocks in the room knowing that LA downtown is busy and noisy during the night. But I liked the kindness. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r477578791-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>477578791</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Good service, clean, convenient location to everything</t>
+  </si>
+  <si>
+    <t>Let me start with the one and only bad thing, the photos we saw online depict a large lovely pool. There is a small pool/hot tub approximately 12'x15' (?) it's not what was in the photo. However, it was relaxing after a long day of walking. Nice breakfast, good, fresh selection . Friendly staff. Clean! The room was clean, quiet, and comfortable. The location: keep in mind that you are in downtown LA. The neighborhood has a lot of homeless on the streets, the park is questionable however we went for a walk there, didn't get robbed. Every morning there are little "booths" set up on the streets with locals selling all sorts of things. Felt like Tijuana. However, you turn the corner towards the hotel and go in and it's clean, modern and quite safe. You can get anywhere in about 30 minutes it seemed. Uber found us with no problem. Uber Eats was great, lots to choose from in the area.We used the fitness room. No weights but there was enough to have a good cardio workout.I would stay there again. I would recommend it to others. The hotel was great and the staff were very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Let me start with the one and only bad thing, the photos we saw online depict a large lovely pool. There is a small pool/hot tub approximately 12'x15' (?) it's not what was in the photo. However, it was relaxing after a long day of walking. Nice breakfast, good, fresh selection . Friendly staff. Clean! The room was clean, quiet, and comfortable. The location: keep in mind that you are in downtown LA. The neighborhood has a lot of homeless on the streets, the park is questionable however we went for a walk there, didn't get robbed. Every morning there are little "booths" set up on the streets with locals selling all sorts of things. Felt like Tijuana. However, you turn the corner towards the hotel and go in and it's clean, modern and quite safe. You can get anywhere in about 30 minutes it seemed. Uber found us with no problem. Uber Eats was great, lots to choose from in the area.We used the fitness room. No weights but there was enough to have a good cardio workout.I would stay there again. I would recommend it to others. The hotel was great and the staff were very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r468564490-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>468564490</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>An Oasis</t>
+  </si>
+  <si>
+    <t>After spending all day walking around downtown Los Angeles this Holiday Inn Express was a welcome Oasis at the end of the day.  Safe, friendly, convenient.  We will definitely stay there again.  Parking was convenient for our needs and the location is great. The staff is friendly and helpful.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r456008279-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>456008279</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>Nice Staff, Terrible Location.</t>
+  </si>
+  <si>
+    <t>I'm from the Uk, so bear that in mind when reading this review!  I was in LA on business and asked to get somewhere close to the office under $200. My travel company found me this place.  It was 1.7 miles from my office, and I had planned to walk from hotel to office, however after spending 10 mins walking down the street, I quickly came to the conclusion that the immediate area around the hotel was not safe to walk around, even in daylight.  So effectively I became a prisoner in the hotel, having to order deliveries for dinner and having to take a cab/hotel shuttle everywhere.  
+The view out of the back of the hotel is horrendous, looks like something out of a gangster movie, with a view of derelict buildings and homeless people sleeping out the back.  
+The hotel and room looked tired and dated. The breakfast was so, so and nothing special, and in my opinion, not as good or varied a breakfast as we get in HIE in the UK. My expectation and experience is that US hotels are usually of a much better standard than in the UK, but unfortunately not in this case.  Also, the cost of the room was incredibly high for the quality. I've stayed in 4* hotels in central London for much cheaper than this. But to be fair I do appreciate hotel costs are always relative to the city...I'm from the Uk, so bear that in mind when reading this review!  I was in LA on business and asked to get somewhere close to the office under $200. My travel company found me this place.  It was 1.7 miles from my office, and I had planned to walk from hotel to office, however after spending 10 mins walking down the street, I quickly came to the conclusion that the immediate area around the hotel was not safe to walk around, even in daylight.  So effectively I became a prisoner in the hotel, having to order deliveries for dinner and having to take a cab/hotel shuttle everywhere.  The view out of the back of the hotel is horrendous, looks like something out of a gangster movie, with a view of derelict buildings and homeless people sleeping out the back.  The hotel and room looked tired and dated. The breakfast was so, so and nothing special, and in my opinion, not as good or varied a breakfast as we get in HIE in the UK. My expectation and experience is that US hotels are usually of a much better standard than in the UK, but unfortunately not in this case.  Also, the cost of the room was incredibly high for the quality. I've stayed in 4* hotels in central London for much cheaper than this. But to be fair I do appreciate hotel costs are always relative to the city you're in and I have no previous experience of LA.The wifi in the hotel was poor. It regularly dropped and was consistently slow, which added to my feelings of frustration and imprisonment! I struggled to make an audio facetime call back home.The only real positive from my stay was the staff.  Without exception, they were helpful and friendly, so no complaints in that department. The free hotel shuttle was usually available and very useful given the hotel's location.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>I'm from the Uk, so bear that in mind when reading this review!  I was in LA on business and asked to get somewhere close to the office under $200. My travel company found me this place.  It was 1.7 miles from my office, and I had planned to walk from hotel to office, however after spending 10 mins walking down the street, I quickly came to the conclusion that the immediate area around the hotel was not safe to walk around, even in daylight.  So effectively I became a prisoner in the hotel, having to order deliveries for dinner and having to take a cab/hotel shuttle everywhere.  
+The view out of the back of the hotel is horrendous, looks like something out of a gangster movie, with a view of derelict buildings and homeless people sleeping out the back.  
+The hotel and room looked tired and dated. The breakfast was so, so and nothing special, and in my opinion, not as good or varied a breakfast as we get in HIE in the UK. My expectation and experience is that US hotels are usually of a much better standard than in the UK, but unfortunately not in this case.  Also, the cost of the room was incredibly high for the quality. I've stayed in 4* hotels in central London for much cheaper than this. But to be fair I do appreciate hotel costs are always relative to the city...I'm from the Uk, so bear that in mind when reading this review!  I was in LA on business and asked to get somewhere close to the office under $200. My travel company found me this place.  It was 1.7 miles from my office, and I had planned to walk from hotel to office, however after spending 10 mins walking down the street, I quickly came to the conclusion that the immediate area around the hotel was not safe to walk around, even in daylight.  So effectively I became a prisoner in the hotel, having to order deliveries for dinner and having to take a cab/hotel shuttle everywhere.  The view out of the back of the hotel is horrendous, looks like something out of a gangster movie, with a view of derelict buildings and homeless people sleeping out the back.  The hotel and room looked tired and dated. The breakfast was so, so and nothing special, and in my opinion, not as good or varied a breakfast as we get in HIE in the UK. My expectation and experience is that US hotels are usually of a much better standard than in the UK, but unfortunately not in this case.  Also, the cost of the room was incredibly high for the quality. I've stayed in 4* hotels in central London for much cheaper than this. But to be fair I do appreciate hotel costs are always relative to the city you're in and I have no previous experience of LA.The wifi in the hotel was poor. It regularly dropped and was consistently slow, which added to my feelings of frustration and imprisonment! I struggled to make an audio facetime call back home.The only real positive from my stay was the staff.  Without exception, they were helpful and friendly, so no complaints in that department. The free hotel shuttle was usually available and very useful given the hotel's location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r443185255-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>443185255</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay in downtown Los Angeles </t>
+  </si>
+  <si>
+    <t>It's close to downtown businesses area and hotel provide free shuttles to there. The staffs there are very friendly and helpful, especially the front desk and the shuttle driver. I got also room upgraded.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2016</t>
+  </si>
+  <si>
+    <t>It's close to downtown businesses area and hotel provide free shuttles to there. The staffs there are very friendly and helpful, especially the front desk and the shuttle driver. I got also room upgraded.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r422671020-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>422671020</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Lively location and good access to public transport.</t>
+  </si>
+  <si>
+    <t>A very comfortable hotel in a lively Latino neighbourhood that I really liked. Very friendly and helpful staff.  A reasonable selection from the breakfast bar, but it was a shame that they used disposable dishes and cutlery. I'd prefer that they were more environmentally responsible. Excellent access to the Metro trains and busses to get to other LA attractions.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r421294465-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>421294465</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Parts are great and parts are not</t>
+  </si>
+  <si>
+    <t>Stayed here for 6 nights while in town for a conference.  The great parts...Dennis who drove the shuttle and does just about every thing else here.  A delightful man who steered us to wonderful restaurants in the area and was so very wonderful getting us to and from the convention center. The not so good parts...Robert, one of the desk clerks who flat out lied on a couple occassions and made a few times very difficult.  He just plain makes up stuff.  I finally learned not to believe a thing he said.  The in between parts...the room - the air conditioner leaked and the carpeting was soaked.  There is a refridgerator in the room but no microwave.  The maid skipped the room totally one day however they did bring fresh towels when I called and they came in one day even with the "do not disturb" sign on the door.  I will say that there was money and electronics left out that day and not a thing was taken.  I've had thefts by house staff in much 'fancier' hotels.  The room was otherwise just fine and was overall very clean.  The vending machine would keep money and not dispense but the on duty lady at the desk reimburse me without question.  The neighborhood isn't the 'best' and there are many homeless in the area however I never felt unsafe, even as a single woman.  There are lots of sirens in...Stayed here for 6 nights while in town for a conference.  The great parts...Dennis who drove the shuttle and does just about every thing else here.  A delightful man who steered us to wonderful restaurants in the area and was so very wonderful getting us to and from the convention center. The not so good parts...Robert, one of the desk clerks who flat out lied on a couple occassions and made a few times very difficult.  He just plain makes up stuff.  I finally learned not to believe a thing he said.  The in between parts...the room - the air conditioner leaked and the carpeting was soaked.  There is a refridgerator in the room but no microwave.  The maid skipped the room totally one day however they did bring fresh towels when I called and they came in one day even with the "do not disturb" sign on the door.  I will say that there was money and electronics left out that day and not a thing was taken.  I've had thefts by house staff in much 'fancier' hotels.  The room was otherwise just fine and was overall very clean.  The vending machine would keep money and not dispense but the on duty lady at the desk reimburse me without question.  The neighborhood isn't the 'best' and there are many homeless in the area however I never felt unsafe, even as a single woman.  There are lots of sirens in the area at all times but unless you normally live in the country the noise wasn't actually disturbing.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded October 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for 6 nights while in town for a conference.  The great parts...Dennis who drove the shuttle and does just about every thing else here.  A delightful man who steered us to wonderful restaurants in the area and was so very wonderful getting us to and from the convention center. The not so good parts...Robert, one of the desk clerks who flat out lied on a couple occassions and made a few times very difficult.  He just plain makes up stuff.  I finally learned not to believe a thing he said.  The in between parts...the room - the air conditioner leaked and the carpeting was soaked.  There is a refridgerator in the room but no microwave.  The maid skipped the room totally one day however they did bring fresh towels when I called and they came in one day even with the "do not disturb" sign on the door.  I will say that there was money and electronics left out that day and not a thing was taken.  I've had thefts by house staff in much 'fancier' hotels.  The room was otherwise just fine and was overall very clean.  The vending machine would keep money and not dispense but the on duty lady at the desk reimburse me without question.  The neighborhood isn't the 'best' and there are many homeless in the area however I never felt unsafe, even as a single woman.  There are lots of sirens in...Stayed here for 6 nights while in town for a conference.  The great parts...Dennis who drove the shuttle and does just about every thing else here.  A delightful man who steered us to wonderful restaurants in the area and was so very wonderful getting us to and from the convention center. The not so good parts...Robert, one of the desk clerks who flat out lied on a couple occassions and made a few times very difficult.  He just plain makes up stuff.  I finally learned not to believe a thing he said.  The in between parts...the room - the air conditioner leaked and the carpeting was soaked.  There is a refridgerator in the room but no microwave.  The maid skipped the room totally one day however they did bring fresh towels when I called and they came in one day even with the "do not disturb" sign on the door.  I will say that there was money and electronics left out that day and not a thing was taken.  I've had thefts by house staff in much 'fancier' hotels.  The room was otherwise just fine and was overall very clean.  The vending machine would keep money and not dispense but the on duty lady at the desk reimburse me without question.  The neighborhood isn't the 'best' and there are many homeless in the area however I never felt unsafe, even as a single woman.  There are lots of sirens in the area at all times but unless you normally live in the country the noise wasn't actually disturbing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r420009606-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>420009606</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Alternative to expensive downtown LA hotels</t>
+  </si>
+  <si>
+    <t>Experienced a comfortable stay in Westlake area at this highly rated HI Express. Agree with most positive comments and compared to downtown LA, the price was right and free parking too.  Clean room nicely set up for business traveler with well lit desk, large TV with numerous channels and comfortable bed.Just a few comments to share include that the top floor is best since the sound barrier between other floors is not good. You can hear others walking above and if you're a light sleeper, this could an issue. Also, two of three nights a police chopper hovered near the hotel area for 20 minutes each time with full spotlight searching for something/someone. The neighborhood is not ideal so stayed in the hotel at night. Next door is an abandoned dilapidated building - not a nice view from my window in 414.MoreShow less</t>
+  </si>
+  <si>
+    <t>Experienced a comfortable stay in Westlake area at this highly rated HI Express. Agree with most positive comments and compared to downtown LA, the price was right and free parking too.  Clean room nicely set up for business traveler with well lit desk, large TV with numerous channels and comfortable bed.Just a few comments to share include that the top floor is best since the sound barrier between other floors is not good. You can hear others walking above and if you're a light sleeper, this could an issue. Also, two of three nights a police chopper hovered near the hotel area for 20 minutes each time with full spotlight searching for something/someone. The neighborhood is not ideal so stayed in the hotel at night. Next door is an abandoned dilapidated building - not a nice view from my window in 414.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r410241173-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>410241173</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Just Ok.  Sketchy Neighborhood</t>
+  </si>
+  <si>
+    <t>First the good.  The rooms were very clean and the bed was super comfortable.  The bed may have been close to brand new.  The staff was very nice and very helpful.  Great security (which is necessary as I will detail later).  Free parking, which is almost unheard of in California, especially Los Angeles.   
+However, when they call this hotel "Los Angeles Downtown West" they do not mean the west side of downtown, they mean WEST of downtown... which is not a nice neighborhood.  The hotel is surrounded by low income housing with bars on the windows, pawn shops, a body shop and sketchy looking people.  During the day the neighborhood was pretty busy and I would feel safe walking a few blocks if I needed but at night I absolutely would not have walked anywhere.  In any event, the hotel is probably a mile from the real downtown area and about a 15 minutes drive from the main touristy section of Hollywood.  A car is absolutely essential here.  
+I will give the hotel credit though for the excellent security.  You needed a key to enter the building, to use the elevator, to get into the business center, even to get into the lobby bathrooms.  When I needed a new key they actually asked for ID.  They definitely take guest security seriously which is very important in this  neighborhood.  
+While the rooms were clean and the beds comfortable the rest of...First the good.  The rooms were very clean and the bed was super comfortable.  The bed may have been close to brand new.  The staff was very nice and very helpful.  Great security (which is necessary as I will detail later).  Free parking, which is almost unheard of in California, especially Los Angeles.   However, when they call this hotel "Los Angeles Downtown West" they do not mean the west side of downtown, they mean WEST of downtown... which is not a nice neighborhood.  The hotel is surrounded by low income housing with bars on the windows, pawn shops, a body shop and sketchy looking people.  During the day the neighborhood was pretty busy and I would feel safe walking a few blocks if I needed but at night I absolutely would not have walked anywhere.  In any event, the hotel is probably a mile from the real downtown area and about a 15 minutes drive from the main touristy section of Hollywood.  A car is absolutely essential here.  I will give the hotel credit though for the excellent security.  You needed a key to enter the building, to use the elevator, to get into the business center, even to get into the lobby bathrooms.  When I needed a new key they actually asked for ID.  They definitely take guest security seriously which is very important in this  neighborhood.  While the rooms were clean and the beds comfortable the rest of the furnishings were rather old and dated.  There was a lack of electrical outlets and the room seemed poorly lit in general.  The outdoor pool they claim to have is a total joke.  I have seen bathtubs larger than this pool.  In addition, it could not be a less inviting location.  Basically surrounded by concrete and 10 foot walls.  They would be better off not even advertising they have a pool.  If I had booked this hotel because I really wanted a pool I would have been very upset.  The breakfast was ok.  Average holiday inn express fare.  They probably need a second person working the breakfast area.  The woman working there was very nice, very helpful and seemed to be very on top of refilling things but it was basically impossible for her to stay on top of it all during the breakfast rush.  No sooner she would come out with a new tray of food, something else would be empty.  She was doing the best she could but clearly a second person is needed or resources should be redirected when the breakfast area is as busy as it was.  Overall, the hotel was okay.  A nicer neighborhood (or at least a more accurate description of the actual neighborhood) and newer furnishings and it would have earned 4 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded September 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2016</t>
+  </si>
+  <si>
+    <t>First the good.  The rooms were very clean and the bed was super comfortable.  The bed may have been close to brand new.  The staff was very nice and very helpful.  Great security (which is necessary as I will detail later).  Free parking, which is almost unheard of in California, especially Los Angeles.   
+However, when they call this hotel "Los Angeles Downtown West" they do not mean the west side of downtown, they mean WEST of downtown... which is not a nice neighborhood.  The hotel is surrounded by low income housing with bars on the windows, pawn shops, a body shop and sketchy looking people.  During the day the neighborhood was pretty busy and I would feel safe walking a few blocks if I needed but at night I absolutely would not have walked anywhere.  In any event, the hotel is probably a mile from the real downtown area and about a 15 minutes drive from the main touristy section of Hollywood.  A car is absolutely essential here.  
+I will give the hotel credit though for the excellent security.  You needed a key to enter the building, to use the elevator, to get into the business center, even to get into the lobby bathrooms.  When I needed a new key they actually asked for ID.  They definitely take guest security seriously which is very important in this  neighborhood.  
+While the rooms were clean and the beds comfortable the rest of...First the good.  The rooms were very clean and the bed was super comfortable.  The bed may have been close to brand new.  The staff was very nice and very helpful.  Great security (which is necessary as I will detail later).  Free parking, which is almost unheard of in California, especially Los Angeles.   However, when they call this hotel "Los Angeles Downtown West" they do not mean the west side of downtown, they mean WEST of downtown... which is not a nice neighborhood.  The hotel is surrounded by low income housing with bars on the windows, pawn shops, a body shop and sketchy looking people.  During the day the neighborhood was pretty busy and I would feel safe walking a few blocks if I needed but at night I absolutely would not have walked anywhere.  In any event, the hotel is probably a mile from the real downtown area and about a 15 minutes drive from the main touristy section of Hollywood.  A car is absolutely essential here.  I will give the hotel credit though for the excellent security.  You needed a key to enter the building, to use the elevator, to get into the business center, even to get into the lobby bathrooms.  When I needed a new key they actually asked for ID.  They definitely take guest security seriously which is very important in this  neighborhood.  While the rooms were clean and the beds comfortable the rest of the furnishings were rather old and dated.  There was a lack of electrical outlets and the room seemed poorly lit in general.  The outdoor pool they claim to have is a total joke.  I have seen bathtubs larger than this pool.  In addition, it could not be a less inviting location.  Basically surrounded by concrete and 10 foot walls.  They would be better off not even advertising they have a pool.  If I had booked this hotel because I really wanted a pool I would have been very upset.  The breakfast was ok.  Average holiday inn express fare.  They probably need a second person working the breakfast area.  The woman working there was very nice, very helpful and seemed to be very on top of refilling things but it was basically impossible for her to stay on top of it all during the breakfast rush.  No sooner she would come out with a new tray of food, something else would be empty.  She was doing the best she could but clearly a second person is needed or resources should be redirected when the breakfast area is as busy as it was.  Overall, the hotel was okay.  A nicer neighborhood (or at least a more accurate description of the actual neighborhood) and newer furnishings and it would have earned 4 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r408977012-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>408977012</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn The Hood - unbiased review</t>
+  </si>
+  <si>
+    <t>Some mixed reviews on here, but after 8 nights I think I am well placed to comment.The hotelWe had very good service throughout this our stay. The room was clean and spacious with everything we needed. It wasn't modern but it was fine. There was plenty for breakfast and a good variety - all included in the room rate.Plenty of free parking and a good location if you ha e a car to get to all the attractions - pretty central.The area-Not very good. Very sad to see the amount of homeless people and the poor living conditions. We walked from the hotel into the city one day, once past the business area the city is in a bad way. As I said before you need a car here, it wasn't safe to go out at night and we couldn't fine anywhere safe to eat nearby.On a positive note the area meant that we spent our week exploring other parts of LA and had a full packed agenda.The hotel was safe, don't let this put you off.MoreShow less</t>
+  </si>
+  <si>
+    <t>Some mixed reviews on here, but after 8 nights I think I am well placed to comment.The hotelWe had very good service throughout this our stay. The room was clean and spacious with everything we needed. It wasn't modern but it was fine. There was plenty for breakfast and a good variety - all included in the room rate.Plenty of free parking and a good location if you ha e a car to get to all the attractions - pretty central.The area-Not very good. Very sad to see the amount of homeless people and the poor living conditions. We walked from the hotel into the city one day, once past the business area the city is in a bad way. As I said before you need a car here, it wasn't safe to go out at night and we couldn't fine anywhere safe to eat nearby.On a positive note the area meant that we spent our week exploring other parts of LA and had a full packed agenda.The hotel was safe, don't let this put you off.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r408273904-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>408273904</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Great choice for downtown on a budget</t>
+  </si>
+  <si>
+    <t>Just spent a week here on business. Was extremely happy with the choice to stay here! Why?
+-For downtown Los Angeles, it was inexpensive. And with a Metro stop a five-minute walk away, not to mention all the Metro buses, getting to/from downtown and the rest of LA was extremely easy. We went out a lot more to area restaurants as well as attractions because the transit was so easy from the hotel. [We had zero problems with the neighborhood, and we were out and about at all hours, men and women singly and in groups. Yes, it's gritty, but it's not dangerous.]
+-Free parking! Free parking! Free parking! And if that weren't enough the hotel has a free shuttle van with a four-mile radius, which is plenty to get you to the convention center/Staples. And our shuttle drivers were rad! Their friendliness and knowledge of the area really increased our enjoyment of the hotel. Can't say enough good about them (looking at you, Dennis!)
+-The free breakfast in the mornings was off the hook! It was a big time- and money-saver for our group to be able to start the day with a good meal and very good cup (or two) of coffee or tea (they even had hot chocolate) before starting the day's work. Breakfast consisted of: cartons of milk, greek and regular yogurt, dry cereal, instant oatmeal, bananas, apples, oranges, and peaches, ham, bacon, biscuits, gravy, scrambled...Just spent a week here on business. Was extremely happy with the choice to stay here! Why?-For downtown Los Angeles, it was inexpensive. And with a Metro stop a five-minute walk away, not to mention all the Metro buses, getting to/from downtown and the rest of LA was extremely easy. We went out a lot more to area restaurants as well as attractions because the transit was so easy from the hotel. [We had zero problems with the neighborhood, and we were out and about at all hours, men and women singly and in groups. Yes, it's gritty, but it's not dangerous.]-Free parking! Free parking! Free parking! And if that weren't enough the hotel has a free shuttle van with a four-mile radius, which is plenty to get you to the convention center/Staples. And our shuttle drivers were rad! Their friendliness and knowledge of the area really increased our enjoyment of the hotel. Can't say enough good about them (looking at you, Dennis!)-The free breakfast in the mornings was off the hook! It was a big time- and money-saver for our group to be able to start the day with a good meal and very good cup (or two) of coffee or tea (they even had hot chocolate) before starting the day's work. Breakfast consisted of: cartons of milk, greek and regular yogurt, dry cereal, instant oatmeal, bananas, apples, oranges, and peaches, ham, bacon, biscuits, gravy, scrambled and hard-boiled eggs, bagels, english muffins, pancakes (with butter, honey, or syrup), juice, cinnamon rolls...I think that's all. Nobody in our group complained about breakfast, that's for sure!-Nice common area for reading the paper or watching the Olympics any time of day, which was nice.-Nice rooms, too! Maxi minifridge, ironing board, plenty of towels and toiletries, a desk, a chair...quite comfortable. Efficient A/C, which we appreciated.-Great staff; efficient, knew what they were doing, friendly (nice to be greeted whenever I strolled in--I appreciated that)My only complaint is the wifi--unless I was there in the middle of the day when everyone else was out, it was so slow as to be completely unusable. This really needs to be addressed, because this property really has a lot going for it, but the wifi was a total bummer. Even so, I still recommend this Holiday Inn Express for business in the downtown Los Angeles area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just spent a week here on business. Was extremely happy with the choice to stay here! Why?
+-For downtown Los Angeles, it was inexpensive. And with a Metro stop a five-minute walk away, not to mention all the Metro buses, getting to/from downtown and the rest of LA was extremely easy. We went out a lot more to area restaurants as well as attractions because the transit was so easy from the hotel. [We had zero problems with the neighborhood, and we were out and about at all hours, men and women singly and in groups. Yes, it's gritty, but it's not dangerous.]
+-Free parking! Free parking! Free parking! And if that weren't enough the hotel has a free shuttle van with a four-mile radius, which is plenty to get you to the convention center/Staples. And our shuttle drivers were rad! Their friendliness and knowledge of the area really increased our enjoyment of the hotel. Can't say enough good about them (looking at you, Dennis!)
+-The free breakfast in the mornings was off the hook! It was a big time- and money-saver for our group to be able to start the day with a good meal and very good cup (or two) of coffee or tea (they even had hot chocolate) before starting the day's work. Breakfast consisted of: cartons of milk, greek and regular yogurt, dry cereal, instant oatmeal, bananas, apples, oranges, and peaches, ham, bacon, biscuits, gravy, scrambled...Just spent a week here on business. Was extremely happy with the choice to stay here! Why?-For downtown Los Angeles, it was inexpensive. And with a Metro stop a five-minute walk away, not to mention all the Metro buses, getting to/from downtown and the rest of LA was extremely easy. We went out a lot more to area restaurants as well as attractions because the transit was so easy from the hotel. [We had zero problems with the neighborhood, and we were out and about at all hours, men and women singly and in groups. Yes, it's gritty, but it's not dangerous.]-Free parking! Free parking! Free parking! And if that weren't enough the hotel has a free shuttle van with a four-mile radius, which is plenty to get you to the convention center/Staples. And our shuttle drivers were rad! Their friendliness and knowledge of the area really increased our enjoyment of the hotel. Can't say enough good about them (looking at you, Dennis!)-The free breakfast in the mornings was off the hook! It was a big time- and money-saver for our group to be able to start the day with a good meal and very good cup (or two) of coffee or tea (they even had hot chocolate) before starting the day's work. Breakfast consisted of: cartons of milk, greek and regular yogurt, dry cereal, instant oatmeal, bananas, apples, oranges, and peaches, ham, bacon, biscuits, gravy, scrambled and hard-boiled eggs, bagels, english muffins, pancakes (with butter, honey, or syrup), juice, cinnamon rolls...I think that's all. Nobody in our group complained about breakfast, that's for sure!-Nice common area for reading the paper or watching the Olympics any time of day, which was nice.-Nice rooms, too! Maxi minifridge, ironing board, plenty of towels and toiletries, a desk, a chair...quite comfortable. Efficient A/C, which we appreciated.-Great staff; efficient, knew what they were doing, friendly (nice to be greeted whenever I strolled in--I appreciated that)My only complaint is the wifi--unless I was there in the middle of the day when everyone else was out, it was so slow as to be completely unusable. This really needs to be addressed, because this property really has a lot going for it, but the wifi was a total bummer. Even so, I still recommend this Holiday Inn Express for business in the downtown Los Angeles area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r390195923-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>390195923</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Great service!</t>
+  </si>
+  <si>
+    <t>We chose this hotel because it was in Downtown and the price was low compare to others. The check in was fast, the service was good. The tour recommendations that the front desk gave us were great, the room was spacious, the bathroom was cleaned and the breakfast was great! BUT the location is not the best and you can't walk during the day or night.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r386200847-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>386200847</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most places in Los Angeles are either expensive or lack some facility or the other. Holiday Inn Express at Los Angeles Downtown ticks a lot of boxes. They have good parking. Security is good. There are places you can drive to to eat. Unfortunately apart from some fast food places like McDonald's, there aren't many places nearby for food. You need to have your wits about you to walk around. The above were the reasons for one less star. The rooms are good. Breakfast is standard Holiday Inn Express breakfast. The people behind the front desk were very helpful and helped us arrange bus tour of LA. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r383865266-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>383865266</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Decent hotel, think twice about location</t>
+  </si>
+  <si>
+    <t>If you are renting a car like we did, may not be a concern as much as what you are going to do is outside this area (if you are on a family trip). The hotel is ok is a holiday inn like any other one. The location is dodgy to be honest. Plan in advance and pick another location. The rates are expensive anyway.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded July 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2016</t>
+  </si>
+  <si>
+    <t>If you are renting a car like we did, may not be a concern as much as what you are going to do is outside this area (if you are on a family trip). The hotel is ok is a holiday inn like any other one. The location is dodgy to be honest. Plan in advance and pick another location. The rates are expensive anyway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r380435541-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>380435541</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Excellent Rooms and Staff</t>
+  </si>
+  <si>
+    <t>We stayed for one night prior to flying back to the UK.  Great rooms , very spacious clean and modern . The staff stood out with their friendliness on the front desk and could not have been more helpful . Always nice and reassuring . Thank you</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r377117197-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>377117197</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>This is the second time we have staid here since January. Both times have been good experiences. Easy in and out of the parking lot. I felt safe walking at night in the parking lot. Breakfast area is clean, food is decent, seating is lacking.  Business room was clean, with working computers and printer.  WIFI in the room works good. Good water pressure in the shower.  HVAC worked well.  Elevators are slow. Two complaints - the carpet in the hallways could be replaced. Very soiled and even fraying in some areas.  When truing on the tv the volume is set at a default which is very loud.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r370670105-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>370670105</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel in an interesting neighborhood</t>
+  </si>
+  <si>
+    <t>The hotel itself is a nice hotel.  The staff were super friendly and helpful, the place was clean, and the free breakfast was good.  You also can't beat the free parking, hard to come by in downtown LA.  I was a little concerned at first staying here after reading reviews because I was spending the week exploring, mostly with just me and my girls, while my husband was working downtown.  Yes, the neighborhood is not the best, but it wasn't anything to be afraid of.  There always seemed to be people around heading to and from places outside, and I didn't see many creepy people just hanging around for no reason.  Yes, you may want to avoid the park that is a block behind the hotel, but getting us to and from the metro station just down around the corner was not a concern.  They do offer a free shuttle that will go within something like 4 miles that we didn't make use of, when we went out for the day we took our car or rode the metro. That being said, we didn't head out after dark alone, and probably wouldn't have.  As far as the rooms go, we had one that faced the street and it was a bit noisy at times (cars, sirens, street noises, etc) but the sound of the AC at night was what I mostly heard.  If you need quiet to sleep, I suggest...The hotel itself is a nice hotel.  The staff were super friendly and helpful, the place was clean, and the free breakfast was good.  You also can't beat the free parking, hard to come by in downtown LA.  I was a little concerned at first staying here after reading reviews because I was spending the week exploring, mostly with just me and my girls, while my husband was working downtown.  Yes, the neighborhood is not the best, but it wasn't anything to be afraid of.  There always seemed to be people around heading to and from places outside, and I didn't see many creepy people just hanging around for no reason.  Yes, you may want to avoid the park that is a block behind the hotel, but getting us to and from the metro station just down around the corner was not a concern.  They do offer a free shuttle that will go within something like 4 miles that we didn't make use of, when we went out for the day we took our car or rode the metro. That being said, we didn't head out after dark alone, and probably wouldn't have.  As far as the rooms go, we had one that faced the street and it was a bit noisy at times (cars, sirens, street noises, etc) but the sound of the AC at night was what I mostly heard.  If you need quiet to sleep, I suggest asking the staff for a room away from the front, or bring some ear plugs.  All in all, it was nice hotel at a good price that was close to many things by car or metro.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded May 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2016</t>
+  </si>
+  <si>
+    <t>The hotel itself is a nice hotel.  The staff were super friendly and helpful, the place was clean, and the free breakfast was good.  You also can't beat the free parking, hard to come by in downtown LA.  I was a little concerned at first staying here after reading reviews because I was spending the week exploring, mostly with just me and my girls, while my husband was working downtown.  Yes, the neighborhood is not the best, but it wasn't anything to be afraid of.  There always seemed to be people around heading to and from places outside, and I didn't see many creepy people just hanging around for no reason.  Yes, you may want to avoid the park that is a block behind the hotel, but getting us to and from the metro station just down around the corner was not a concern.  They do offer a free shuttle that will go within something like 4 miles that we didn't make use of, when we went out for the day we took our car or rode the metro. That being said, we didn't head out after dark alone, and probably wouldn't have.  As far as the rooms go, we had one that faced the street and it was a bit noisy at times (cars, sirens, street noises, etc) but the sound of the AC at night was what I mostly heard.  If you need quiet to sleep, I suggest...The hotel itself is a nice hotel.  The staff were super friendly and helpful, the place was clean, and the free breakfast was good.  You also can't beat the free parking, hard to come by in downtown LA.  I was a little concerned at first staying here after reading reviews because I was spending the week exploring, mostly with just me and my girls, while my husband was working downtown.  Yes, the neighborhood is not the best, but it wasn't anything to be afraid of.  There always seemed to be people around heading to and from places outside, and I didn't see many creepy people just hanging around for no reason.  Yes, you may want to avoid the park that is a block behind the hotel, but getting us to and from the metro station just down around the corner was not a concern.  They do offer a free shuttle that will go within something like 4 miles that we didn't make use of, when we went out for the day we took our car or rode the metro. That being said, we didn't head out after dark alone, and probably wouldn't have.  As far as the rooms go, we had one that faced the street and it was a bit noisy at times (cars, sirens, street noises, etc) but the sound of the AC at night was what I mostly heard.  If you need quiet to sleep, I suggest asking the staff for a room away from the front, or bring some ear plugs.  All in all, it was nice hotel at a good price that was close to many things by car or metro.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r347781731-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>347781731</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Only the location lets it down</t>
+  </si>
+  <si>
+    <t>Spent four nights at this hotel last week and it was everything you'd expect of a Holiday Inn Express. Clean efficient functional and all very comforting.Step out the front door and you notice immediately your in a less affluent area of the city. I was coming in at 10pm and night and whilst I have to say I never had an issue I certainly didn't feel safe.I'd certainly not have stayed a second night if I'd been travelling with my wife and children, and it's a shame because there is nothing wron with the hotel.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r340772251-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>340772251</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Great value and H.I.E. service</t>
+  </si>
+  <si>
+    <t>I'm fairly loyal to the Holiday Inn Express brand. Originally I had a different hotel booked downtown for a business event, but after accidentally cancelling it, I had to get a new room and this was one of the cheaper ones near downtown. Parking and location were easy to find, this is a sketchy part of town for someone not from the area, but overall I ventured out a few times and didn't have any problems. Hotel staff was very helpful and the cinnamon rolls are hot every morning.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r338290314-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>338290314</t>
+  </si>
+  <si>
+    <t>01/07/2016</t>
+  </si>
+  <si>
+    <t>Bad Location</t>
+  </si>
+  <si>
+    <t>The hotel itself is nice enough. its clean, the staff is friendly, and the free breakfast is decent. The major thing that turned me off about this particular Holiday Inn was the location. I always use Holiday Inn because I have never been disappointed in their hotels, but this location was not the best.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2016</t>
+  </si>
+  <si>
+    <t>The hotel itself is nice enough. its clean, the staff is friendly, and the free breakfast is decent. The major thing that turned me off about this particular Holiday Inn was the location. I always use Holiday Inn because I have never been disappointed in their hotels, but this location was not the best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r319726489-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>319726489</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>Average stay at LA</t>
+  </si>
+  <si>
+    <t>This hotel is nice and clean,but the area surrounding isn't good,a convenient way to I board the metro train,but the flip side is that it's not close to any restaurants,the name downtown doesn't mean that it's in downtown LA,it's quite a distance from the real downtown area of LA,the locality is an average one,once in the hotel things are comfortable,would love to explore Tarantino in the real downtown area though.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded November 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is nice and clean,but the area surrounding isn't good,a convenient way to I board the metro train,but the flip side is that it's not close to any restaurants,the name downtown doesn't mean that it's in downtown LA,it's quite a distance from the real downtown area of LA,the locality is an average one,once in the hotel things are comfortable,would love to explore Tarantino in the real downtown area though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r318793663-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>318793663</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Excellent stay for a great price.</t>
+  </si>
+  <si>
+    <t>The friendly staff greeted us right as we walked in. The lobby smells fresh and clean. We were checked in quickly. The hotel is beautiful. This is a newly remodeled hotel  with contemporary decor. The beds are very comfortable and the rooms are quiet. It's not close to much but you can drive to everything you would want. This location is safe and convenient to most activities. We will be staying here again.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r312999679-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>312999679</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Good Clean Hotel But Not Convenient to Restaurants</t>
+  </si>
+  <si>
+    <t>Hotel is clean and comfortable, and the service is friendly. The A/C is loud but helps to drown out the street noise.  The breakfast is decent and has good options.  I agree with the other reviewers that the hotel has no control over the neighborhood, BUT it is important to know that there are few restaurants within walking distance and the hotel has NO room service, bar or food for sale.  If you are traveling alone for business, as I was, or traveling with a family you may not want to explore the neighborhood to find a place to eat.  The hotel will only recommend one Chinese restaurant in the area; they give you a list of places that deliver.  Otherwise, you can take a cab/Uber to a restaurant.  The hotel also has a shuttle, which I did not use, that can take you places as well.  For delivery, I recommend Amante Pizza &amp; Pasta.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded October 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2015</t>
+  </si>
+  <si>
+    <t>Hotel is clean and comfortable, and the service is friendly. The A/C is loud but helps to drown out the street noise.  The breakfast is decent and has good options.  I agree with the other reviewers that the hotel has no control over the neighborhood, BUT it is important to know that there are few restaurants within walking distance and the hotel has NO room service, bar or food for sale.  If you are traveling alone for business, as I was, or traveling with a family you may not want to explore the neighborhood to find a place to eat.  The hotel will only recommend one Chinese restaurant in the area; they give you a list of places that deliver.  Otherwise, you can take a cab/Uber to a restaurant.  The hotel also has a shuttle, which I did not use, that can take you places as well.  For delivery, I recommend Amante Pizza &amp; Pasta.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r298387883-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>298387883</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>good clean hotel</t>
+  </si>
+  <si>
+    <t>The service is excellent,the rooms are clean,the staff makes you feel welcome.I look forward to visiting this hotel in November. So simple,make people feel  comfortable,maybe someone from embassysuites river drive, miami should visit this hotel.thank you</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r296188532-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>296188532</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Great Downtown Hotel</t>
+  </si>
+  <si>
+    <t>Had to travel to Los Angeles for the day and needed a good hotel near Larchmont Blvd.  I searched Trip Advisor and this Holiday Inn Express fit the bill as it was only 4 miles away.  I felt very secure in the hotel once I arrived.  The hotel was clean and modern.  The staff was very friendly and professional.  I had a comfortable sleep and was impressed with the hot breakfast that was provided.  This place definitely meets the standards one would expect from Holiday Inn.  I will look forward to my next stay at Holiday Inn Express.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r293498420-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>293498420</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>A great value for LA</t>
+  </si>
+  <si>
+    <t>Good location for almost everything.  While not in the 'best section' of LA, the neighborhoods are diverse and interesting.  The room was spacious and clean and the staff was wonderful.  One of the best breakfast bars on our trip. The pool was small and parking spaces limited but I would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r284851371-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>284851371</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Great Choice!</t>
+  </si>
+  <si>
+    <t>All I can say is that this hotel lived up to my expectations. The staff was sooooo nice and the shuttle bus drivers were all very personable. The rooms were clean and it came with a fridge. The location was perfect for what I was there for. If I'm every in this area again, this will be were I will reside. Thanks Aida at the front desk for allowing us to leave our bags until our room was ready. The beds were comfortable and the hotel was quiet. The morning breakfast was very good. Thanks again to the staff at this great establishment!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r284051559-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>284051559</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We had   a convention  downtown &amp; they provide FREE shuttle back &amp; forth which was so convenient..staff all excellent &amp; helpful. Motel nice &amp; safe though in rough part of town..as many downtown areas are.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r279629173-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>279629173</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Liked</t>
+  </si>
+  <si>
+    <t>Best in this area. Free parking and free wifi. Helpful employers. I asked the silent room because of my sleeping problems and he gave us the silence one. And gave the map and marked the must see places. We walked around there. Located mexican area (as everbody talks spanish). Very near to hollywood sign walk frame and universal</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r269068939-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>269068939</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Decent Hotel in not so great neighborhood</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for a week on a business trip. The hotel itself is OK but the area is a little shady. Not many restaurants in the vicinity and you have to rely on deliveries. They have weird rule of using the room keys for elevators and most of the rooms are without the microwave.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded May 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2015</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for a week on a business trip. The hotel itself is OK but the area is a little shady. Not many restaurants in the vicinity and you have to rely on deliveries. They have weird rule of using the room keys for elevators and most of the rooms are without the microwave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r267544193-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>267544193</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Another great visit...</t>
+  </si>
+  <si>
+    <t>The people here are very nice, the facility is spotless, the rooms are very comfortable, breakfast is nice, and all of our points of interest are a short drive away. Yes, the area may not be the best, but, that can be said about hotels in many big cities. I do not feel the least bit unsafe staying here nor does the rest of my family. We do not walk around at times and/or places that we should not. Basic situational awareness is important at all travel destinations and customized accordingly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r266098980-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>266098980</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Wonderful hosts and a great place to stay</t>
+  </si>
+  <si>
+    <t>My friend and I stayed there for a conference who had recommended this motel. The room was clean and the beds were comfortable and cozy. All the staff were helpful and wonderful with everything. A very pleasant stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r259323135-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>259323135</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>Find a different hotel</t>
+  </si>
+  <si>
+    <t>The rooms are fair, in a gray decorated sort of way.  The hotel is not located in a really good part of town. It does not feel safe.  The staff at the hotel tries to do a good job and be helpful. They did not reach that end game.   And watch your use of the shuttle.  I was told they would pick me up from the conference center at any time. When I called they said the shuttle was not available today from 1 to 4 PM. This was after three employees at the front desk promoted and insisted it would be better to take the shuttle.  Not one of them mentioned that the shuttle would not be available that afternoon.  When I finally took a taxi back to the hotel, there was the shuttle leaving with a customer. There are worse hotels in downtown LA however I would check out other options before staying here.  MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded March 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2015</t>
+  </si>
+  <si>
+    <t>The rooms are fair, in a gray decorated sort of way.  The hotel is not located in a really good part of town. It does not feel safe.  The staff at the hotel tries to do a good job and be helpful. They did not reach that end game.   And watch your use of the shuttle.  I was told they would pick me up from the conference center at any time. When I called they said the shuttle was not available today from 1 to 4 PM. This was after three employees at the front desk promoted and insisted it would be better to take the shuttle.  Not one of them mentioned that the shuttle would not be available that afternoon.  When I finally took a taxi back to the hotel, there was the shuttle leaving with a customer. There are worse hotels in downtown LA however I would check out other options before staying here.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r259197742-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>259197742</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient and comfortable </t>
+  </si>
+  <si>
+    <t>The hotel is very clean and close to LA Convention Center. Is not a very nice neighbourhood but the price-value is good! The staff is nice and breakfast is good! It is a good place, The WIFI is not good, but pillows are great! They also offer shuttle! MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded March 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is very clean and close to LA Convention Center. Is not a very nice neighbourhood but the price-value is good! The staff is nice and breakfast is good! It is a good place, The WIFI is not good, but pillows are great! They also offer shuttle! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r257200036-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>257200036</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay but bad location. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surrounding wasn't the best bit once I check in and got inside everything was perfect. The staff were nice and the morning breakfast was pretty good. The room where clean and organize. If you are expecting an amazing view since it's not far from downtown this is not the place. </t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r243408639-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>243408639</t>
+  </si>
+  <si>
+    <t>12/07/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay Here! Trust Me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They had me at: Free Parking. Free Breakfast. Free Internet. What else is there? Great prices. Clean hotel. Modern lobby. Friendly staff. Typical HIE breakfasts but effective. This is LA. The neighborhood is fairly sketchy but drive your car in and park it. You're safe and free of worry. I will stay here again.  Small jacuzzi area no pool. Vending on floors. Convenient to main roads and central to what I needed. Was in town for Fleetwood Mac concert and this place was perfect. </t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r242526536-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>242526536</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Hotel FINE, location...."scary"</t>
+  </si>
+  <si>
+    <t>I was attending the Los Angles Auto Show with my wife and this was the closest location to the show.  That was very convenient with the drop off and pick up shuttle service provided by the hotel.  The area of town is SO SCARY we were afraid to venture out at night AT ALL.  We were forced to eat delivered pizza both nights we were there.  The area is just FILTHY, trash everywhere, homeless people everywhere as well.  This is just like any other major downtown hotel one would say, BUT that is not true.  Go to downtown San Antonio, TX and it is clean, landscaped and VERY WELL patrolled so one feels totally safe there.  I was just not comfortable with my surroundings in LA at all.  That I blame on the city NOT the hotel.  The hotel was nice, clean and the staff was very helpful as well.  I was worried about my vehicle in these surroundings, but the staff assured me all would be just fine and it was.  Would I recommend this hotel, the HOTEL itself, YES, where it is located, NEVER!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>I was attending the Los Angles Auto Show with my wife and this was the closest location to the show.  That was very convenient with the drop off and pick up shuttle service provided by the hotel.  The area of town is SO SCARY we were afraid to venture out at night AT ALL.  We were forced to eat delivered pizza both nights we were there.  The area is just FILTHY, trash everywhere, homeless people everywhere as well.  This is just like any other major downtown hotel one would say, BUT that is not true.  Go to downtown San Antonio, TX and it is clean, landscaped and VERY WELL patrolled so one feels totally safe there.  I was just not comfortable with my surroundings in LA at all.  That I blame on the city NOT the hotel.  The hotel was nice, clean and the staff was very helpful as well.  I was worried about my vehicle in these surroundings, but the staff assured me all would be just fine and it was.  Would I recommend this hotel, the HOTEL itself, YES, where it is located, NEVER!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r241736814-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>241736814</t>
+  </si>
+  <si>
+    <t>11/27/2014</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>After American Airlines lost my luggage we finally drove about 30 minutes from LAX to the hotel. Our first impressions were horrible and we were scared of the area and underground parking. Its a pretty bad area and sketchy at night. Checking in it was 6am Toronto time and we were so thirsty. The guy at the desk gave us complimentary waters. The hotel was clean inside, no complaints. We finally fell asleep then at 8am I thought my friend was blowdrying her hair, then stopping, then re blowdrying her hair. I was really annoyed. I finally woke up and realized it wasn't her. But the hotel staff decided that 8am was a great time to vacuum the floor.  So we walk downstairs to the free breakfast. It consists of microwaved eggs, microwaved bacon, cereal, a weird pancake machine that sometimes works. They had juice that was pretty good though. Theres no gift shop or restaurant anywhere near by. There was one really nice girl at the front young and spanish maybe. When ever we asked her about going somewhere she would print us off papers and help us out. Also do not rent your car with Hertz. This black lady was the rudest person we encountered on our whole trip. They gave us a car with damage and didn't have someone there to take note of the damage. then when we returned the car they had the audacity to...After American Airlines lost my luggage we finally drove about 30 minutes from LAX to the hotel. Our first impressions were horrible and we were scared of the area and underground parking. Its a pretty bad area and sketchy at night. Checking in it was 6am Toronto time and we were so thirsty. The guy at the desk gave us complimentary waters. The hotel was clean inside, no complaints. We finally fell asleep then at 8am I thought my friend was blowdrying her hair, then stopping, then re blowdrying her hair. I was really annoyed. I finally woke up and realized it wasn't her. But the hotel staff decided that 8am was a great time to vacuum the floor.  So we walk downstairs to the free breakfast. It consists of microwaved eggs, microwaved bacon, cereal, a weird pancake machine that sometimes works. They had juice that was pretty good though. Theres no gift shop or restaurant anywhere near by. There was one really nice girl at the front young and spanish maybe. When ever we asked her about going somewhere she would print us off papers and help us out. Also do not rent your car with Hertz. This black lady was the rudest person we encountered on our whole trip. They gave us a car with damage and didn't have someone there to take note of the damage. then when we returned the car they had the audacity to ask us about the damage, good thing I took a picture of it prior to leaving the lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded December 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2014</t>
+  </si>
+  <si>
+    <t>After American Airlines lost my luggage we finally drove about 30 minutes from LAX to the hotel. Our first impressions were horrible and we were scared of the area and underground parking. Its a pretty bad area and sketchy at night. Checking in it was 6am Toronto time and we were so thirsty. The guy at the desk gave us complimentary waters. The hotel was clean inside, no complaints. We finally fell asleep then at 8am I thought my friend was blowdrying her hair, then stopping, then re blowdrying her hair. I was really annoyed. I finally woke up and realized it wasn't her. But the hotel staff decided that 8am was a great time to vacuum the floor.  So we walk downstairs to the free breakfast. It consists of microwaved eggs, microwaved bacon, cereal, a weird pancake machine that sometimes works. They had juice that was pretty good though. Theres no gift shop or restaurant anywhere near by. There was one really nice girl at the front young and spanish maybe. When ever we asked her about going somewhere she would print us off papers and help us out. Also do not rent your car with Hertz. This black lady was the rudest person we encountered on our whole trip. They gave us a car with damage and didn't have someone there to take note of the damage. then when we returned the car they had the audacity to...After American Airlines lost my luggage we finally drove about 30 minutes from LAX to the hotel. Our first impressions were horrible and we were scared of the area and underground parking. Its a pretty bad area and sketchy at night. Checking in it was 6am Toronto time and we were so thirsty. The guy at the desk gave us complimentary waters. The hotel was clean inside, no complaints. We finally fell asleep then at 8am I thought my friend was blowdrying her hair, then stopping, then re blowdrying her hair. I was really annoyed. I finally woke up and realized it wasn't her. But the hotel staff decided that 8am was a great time to vacuum the floor.  So we walk downstairs to the free breakfast. It consists of microwaved eggs, microwaved bacon, cereal, a weird pancake machine that sometimes works. They had juice that was pretty good though. Theres no gift shop or restaurant anywhere near by. There was one really nice girl at the front young and spanish maybe. When ever we asked her about going somewhere she would print us off papers and help us out. Also do not rent your car with Hertz. This black lady was the rudest person we encountered on our whole trip. They gave us a car with damage and didn't have someone there to take note of the damage. then when we returned the car they had the audacity to ask us about the damage, good thing I took a picture of it prior to leaving the lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r237494391-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>237494391</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>Was there just one night but was surprised and impressed. The room was very large and fairly nice. Nice size Tv. Parking can be tough as it  has limited parking on premises. Pretty good breakfast items available.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r235452890-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>235452890</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Exceptional</t>
+  </si>
+  <si>
+    <t>Ignore any negative reviews about location.  This is downtown los angeles and no different than any other large urban city.  The location was amazing.  Minutes from downtown and a easy drive to all area attractions.  Disneyland was a 40 mins drive at 8am and 30 minutes returning.  Parking can be spotty but again,  its downtown los angeles and its included in room fee. Front desk staff was exceptional.  The lady during check in was knowledgeable and made me feel welcomed.  The room was spotless.  I have been to the most expensive hotels and it bothers when i see any hair in the bathroom this room was like it was brand new.  Housekeeping cleaned my room immaculately daily. The breakfast in the morning was amazing.  Yay for passion fruit juice. This location will maintain my business for my next trip to la.  Thank you for a wonderful stayMoreShow less</t>
+  </si>
+  <si>
+    <t>Ignore any negative reviews about location.  This is downtown los angeles and no different than any other large urban city.  The location was amazing.  Minutes from downtown and a easy drive to all area attractions.  Disneyland was a 40 mins drive at 8am and 30 minutes returning.  Parking can be spotty but again,  its downtown los angeles and its included in room fee. Front desk staff was exceptional.  The lady during check in was knowledgeable and made me feel welcomed.  The room was spotless.  I have been to the most expensive hotels and it bothers when i see any hair in the bathroom this room was like it was brand new.  Housekeeping cleaned my room immaculately daily. The breakfast in the morning was amazing.  Yay for passion fruit juice. This location will maintain my business for my next trip to la.  Thank you for a wonderful stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r232805947-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>232805947</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>Customer service at it's finest</t>
+  </si>
+  <si>
+    <t>Beautiful clean room with the most comfortable beds. Location a bit more downtown but we like to be away from the trendy areas.The customer service at this hotel was the best we had experienced throughout our travels of the US. On arrival they could see we were tired after a long day in the car and offered to take us locally to an eatery via their courtesy bus which was great (highly recommend China Town). They also helped book a tour for the following day.Upon our departure we found we had a flat tyre and were a little stressed as we had plans for the day. Reception organised for the courtesy bus driver to take my husband to a motor shop, waited until the tyre had been patched and bought him back to the hotel. All I can say is a HUGE thank you - we will return based on this awesome service.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Beautiful clean room with the most comfortable beds. Location a bit more downtown but we like to be away from the trendy areas.The customer service at this hotel was the best we had experienced throughout our travels of the US. On arrival they could see we were tired after a long day in the car and offered to take us locally to an eatery via their courtesy bus which was great (highly recommend China Town). They also helped book a tour for the following day.Upon our departure we found we had a flat tyre and were a little stressed as we had plans for the day. Reception organised for the courtesy bus driver to take my husband to a motor shop, waited until the tyre had been patched and bought him back to the hotel. All I can say is a HUGE thank you - we will return based on this awesome service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r228662223-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>228662223</t>
+  </si>
+  <si>
+    <t>09/13/2014</t>
+  </si>
+  <si>
+    <t>Beautiful</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 3 nights. the hotel is nice, new, clean and equipped with all comfort. has a room with computer and free wifi access, free parking, free breakfast and plentiful and also coffee and hot tea was available all day. also present daily newspapers in the area. staff very friendly and qualified. The hotel also has one other thing that is very convenient a shuttle that brings hotel guests free within 4 miles. the only flaw we found is that the hotel is completely decentralized and in the neighborhood somewhat degraded. very inconvenient to get to the walk of fame, hollywood and bevery hills</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r228206394-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>228206394</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>Surprise!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We arrived in town at 9AM and were very surprised that the hotel immediately checked us in. The staff was awesome but I felt the rooms were not equal to the rate. The hotel value was not there. I am totally basing my opinion on other Holiday Inn's where I have stayed. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r223968590-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>223968590</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>I love to stay at IHG properties for there great customer service. Aida was magnificent  always attentive to my needs, always assisting everyone in a very pleasant manner. The only thing I didn't like was the attitude from apparently the General  Manager. As a Manager myself, you don't tell your employees what you did wrong in front  of customers. That's very unprofessional and disrespectful towards the employee and customers. Overall, I really enjoyed myself.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r218363594-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>218363594</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>a great value for downtown LA area</t>
+  </si>
+  <si>
+    <t>The hotels in the downtown area range from $300-700/night!  Whew!  I'm paying $170/night.  The immediate area isn't one you want to stroll around in, but they offer shuttle service to anywhere in a 4 mile radius....you need to prearrange for the shuttle.  The hotel itself is relatively new and so it feels very comfortable.  There is NO street noise in the room with the windows closed, even though there is a lot of car traffic outside.  Wi-fi is free.  And a really expansive breakfast is included....think sweet rolls, cereals, eggs, ham, sausage, pancakes, waffles, fruit...etc.  Plus parking is free!! The front desk staff could not have been nicer.  Seyed checked us in and was very efficient and thoughtful in welcoming us and getting our paperwork correct. if you want to stay close to downtown LA and don't want to break the bank...this is a great place to stay.  A note to the management - when we stayed you were completely booked.  So you knew every room was going to be used that night.  The AC should have been turned on in every room BEFORE  guests arrive!  It's just basic hospitality.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>The hotels in the downtown area range from $300-700/night!  Whew!  I'm paying $170/night.  The immediate area isn't one you want to stroll around in, but they offer shuttle service to anywhere in a 4 mile radius....you need to prearrange for the shuttle.  The hotel itself is relatively new and so it feels very comfortable.  There is NO street noise in the room with the windows closed, even though there is a lot of car traffic outside.  Wi-fi is free.  And a really expansive breakfast is included....think sweet rolls, cereals, eggs, ham, sausage, pancakes, waffles, fruit...etc.  Plus parking is free!! The front desk staff could not have been nicer.  Seyed checked us in and was very efficient and thoughtful in welcoming us and getting our paperwork correct. if you want to stay close to downtown LA and don't want to break the bank...this is a great place to stay.  A note to the management - when we stayed you were completely booked.  So you knew every room was going to be used that night.  The AC should have been turned on in every room BEFORE  guests arrive!  It's just basic hospitality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r218061943-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>218061943</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Area is sketchy.</t>
+  </si>
+  <si>
+    <t>Room was clean.  Older hotel but kept up.  Breakfast was good as expected at a HI Express Hotel.  However, this is not an area to walk around during the day but especially after dark.  MacArthur Park is across the street from Metro and is full of homeless people.  I would not go out there alone.  We felt out of place since it is a largely Hispanic community and people were not speaking English.  We were not bothered by anyone but were alert to the atmosphere around us at all times.  If you take the Metro, use the rear entrance and that will avoid the area around MacArthur Park.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded August 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2014</t>
+  </si>
+  <si>
+    <t>Room was clean.  Older hotel but kept up.  Breakfast was good as expected at a HI Express Hotel.  However, this is not an area to walk around during the day but especially after dark.  MacArthur Park is across the street from Metro and is full of homeless people.  I would not go out there alone.  We felt out of place since it is a largely Hispanic community and people were not speaking English.  We were not bothered by anyone but were alert to the atmosphere around us at all times.  If you take the Metro, use the rear entrance and that will avoid the area around MacArthur Park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r216629212-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>216629212</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Hotel was great.</t>
+  </si>
+  <si>
+    <t>This hotel was clean, comfortable and roomy.  Breakfast was super!!  Dennis at the front counter was even better!  Dennis made great suggestions of things to do, places to eat.The only downfall possibly was the location, the area is a bit sketchy.  It is very interesting as there is a large Mexican community around the hotel area, so it feels like you are in Mexico in the evenings.  Around the corner from the hotel is a grocery store and on the way there in the evenings you can see people with blankets laid out on the sidewalk selling clothing, dvds, personal hygiene items as well, cooking tortillas, chicken, selling pop and chips, everyone is out of their apartments and wandering around the street. Very unique atmosphere.  Felt more like you are in Mexico.  We did walk to LA LIve several times, to the Redline and the bus stops, no one bothered us or made us feel uneasy at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was clean, comfortable and roomy.  Breakfast was super!!  Dennis at the front counter was even better!  Dennis made great suggestions of things to do, places to eat.The only downfall possibly was the location, the area is a bit sketchy.  It is very interesting as there is a large Mexican community around the hotel area, so it feels like you are in Mexico in the evenings.  Around the corner from the hotel is a grocery store and on the way there in the evenings you can see people with blankets laid out on the sidewalk selling clothing, dvds, personal hygiene items as well, cooking tortillas, chicken, selling pop and chips, everyone is out of their apartments and wandering around the street. Very unique atmosphere.  Felt more like you are in Mexico.  We did walk to LA LIve several times, to the Redline and the bus stops, no one bothered us or made us feel uneasy at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r206639642-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>206639642</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>My family and I had such a great experience at this hotel. We tried to check in early but our room was not ready, but Aida at the front desk was awesome and checked out baggage in so we could explore LA. The shuttle service was excellent and Martin gave a recommendation for a restaurant in the area, which was so good we ended up going there twice! Free shuttle service to USC campus for graduation was a definite plus due to the crazy traffic and parking problems. The rooms were very comfortable. I would recommend this hotel to anyone that has to stay in the Downtown LA area. Close proximity to the Staples Center, USC. etc. Great breakfast buffet. Overall a fantastic stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>My family and I had such a great experience at this hotel. We tried to check in early but our room was not ready, but Aida at the front desk was awesome and checked out baggage in so we could explore LA. The shuttle service was excellent and Martin gave a recommendation for a restaurant in the area, which was so good we ended up going there twice! Free shuttle service to USC campus for graduation was a definite plus due to the crazy traffic and parking problems. The rooms were very comfortable. I would recommend this hotel to anyone that has to stay in the Downtown LA area. Close proximity to the Staples Center, USC. etc. Great breakfast buffet. Overall a fantastic stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r206255899-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>206255899</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>"Excellent Customer Service"</t>
+  </si>
+  <si>
+    <t>As an IHG member, I always choose this hotel for business stay. I had never experience such a magnificent customer service Supervisor Aida was way beyond attentive and helpful. She was able to answer all my questions and not mentioned the upgrade to a beautiful and spacious suite.Now, I know where to stay on my next stay in Los Angeles. The free shuttle was a plus to my trip.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r202736386-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>202736386</t>
+  </si>
+  <si>
+    <t>04/25/2014</t>
+  </si>
+  <si>
+    <t>good service and breakfast</t>
+  </si>
+  <si>
+    <t>free shuttle service from or to the nearby attractions, it really convenience.clean room and comfortable but not many sockets.Wi-Fi service is free and perfect.We have nice breakfast every morning for 4 days.slept wellask them for any information, every service  are good</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r196353477-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>196353477</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>Average H.I. Express hotel made amazing by exceptional staff.</t>
+  </si>
+  <si>
+    <t>Sometimes, it is the small things can elevate an average stay to greatness:
+My colleague and I had a very early arrival from a Long Haul flight into LAX - tired and a touch dishevelled, we presented at check in around 9.30 am...  Amazingly, we were able to get access to our room right away! (If this was a perk of being Platinum with IHG Rewards, I am not sure).  The check in staff were all friendly, efficient and welcoming - even inviting us to enjoy the free breakfast before crashing out in our room.     
+Later in the day, we needed to attend an Oscars event in Hollywood - but my collegue had forgot to pack a tie for the night. Firstly, the manager offered for us to use HIS tie (amazing for him to offer) - but it did not quite match the suit worn - so he then arranged for the hotel van to take us to a shop - THEN take us directly to the Oscars party... FOR FREE!!!!!! When we rolled back in at 3am a little under the weather - they arranged for pizza to be delivered for us too!! I can not thank the guys here enough for making our evening flow so smoothly!!!
+The hotel itself is in kind of a iffy area BUT it is very close to the Metro and Downtown...  If going to events at the Staples Centre / Disney...Sometimes, it is the small things can elevate an average stay to greatness:My colleague and I had a very early arrival from a Long Haul flight into LAX - tired and a touch dishevelled, we presented at check in around 9.30 am...  Amazingly, we were able to get access to our room right away! (If this was a perk of being Platinum with IHG Rewards, I am not sure).  The check in staff were all friendly, efficient and welcoming - even inviting us to enjoy the free breakfast before crashing out in our room.     Later in the day, we needed to attend an Oscars event in Hollywood - but my collegue had forgot to pack a tie for the night. Firstly, the manager offered for us to use HIS tie (amazing for him to offer) - but it did not quite match the suit worn - so he then arranged for the hotel van to take us to a shop - THEN take us directly to the Oscars party... FOR FREE!!!!!! When we rolled back in at 3am a little under the weather - they arranged for pizza to be delivered for us too!! I can not thank the guys here enough for making our evening flow so smoothly!!!The hotel itself is in kind of a iffy area BUT it is very close to the Metro and Downtown...  If going to events at the Staples Centre / Disney Hall etc etc, it is only 2 stops away on the Metro (or a free ride in the hotels van).The rooms are standard HI Express standard - but very clean and well maintained.  There is a small hot tub downstairs and breakfast (not great - but free) is included in the rate.To all the amazing staff there - Thanks again for my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Sometimes, it is the small things can elevate an average stay to greatness:
+My colleague and I had a very early arrival from a Long Haul flight into LAX - tired and a touch dishevelled, we presented at check in around 9.30 am...  Amazingly, we were able to get access to our room right away! (If this was a perk of being Platinum with IHG Rewards, I am not sure).  The check in staff were all friendly, efficient and welcoming - even inviting us to enjoy the free breakfast before crashing out in our room.     
+Later in the day, we needed to attend an Oscars event in Hollywood - but my collegue had forgot to pack a tie for the night. Firstly, the manager offered for us to use HIS tie (amazing for him to offer) - but it did not quite match the suit worn - so he then arranged for the hotel van to take us to a shop - THEN take us directly to the Oscars party... FOR FREE!!!!!! When we rolled back in at 3am a little under the weather - they arranged for pizza to be delivered for us too!! I can not thank the guys here enough for making our evening flow so smoothly!!!
+The hotel itself is in kind of a iffy area BUT it is very close to the Metro and Downtown...  If going to events at the Staples Centre / Disney...Sometimes, it is the small things can elevate an average stay to greatness:My colleague and I had a very early arrival from a Long Haul flight into LAX - tired and a touch dishevelled, we presented at check in around 9.30 am...  Amazingly, we were able to get access to our room right away! (If this was a perk of being Platinum with IHG Rewards, I am not sure).  The check in staff were all friendly, efficient and welcoming - even inviting us to enjoy the free breakfast before crashing out in our room.     Later in the day, we needed to attend an Oscars event in Hollywood - but my collegue had forgot to pack a tie for the night. Firstly, the manager offered for us to use HIS tie (amazing for him to offer) - but it did not quite match the suit worn - so he then arranged for the hotel van to take us to a shop - THEN take us directly to the Oscars party... FOR FREE!!!!!! When we rolled back in at 3am a little under the weather - they arranged for pizza to be delivered for us too!! I can not thank the guys here enough for making our evening flow so smoothly!!!The hotel itself is in kind of a iffy area BUT it is very close to the Metro and Downtown...  If going to events at the Staples Centre / Disney Hall etc etc, it is only 2 stops away on the Metro (or a free ride in the hotels van).The rooms are standard HI Express standard - but very clean and well maintained.  There is a small hot tub downstairs and breakfast (not great - but free) is included in the rate.To all the amazing staff there - Thanks again for my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r194468618-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>194468618</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>Great customer service!</t>
+  </si>
+  <si>
+    <t>I had never seen such a great customer service upon check in Ida was very professional and helpful through out my stay.Dennis driver was awesome. Evening staff male and female were very unprofessional. The room was very clean and spacious.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r192905133-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>192905133</t>
+  </si>
+  <si>
+    <t>02/02/2014</t>
+  </si>
+  <si>
+    <t>Excellent staff!</t>
+  </si>
+  <si>
+    <t>This was my second stay here (first was September 2013) and both times I was ever so blessed to have Juan the shuttle driver picked me up at Union Station after my train ride. Juan sets the standard for the rest of the staff, who are also friendly. The hotel is in not the best neighborhood, at least at night. But I felt plenty safe walking around during the day and I'm on old white guy. The rooms are ok and the hotel is an excellent place to stay if you have business in downtown LA. I'd take the train to LA and call the hotel shuttle to pick you up. Maybe you'll luck out and get Juan as your driver!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>This was my second stay here (first was September 2013) and both times I was ever so blessed to have Juan the shuttle driver picked me up at Union Station after my train ride. Juan sets the standard for the rest of the staff, who are also friendly. The hotel is in not the best neighborhood, at least at night. But I felt plenty safe walking around during the day and I'm on old white guy. The rooms are ok and the hotel is an excellent place to stay if you have business in downtown LA. I'd take the train to LA and call the hotel shuttle to pick you up. Maybe you'll luck out and get Juan as your driver!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r186794615-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>186794615</t>
+  </si>
+  <si>
+    <t>12/04/2013</t>
+  </si>
+  <si>
+    <t>Nothing good to say...</t>
+  </si>
+  <si>
+    <t>There was an odor in both the hallway and the room.There were no outlets close to the bed, so could not charge my e-reader or phone next to the bed.The door to the bathroom felt tacky like the paint was still wet, there was a hair stuck to the wall and the tub didn't seem very clean.  There was no water pressure in the shower, the tub didn't drain well, and after I was finished taking a shower, there was A LOT of water on the bathroom floor.  Had to use 2 towels to sop it up.  The water also tasted like it came from rusty pipes when I brushed my teeth.  I used bottled water to brush my teeth thereafter.The wifi access was very slow and sometimes just periodically cut out.Housekeeping didn't come to my room until 4pm and since the room didn't feel all that clean to begin with, I just told them not to bother.I would not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded December 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2013</t>
+  </si>
+  <si>
+    <t>There was an odor in both the hallway and the room.There were no outlets close to the bed, so could not charge my e-reader or phone next to the bed.The door to the bathroom felt tacky like the paint was still wet, there was a hair stuck to the wall and the tub didn't seem very clean.  There was no water pressure in the shower, the tub didn't drain well, and after I was finished taking a shower, there was A LOT of water on the bathroom floor.  Had to use 2 towels to sop it up.  The water also tasted like it came from rusty pipes when I brushed my teeth.  I used bottled water to brush my teeth thereafter.The wifi access was very slow and sometimes just periodically cut out.Housekeeping didn't come to my room until 4pm and since the room didn't feel all that clean to begin with, I just told them not to bother.I would not recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r186273111-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>186273111</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>A place you can call home; reliable, friendly staff</t>
+  </si>
+  <si>
+    <t>I have brittle bones and find it incredible difficult to travel to a new city and find any place I can feel safe, simply because of how vulnerable I am to damage, at all times. However, the staff and manager, Javier, here have gone out of their way to make me feel safe and never made me feel as if I was burdening them when asking for help with something. Even if they couldn't help directly, they will try to find the answer for you. One time, I had to go out and needed a backpack just for the day and couldn't buy a new one as I was late and the manger emptied and lent me his own personal backpack until I returned. I also respect how the hotel always appears to be trying to improve their guest experience and paying attention to detail. One time I stayed and the light on one of the elevator buttons was out. I came back a month or so later and they had this fixed. And they had also added the idea of giving guests a little "goodie bag" (water, pretzels/snacks, toothbrush/toothpaste etc) upon checkin. Little details like this show me the hotel staff really care about quality and the manager clearly takes pride in good work ethic.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I have brittle bones and find it incredible difficult to travel to a new city and find any place I can feel safe, simply because of how vulnerable I am to damage, at all times. However, the staff and manager, Javier, here have gone out of their way to make me feel safe and never made me feel as if I was burdening them when asking for help with something. Even if they couldn't help directly, they will try to find the answer for you. One time, I had to go out and needed a backpack just for the day and couldn't buy a new one as I was late and the manger emptied and lent me his own personal backpack until I returned. I also respect how the hotel always appears to be trying to improve their guest experience and paying attention to detail. One time I stayed and the light on one of the elevator buttons was out. I came back a month or so later and they had this fixed. And they had also added the idea of giving guests a little "goodie bag" (water, pretzels/snacks, toothbrush/toothpaste etc) upon checkin. Little details like this show me the hotel staff really care about quality and the manager clearly takes pride in good work ethic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r185171286-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>185171286</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>Convenient and Better than Expected</t>
+  </si>
+  <si>
+    <t>Booked this location for one night because it was close to the wedding venue I was attending and to gain some points as an IHG Rewards Club member before heading to LAX the next day. Outdoor parking was free unlike true downtown hotels, which slightly compensates for the high price of $190 with tax for a flexible rate. Checkin by Aida was friendly and efficient although it's more like a motel so there was no offer to help with luggage. There were also a few policemen in the lobby maybe responding to a disturbance, but there was nothing that I could notice. 
+As a platinum member I was given a large double queen room with kitchenette and also a small bag with chips and water. I certainly wouldn't recommend the hotel for a special occasion as the room was rather dark, but it was clean and spacious if you have a family. 
+The neighborhood seemed fine during the daytime with lots of people around, but as in any large city I would be more cautious at night especially near the park. 
+I was surprised that the shuttle service was free to any place within a few miles, and not just to Staples Center. The driver was friendly and dropped me off at the wedding venue at the requested time. After the wedding we went downtown so I just took a cab back to the hotel. 
+Did not have breakfast, but...Booked this location for one night because it was close to the wedding venue I was attending and to gain some points as an IHG Rewards Club member before heading to LAX the next day. Outdoor parking was free unlike true downtown hotels, which slightly compensates for the high price of $190 with tax for a flexible rate. Checkin by Aida was friendly and efficient although it's more like a motel so there was no offer to help with luggage. There were also a few policemen in the lobby maybe responding to a disturbance, but there was nothing that I could notice. As a platinum member I was given a large double queen room with kitchenette and also a small bag with chips and water. I certainly wouldn't recommend the hotel for a special occasion as the room was rather dark, but it was clean and spacious if you have a family. The neighborhood seemed fine during the daytime with lots of people around, but as in any large city I would be more cautious at night especially near the park. I was surprised that the shuttle service was free to any place within a few miles, and not just to Staples Center. The driver was friendly and dropped me off at the wedding venue at the requested time. After the wedding we went downtown so I just took a cab back to the hotel. Did not have breakfast, but it's probably quite basic like any HIX. When I woke up there was an express checkout receipt under the door, so checkout was a breeze. I also gained a lot of points for the stay, which largely compensated for the price difference with some of the other hotels in the area. Overall the hotel is nothing special, but I give it an extra star for the friendly and professional service I experienced. I would only recommend it if you really have to be in this particular area; for tourists other locations would probably be cheaper and closer to the beach, etc. I've stayed in 5 star hotels in Asia for the same price, but that would be an unfair comparison.MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked this location for one night because it was close to the wedding venue I was attending and to gain some points as an IHG Rewards Club member before heading to LAX the next day. Outdoor parking was free unlike true downtown hotels, which slightly compensates for the high price of $190 with tax for a flexible rate. Checkin by Aida was friendly and efficient although it's more like a motel so there was no offer to help with luggage. There were also a few policemen in the lobby maybe responding to a disturbance, but there was nothing that I could notice. 
+As a platinum member I was given a large double queen room with kitchenette and also a small bag with chips and water. I certainly wouldn't recommend the hotel for a special occasion as the room was rather dark, but it was clean and spacious if you have a family. 
+The neighborhood seemed fine during the daytime with lots of people around, but as in any large city I would be more cautious at night especially near the park. 
+I was surprised that the shuttle service was free to any place within a few miles, and not just to Staples Center. The driver was friendly and dropped me off at the wedding venue at the requested time. After the wedding we went downtown so I just took a cab back to the hotel. 
+Did not have breakfast, but...Booked this location for one night because it was close to the wedding venue I was attending and to gain some points as an IHG Rewards Club member before heading to LAX the next day. Outdoor parking was free unlike true downtown hotels, which slightly compensates for the high price of $190 with tax for a flexible rate. Checkin by Aida was friendly and efficient although it's more like a motel so there was no offer to help with luggage. There were also a few policemen in the lobby maybe responding to a disturbance, but there was nothing that I could notice. As a platinum member I was given a large double queen room with kitchenette and also a small bag with chips and water. I certainly wouldn't recommend the hotel for a special occasion as the room was rather dark, but it was clean and spacious if you have a family. The neighborhood seemed fine during the daytime with lots of people around, but as in any large city I would be more cautious at night especially near the park. I was surprised that the shuttle service was free to any place within a few miles, and not just to Staples Center. The driver was friendly and dropped me off at the wedding venue at the requested time. After the wedding we went downtown so I just took a cab back to the hotel. Did not have breakfast, but it's probably quite basic like any HIX. When I woke up there was an express checkout receipt under the door, so checkout was a breeze. I also gained a lot of points for the stay, which largely compensated for the price difference with some of the other hotels in the area. Overall the hotel is nothing special, but I give it an extra star for the friendly and professional service I experienced. I would only recommend it if you really have to be in this particular area; for tourists other locations would probably be cheaper and closer to the beach, etc. I've stayed in 5 star hotels in Asia for the same price, but that would be an unfair comparison.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r182961261-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>182961261</t>
+  </si>
+  <si>
+    <t>10/30/2013</t>
+  </si>
+  <si>
+    <t>Hotel Shuttle Issues</t>
+  </si>
+  <si>
+    <t>The overall stay was ok, but the hotel shuttle service is not up the par.  I chose this hotel because it was close the venue I had attend.  The shuttle service to the venue was superb by Martin, but the shuttle service when we were scheduled to be picked up was terrible.  We had a shuttle pick up scheduled at 5:30pm.  We were not picked up until 6:30pm.  There was not any apology, and the driver Juan stated he came there 3 times which was a bold face lie.  I called the front desk and spoke with Dennis at least 4 times, and he had no sense of urgency.  This issue was a big deal because we were women in an unknown place, and it was nearly dark when we were picked up.  Martin was great, but Juan and Dennis was terrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>The overall stay was ok, but the hotel shuttle service is not up the par.  I chose this hotel because it was close the venue I had attend.  The shuttle service to the venue was superb by Martin, but the shuttle service when we were scheduled to be picked up was terrible.  We had a shuttle pick up scheduled at 5:30pm.  We were not picked up until 6:30pm.  There was not any apology, and the driver Juan stated he came there 3 times which was a bold face lie.  I called the front desk and spoke with Dennis at least 4 times, and he had no sense of urgency.  This issue was a big deal because we were women in an unknown place, and it was nearly dark when we were picked up.  Martin was great, but Juan and Dennis was terrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r180504979-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>180504979</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Large rooms in ok neighborhood</t>
+  </si>
+  <si>
+    <t>I chose this hotel as I needed a suite to share with another family in the downtown area. The room was very large and had two queen beds and a queen sofa bed. Even with the sofa bed open, there was a ton of space left. The kitchenette included a fridge and a microwave oven. On the negative side, there was no door or even a real partition between the area with the queen beds and the adjacent room with the sofa bed so there was no privacy. The continental buffet breakfast was included and definitely a plus. We were told by the cab driver not to walk around the hotel at night for safety reasons, and we did not, although the neighborhood seemed ok by day. The hotel is 30 min from LAX and 45 min from Orange County Airport with no traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded October 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2013</t>
+  </si>
+  <si>
+    <t>I chose this hotel as I needed a suite to share with another family in the downtown area. The room was very large and had two queen beds and a queen sofa bed. Even with the sofa bed open, there was a ton of space left. The kitchenette included a fridge and a microwave oven. On the negative side, there was no door or even a real partition between the area with the queen beds and the adjacent room with the sofa bed so there was no privacy. The continental buffet breakfast was included and definitely a plus. We were told by the cab driver not to walk around the hotel at night for safety reasons, and we did not, although the neighborhood seemed ok by day. The hotel is 30 min from LAX and 45 min from Orange County Airport with no traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r179064115-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>179064115</t>
+  </si>
+  <si>
+    <t>09/29/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel - Overall - Free Shuttle A Plus! Good Location!!</t>
+  </si>
+  <si>
+    <t>This is my first time staying in this hotel and honestly I was a little bit worried when reading their online reviews specifically the location and safety!  When I arrived at the location I was very surprised that the location is not bad at all! I was very happy I chose this hotel. Staff was awesome especially Yasmin (night shift), shuttle driver and Jose in the breakfast area!  This hotel is well maintained, decent price and has a superb customer service.  I stayed in room 502 and had the city view which was really nice!! My wife and kids loves this hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r172899707-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>172899707</t>
+  </si>
+  <si>
+    <t>08/18/2013</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>I had the best stay ever. Front desk staff were very helpful and attentive to all my need.Specially Aida she was great and very professional at all times.Breakfast was delicious and not mentioned the free shuttle was very convenience.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r171652435-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>171652435</t>
+  </si>
+  <si>
+    <t>08/10/2013</t>
+  </si>
+  <si>
+    <t>Don't always judge a hotel by its location</t>
+  </si>
+  <si>
+    <t>We stayed on night on points for the location near he staples center for a concert. As I approached the hotel at 3:00 pm to check in, I was nervous. The area seemed a bit rough and run down. However once inside the hotel the staff was friendly and helpful. They informed us of a free shuttle service to LA LIVE ( staples center) and that was a complete bonus. The room was huge and beautiful. I never left the hotel and my daughter and her friend took the shuttle, and I called in for food, as I wouldn't recommend walking or even driving In the neighborhood if unfamiliar. The shuttle service, manager, housekeeping; everyone we encountered was professional and friendly. The kicker was after I checked out and was home, I realized I had left an antique and sentimental ring in the room. I feared the worst. However, the kind and friendly housekeeping staff that greeted us as we left our room turned in my ring. They locked it in a safe and now are sending it to me!  Not only was the staff everything listed above, they were ethical!  So happy to have honest and trustworthy people working in a hotel. Awesome staff, just awesome!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed on night on points for the location near he staples center for a concert. As I approached the hotel at 3:00 pm to check in, I was nervous. The area seemed a bit rough and run down. However once inside the hotel the staff was friendly and helpful. They informed us of a free shuttle service to LA LIVE ( staples center) and that was a complete bonus. The room was huge and beautiful. I never left the hotel and my daughter and her friend took the shuttle, and I called in for food, as I wouldn't recommend walking or even driving In the neighborhood if unfamiliar. The shuttle service, manager, housekeeping; everyone we encountered was professional and friendly. The kicker was after I checked out and was home, I realized I had left an antique and sentimental ring in the room. I feared the worst. However, the kind and friendly housekeeping staff that greeted us as we left our room turned in my ring. They locked it in a safe and now are sending it to me!  Not only was the staff everything listed above, they were ethical!  So happy to have honest and trustworthy people working in a hotel. Awesome staff, just awesome!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r169426264-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>169426264</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel bad location</t>
+  </si>
+  <si>
+    <t>The hotel was nice but it was located in a place where all the small vendors in the market were. It was scary to walk at night. In fairness, the room was clean. Typical of any holiday inn express hotel. Satisfied but was hoping I could walk to the better part of downtown</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r165269827-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>165269827</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>Solid Service &amp; Solid Stay</t>
+  </si>
+  <si>
+    <t>Not sure why this hotel has a lot of negative reviews. I work in the hospitality industry and stayed in 5 to 3 stars hotels and I'm fully aware of great service and bad service. 
+Hotel:
+Room is clean and checked bed board just in case for bed bugs like stated in a previous review. Of course it was spotless and so was all other areas of the room. Beds and pillows and comfy. Room offers a fridge and enough space for two adults. 
+Location:
+It's located in an area that is highly populated by Latinos and it's a busy area. Yes it's not the glitz &amp; glam but if you have some common sense and consider yourself street smart you will be fine. I walked to the Jack N Da Box at 11pm 1/2 a block away and I was fine. The area offers a lot of Central American restaurants that are very authentic and boy the prices were cheap. Two Thumps Up On This! Also it's 1 block from the Subway for those who want to experience Los Angeles, Hollywood, etc by public transportation. 
+Service:
+Solid and was asked reason for my visit and was given detailed information about area and the like by the Supervisor Aida and her Front Desk Agent. Was welcomed with a warm greeting. 
+Overall the price cannot be beat. It offers a hotel shuttle and it's within a 5 min drive to Staples...Not sure why this hotel has a lot of negative reviews. I work in the hospitality industry and stayed in 5 to 3 stars hotels and I'm fully aware of great service and bad service. Hotel:Room is clean and checked bed board just in case for bed bugs like stated in a previous review. Of course it was spotless and so was all other areas of the room. Beds and pillows and comfy. Room offers a fridge and enough space for two adults. Location:It's located in an area that is highly populated by Latinos and it's a busy area. Yes it's not the glitz &amp; glam but if you have some common sense and consider yourself street smart you will be fine. I walked to the Jack N Da Box at 11pm 1/2 a block away and I was fine. The area offers a lot of Central American restaurants that are very authentic and boy the prices were cheap. Two Thumps Up On This! Also it's 1 block from the Subway for those who want to experience Los Angeles, Hollywood, etc by public transportation. Service:Solid and was asked reason for my visit and was given detailed information about area and the like by the Supervisor Aida and her Front Desk Agent. Was welcomed with a warm greeting. Overall the price cannot be beat. It offers a hotel shuttle and it's within a 5 min drive to Staples Center.MoreShow less</t>
+  </si>
+  <si>
+    <t>Not sure why this hotel has a lot of negative reviews. I work in the hospitality industry and stayed in 5 to 3 stars hotels and I'm fully aware of great service and bad service. 
+Hotel:
+Room is clean and checked bed board just in case for bed bugs like stated in a previous review. Of course it was spotless and so was all other areas of the room. Beds and pillows and comfy. Room offers a fridge and enough space for two adults. 
+Location:
+It's located in an area that is highly populated by Latinos and it's a busy area. Yes it's not the glitz &amp; glam but if you have some common sense and consider yourself street smart you will be fine. I walked to the Jack N Da Box at 11pm 1/2 a block away and I was fine. The area offers a lot of Central American restaurants that are very authentic and boy the prices were cheap. Two Thumps Up On This! Also it's 1 block from the Subway for those who want to experience Los Angeles, Hollywood, etc by public transportation. 
+Service:
+Solid and was asked reason for my visit and was given detailed information about area and the like by the Supervisor Aida and her Front Desk Agent. Was welcomed with a warm greeting. 
+Overall the price cannot be beat. It offers a hotel shuttle and it's within a 5 min drive to Staples...Not sure why this hotel has a lot of negative reviews. I work in the hospitality industry and stayed in 5 to 3 stars hotels and I'm fully aware of great service and bad service. Hotel:Room is clean and checked bed board just in case for bed bugs like stated in a previous review. Of course it was spotless and so was all other areas of the room. Beds and pillows and comfy. Room offers a fridge and enough space for two adults. Location:It's located in an area that is highly populated by Latinos and it's a busy area. Yes it's not the glitz &amp; glam but if you have some common sense and consider yourself street smart you will be fine. I walked to the Jack N Da Box at 11pm 1/2 a block away and I was fine. The area offers a lot of Central American restaurants that are very authentic and boy the prices were cheap. Two Thumps Up On This! Also it's 1 block from the Subway for those who want to experience Los Angeles, Hollywood, etc by public transportation. Service:Solid and was asked reason for my visit and was given detailed information about area and the like by the Supervisor Aida and her Front Desk Agent. Was welcomed with a warm greeting. Overall the price cannot be beat. It offers a hotel shuttle and it's within a 5 min drive to Staples Center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r163677504-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>163677504</t>
+  </si>
+  <si>
+    <t>06/11/2013</t>
+  </si>
+  <si>
+    <t>Worst Hotel I have ever came accross DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>Where do I even begin? I have stayed at holiday Inns before and had a great experience and expecting to have a similar stay, I booked this hotel without doing a little more research and boy was it the worst mistake I have ever made. Not only was it in a very bad area away from anything you would want to come down to LA for, but the staff and the service here is just simply horrible. I checked in and as I usually do in any hotel i stay at, I inspect for bed bugs. I lifted the headboard and saw an infestation of BED BUGS. My coworker had a room as well and when inspecting his room, what do you know, MORE BED BUGS. I was disgusted and didn't want to spend another minute at the hotel. I walked down to the front desk after being at the hotel for no more than 10 minutes and the desk clerk was so rude in a situation where he should have stepped up he was giving me attitude. I asked him to make sure that I would not be billed for a room that I will not be staying in and he said that I would not be charged. A few days later I see a charge on my credit card from the Hotel. When I called to speak to the manager he said that he is not crediting anything...Where do I even begin? I have stayed at holiday Inns before and had a great experience and expecting to have a similar stay, I booked this hotel without doing a little more research and boy was it the worst mistake I have ever made. Not only was it in a very bad area away from anything you would want to come down to LA for, but the staff and the service here is just simply horrible. I checked in and as I usually do in any hotel i stay at, I inspect for bed bugs. I lifted the headboard and saw an infestation of BED BUGS. My coworker had a room as well and when inspecting his room, what do you know, MORE BED BUGS. I was disgusted and didn't want to spend another minute at the hotel. I walked down to the front desk after being at the hotel for no more than 10 minutes and the desk clerk was so rude in a situation where he should have stepped up he was giving me attitude. I asked him to make sure that I would not be billed for a room that I will not be staying in and he said that I would not be charged. A few days later I see a charge on my credit card from the Hotel. When I called to speak to the manager he said that he is not crediting anything back and that there is nothing with the room. Well I have pictures to prove my story. When I mentioned that I was going to write a bad review, he then went on to threaten that he will charge my card again and again and that "HE CAN PLAY DIRTY TOO" Well I don't need him to play dirty because the hotel is dirty enough. All I can say is that if you don't want to go through what I am going through now, DO NOT STAY HEREMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded July 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2013</t>
+  </si>
+  <si>
+    <t>Where do I even begin? I have stayed at holiday Inns before and had a great experience and expecting to have a similar stay, I booked this hotel without doing a little more research and boy was it the worst mistake I have ever made. Not only was it in a very bad area away from anything you would want to come down to LA for, but the staff and the service here is just simply horrible. I checked in and as I usually do in any hotel i stay at, I inspect for bed bugs. I lifted the headboard and saw an infestation of BED BUGS. My coworker had a room as well and when inspecting his room, what do you know, MORE BED BUGS. I was disgusted and didn't want to spend another minute at the hotel. I walked down to the front desk after being at the hotel for no more than 10 minutes and the desk clerk was so rude in a situation where he should have stepped up he was giving me attitude. I asked him to make sure that I would not be billed for a room that I will not be staying in and he said that I would not be charged. A few days later I see a charge on my credit card from the Hotel. When I called to speak to the manager he said that he is not crediting anything...Where do I even begin? I have stayed at holiday Inns before and had a great experience and expecting to have a similar stay, I booked this hotel without doing a little more research and boy was it the worst mistake I have ever made. Not only was it in a very bad area away from anything you would want to come down to LA for, but the staff and the service here is just simply horrible. I checked in and as I usually do in any hotel i stay at, I inspect for bed bugs. I lifted the headboard and saw an infestation of BED BUGS. My coworker had a room as well and when inspecting his room, what do you know, MORE BED BUGS. I was disgusted and didn't want to spend another minute at the hotel. I walked down to the front desk after being at the hotel for no more than 10 minutes and the desk clerk was so rude in a situation where he should have stepped up he was giving me attitude. I asked him to make sure that I would not be billed for a room that I will not be staying in and he said that I would not be charged. A few days later I see a charge on my credit card from the Hotel. When I called to speak to the manager he said that he is not crediting anything back and that there is nothing with the room. Well I have pictures to prove my story. When I mentioned that I was going to write a bad review, he then went on to threaten that he will charge my card again and again and that "HE CAN PLAY DIRTY TOO" Well I don't need him to play dirty because the hotel is dirty enough. All I can say is that if you don't want to go through what I am going through now, DO NOT STAY HEREMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r162705143-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>162705143</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>worst Holiday Inn ever?</t>
+  </si>
+  <si>
+    <t>the above is quite a statement, I may have stayed in over 100 HIsthe noise in the evening was incrediblemanagement did not bother to respond to any complaints about room not being cleanedsurrounding neighborhood was extremely rough, scary areaMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded June 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2013</t>
+  </si>
+  <si>
+    <t>the above is quite a statement, I may have stayed in over 100 HIsthe noise in the evening was incrediblemanagement did not bother to respond to any complaints about room not being cleanedsurrounding neighborhood was extremely rough, scary areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r161338853-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>161338853</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>A Great Hotel in a Not So Great Location</t>
+  </si>
+  <si>
+    <t>I recently attended a convention at the Los Angeles Convention Center and had a difficult time finding an affordable hotel near the convention location. I widened my search criteria and came across this hotel. As a loyal Holiday Inn Express guest I was willing to overlook the negative comments I'd read on various travel sites about this particular hotel and focus on the positives. I'm glad I did. Everything about my stay, from start to finish, was what I have come to expect from a quality Holiday Inn Express. The front desk staff, particularly Martin and Walter, are the new standard to which I will measure guest service representatives at other hotels. The shuttle staff also did a fantastic job of keeping on track with the schedule and getting myself and other convention guests to the venue in a timely manner (and complimentary to boot). The hotel itself was clean and well-cared for (although a fan in the work-out room would be greatly appreciated I'm sure) and my room was also clean and neat. True, the surrounding area was probably not a great place to go out exploring at night, based on appearances,  but I didn't really have the free time to do so. I would certainly stay at this hotel again if I find myself attending another convention in downtown LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently attended a convention at the Los Angeles Convention Center and had a difficult time finding an affordable hotel near the convention location. I widened my search criteria and came across this hotel. As a loyal Holiday Inn Express guest I was willing to overlook the negative comments I'd read on various travel sites about this particular hotel and focus on the positives. I'm glad I did. Everything about my stay, from start to finish, was what I have come to expect from a quality Holiday Inn Express. The front desk staff, particularly Martin and Walter, are the new standard to which I will measure guest service representatives at other hotels. The shuttle staff also did a fantastic job of keeping on track with the schedule and getting myself and other convention guests to the venue in a timely manner (and complimentary to boot). The hotel itself was clean and well-cared for (although a fan in the work-out room would be greatly appreciated I'm sure) and my room was also clean and neat. True, the surrounding area was probably not a great place to go out exploring at night, based on appearances,  but I didn't really have the free time to do so. I would certainly stay at this hotel again if I find myself attending another convention in downtown LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r160839876-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>160839876</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>Great Service, Great Hotel</t>
+  </si>
+  <si>
+    <t>Great newly renovated hotel.Great guest rooms w new hardware.Best Front Desk personality I've came across. Martin was super helpful and veryfriendly.Even the GM was exceptional.Not in the best part of town but thats not why I stayed. Took the shuttle to convention center every day.Would not hesitate to stay again.Thanks for the hospitality!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r160799132-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>160799132</t>
+  </si>
+  <si>
+    <t>Good service</t>
+  </si>
+  <si>
+    <t>The hotel s clean, room is good enough for our family just the bathroom s a bit small but good enough, staff is friendly, they even offered us a shuttle going to the concert venue, breakfast is good. The street is a little bit crowded but has given me the chance to see Jason Statham he's gorgeous!Overall I'm extremely satisfied would definitely go back to this hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r156544108-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>156544108</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>Nice updated property..but not a very safe area</t>
+  </si>
+  <si>
+    <t>The front office staff were very friendly and accomodating. Room was updated &amp; clean. The surrounding neighborhood, doesn't appear to be very safe.Ordered delivery from Roman's Pizza - awesome BBQ chicken</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r156441807-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>156441807</t>
+  </si>
+  <si>
+    <t>04/02/2013</t>
+  </si>
+  <si>
+    <t>Good service, location not so</t>
+  </si>
+  <si>
+    <t>Overall, good service which includes a shuttle to nearby locations.  There's only one shuttle so in case you've got limited time, then you're much better off renting a car. Parking is free.Room is good, clean, comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Overall, good service which includes a shuttle to nearby locations.  There's only one shuttle so in case you've got limited time, then you're much better off renting a car. Parking is free.Room is good, clean, comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r152706541-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>152706541</t>
+  </si>
+  <si>
+    <t>02/21/2013</t>
+  </si>
+  <si>
+    <t>Review for Holiday Inn Express - Los Angeles Downtown West</t>
+  </si>
+  <si>
+    <t>I did not stay there on my January 2013 trip to Hollywood because of the not so good, scary area part of town, hence I stayed in Hitlon Pasadena, CA, much better. I was able to look at the room and not up to a HIE standards. I askd the manager if it was safe to go out at night and she kindly said "As in other big cities use your judgement late at night." We were planning to stay late a couple of nights so we decided not to stay there. Frankly I would not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded March 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2013</t>
+  </si>
+  <si>
+    <t>I did not stay there on my January 2013 trip to Hollywood because of the not so good, scary area part of town, hence I stayed in Hitlon Pasadena, CA, much better. I was able to look at the room and not up to a HIE standards. I askd the manager if it was safe to go out at night and she kindly said "As in other big cities use your judgement late at night." We were planning to stay late a couple of nights so we decided not to stay there. Frankly I would not recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r141543475-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>141543475</t>
+  </si>
+  <si>
+    <t>09/28/2012</t>
+  </si>
+  <si>
+    <t>very great place to stay in los angeles area</t>
+  </si>
+  <si>
+    <t>my fist stay here at the holiday inn express since it was the ramada limited alot of improvements very clean room parking was great the staff was friendly and also the breakfast bar is free every day i love my stay at this hotel me and my friends will be back soon thank you holiday inn express .</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r136412662-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>136412662</t>
+  </si>
+  <si>
+    <t>08/06/2012</t>
+  </si>
+  <si>
+    <t>Nice property in a not so great part of town. . .</t>
+  </si>
+  <si>
+    <t>This property is newly remodeled and because of that, it's new, clean and very well decorated.  The outside of the property is freshly painted in Holiday Inn colors and almost looks out of place considering the neighborhood and other buildings around it.  It is in a very dirty part of town, let's just say that, with many people on the streets, walking, selling, hanging out, talking . . . we were concerned about the safety of our vehicle, but everything was fine. I wish there was a secured lot with a gate or something, but that's not the case here.  Parking is free which is nice!  
+The room is clean and everything worked fine.  We all got a good night's sleep, which was our goal, once the sirens stopped at about 11 PM.  We were at Dodger Stadium (which is a 10 min drive) until 9:30 PM, but heard 3 or 4 sirens go by in that hour and a half that we were in our room before going to sleep.  Do not expect to swim here, the pool is VERY SMALL -- we thought it was the hot tub!!  No more than 5 people will fit comfortably and don't even think about doing any playing or swimming, it's just enough to wet your feet.  
+Breakfast was fine, no major complaints.  Aside from hard, cold hard-boiled eggs, but perhaps that's me being picky.  There were eggs, sausage patties, yogurt, fresh...This property is newly remodeled and because of that, it's new, clean and very well decorated.  The outside of the property is freshly painted in Holiday Inn colors and almost looks out of place considering the neighborhood and other buildings around it.  It is in a very dirty part of town, let's just say that, with many people on the streets, walking, selling, hanging out, talking . . . we were concerned about the safety of our vehicle, but everything was fine. I wish there was a secured lot with a gate or something, but that's not the case here.  Parking is free which is nice!  The room is clean and everything worked fine.  We all got a good night's sleep, which was our goal, once the sirens stopped at about 11 PM.  We were at Dodger Stadium (which is a 10 min drive) until 9:30 PM, but heard 3 or 4 sirens go by in that hour and a half that we were in our room before going to sleep.  Do not expect to swim here, the pool is VERY SMALL -- we thought it was the hot tub!!  No more than 5 people will fit comfortably and don't even think about doing any playing or swimming, it's just enough to wet your feet.  Breakfast was fine, no major complaints.  Aside from hard, cold hard-boiled eggs, but perhaps that's me being picky.  There were eggs, sausage patties, yogurt, fresh bananas and oranges, and several toast, muffin and bagel offerings.  Typical Holiday Inn type of breakfast. It's the nicest option in the area -- if you need / want to stay in the area.  Just know, you won't be walking to and from dinner, the store, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>This property is newly remodeled and because of that, it's new, clean and very well decorated.  The outside of the property is freshly painted in Holiday Inn colors and almost looks out of place considering the neighborhood and other buildings around it.  It is in a very dirty part of town, let's just say that, with many people on the streets, walking, selling, hanging out, talking . . . we were concerned about the safety of our vehicle, but everything was fine. I wish there was a secured lot with a gate or something, but that's not the case here.  Parking is free which is nice!  
+The room is clean and everything worked fine.  We all got a good night's sleep, which was our goal, once the sirens stopped at about 11 PM.  We were at Dodger Stadium (which is a 10 min drive) until 9:30 PM, but heard 3 or 4 sirens go by in that hour and a half that we were in our room before going to sleep.  Do not expect to swim here, the pool is VERY SMALL -- we thought it was the hot tub!!  No more than 5 people will fit comfortably and don't even think about doing any playing or swimming, it's just enough to wet your feet.  
+Breakfast was fine, no major complaints.  Aside from hard, cold hard-boiled eggs, but perhaps that's me being picky.  There were eggs, sausage patties, yogurt, fresh...This property is newly remodeled and because of that, it's new, clean and very well decorated.  The outside of the property is freshly painted in Holiday Inn colors and almost looks out of place considering the neighborhood and other buildings around it.  It is in a very dirty part of town, let's just say that, with many people on the streets, walking, selling, hanging out, talking . . . we were concerned about the safety of our vehicle, but everything was fine. I wish there was a secured lot with a gate or something, but that's not the case here.  Parking is free which is nice!  The room is clean and everything worked fine.  We all got a good night's sleep, which was our goal, once the sirens stopped at about 11 PM.  We were at Dodger Stadium (which is a 10 min drive) until 9:30 PM, but heard 3 or 4 sirens go by in that hour and a half that we were in our room before going to sleep.  Do not expect to swim here, the pool is VERY SMALL -- we thought it was the hot tub!!  No more than 5 people will fit comfortably and don't even think about doing any playing or swimming, it's just enough to wet your feet.  Breakfast was fine, no major complaints.  Aside from hard, cold hard-boiled eggs, but perhaps that's me being picky.  There were eggs, sausage patties, yogurt, fresh bananas and oranges, and several toast, muffin and bagel offerings.  Typical Holiday Inn type of breakfast. It's the nicest option in the area -- if you need / want to stay in the area.  Just know, you won't be walking to and from dinner, the store, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r135745678-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>135745678</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>The only place I got bug bite</t>
+  </si>
+  <si>
+    <t>in general this place is ok as the price is quite reasonable based on the location. however this is the first time I travelled to LA and I immediately got bug bite in this motel. the bed sheet wasn't very clean and the closet feels smelly as well. unforturenately we left all clothes we bought in outlet in the closet and we found bugs when we tried on them back home. we spent whole weekend and try all we can to kill the bugs. we wrote the Intercontinental group to raise this issue but the hotel insist their rooms are very clean after a "bug inspection" by outside company. anyway, just a friendly remind to those who are going to stay in this place, be careful!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express - Los Angeles Downtown West, responded to this reviewResponded August 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2012</t>
+  </si>
+  <si>
+    <t>in general this place is ok as the price is quite reasonable based on the location. however this is the first time I travelled to LA and I immediately got bug bite in this motel. the bed sheet wasn't very clean and the closet feels smelly as well. unforturenately we left all clothes we bought in outlet in the closet and we found bugs when we tried on them back home. we spent whole weekend and try all we can to kill the bugs. we wrote the Intercontinental group to raise this issue but the hotel insist their rooms are very clean after a "bug inspection" by outside company. anyway, just a friendly remind to those who are going to stay in this place, be careful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r135099505-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>135099505</t>
+  </si>
+  <si>
+    <t>07/22/2012</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>We were in town for Opening Day at Dodger stadium and, since the tickets were on the pricier side, we did not want to break the bank on a hotel, too. The low rates, paired with free parking and complimentary breakfast in the morning made this Holiday Inn Express a great value.The rooms were clean, comfortable, and quiet. We felt very safe on the hotel grounds and in the parking area. We felt comfortable enough to walk through the surrounding neighborhood during the daytime--Langer's Deli (a must!) and MacArthur Park are very close--but I would not recommend doing the same after dark.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r135037231-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>135037231</t>
+  </si>
+  <si>
+    <t>Good hotel near Federal Building</t>
+  </si>
+  <si>
+    <t>If you need to get a passport quick, or other business at the Federal building, this hotel is a good fit.  Good breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r134064956-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>134064956</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>Comfort in tough neighborhood</t>
+  </si>
+  <si>
+    <t>Rooms were clean, everything worked, inside the hotel I was safe and comfortable, but I would not venture outside after dark. Staff very friendly, will stay here again when I'm the area for business.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r130977474-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>130977474</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>Great Place to Stay but...</t>
+  </si>
+  <si>
+    <t>The Hotel was great... I booked 3 rooms for some employees doing work in the area.  The rooms were nice and clean great hotel but the surroundings are pretty scary.  There was a shooting near the hotel and my employees called and requested that I change hotels for them.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r123390162-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>123390162</t>
+  </si>
+  <si>
+    <t>01/21/2012</t>
+  </si>
+  <si>
+    <t>Great Stay, Mediocre Surroundings</t>
+  </si>
+  <si>
+    <t>The hotel is very well maintained and have a large free of charge parking!  That is a treat when you are in Los Angeles!  We had good hot breakfast! A pity as a priority club member, I did not receive any recognition for my 3 nights stay! We did not experience any fire sirens until the last day but the walls are thin, so we could hear the alarm clock ringing from next door or someone taken ill, coughing her heart out! The red line station is just 5 minutes away, so convenient to walk to but the neighborhood feels sleazy so I was uncomfortable walking out when it turns dark.  I prefer to drive then.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>The hotel is very well maintained and have a large free of charge parking!  That is a treat when you are in Los Angeles!  We had good hot breakfast! A pity as a priority club member, I did not receive any recognition for my 3 nights stay! We did not experience any fire sirens until the last day but the walls are thin, so we could hear the alarm clock ringing from next door or someone taken ill, coughing her heart out! The red line station is just 5 minutes away, so convenient to walk to but the neighborhood feels sleazy so I was uncomfortable walking out when it turns dark.  I prefer to drive then.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r123046258-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>123046258</t>
+  </si>
+  <si>
+    <t>01/13/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel - Terrifying Location</t>
+  </si>
+  <si>
+    <t>Check-in and parking are accessed from Westlake, the street where the hotel is addressed.  My check-in experience was smooth and efficient.  Door access to the room uses a proximity reader rather than having to rely upon a magnetic strip being swiped in a traditional card reader.  Just hold the plain white card near the black circle above the door handle, and voila!
+This is a former Ramada Limited, so the WiFi SSID is "ramada" even though the instructions say to select "Holiday Inn Express on Wi-Fi".  Though I wasn't given the internet access code at check-in, a quick call to the front desk is all that was required.  As for speed, I was able to squeeze 2.1 Mbps down and 0.37 Mbps up using speedtest.net.  Not exactly stellar rates, but it seemed marginally useful.  Your authentication with the hotel's proxy seems to be reset at random times.  You'll be working along, and everything just stops.  Upon opening a new web page, you're redirected to the hotel's proxy authentication.  It really became quite irritating.  Ultimately, I had to switch to my Verizon cellular modem because even with authentication, the hotel's network kept losing connectivity with the internet.  This is a major failure on the part of a "hospitality" company.
+The desk area is adequately sized with a nice lamp and two electrical outlets.  Be prepared to use something as a mouse pad, because optical mice do not like the faux granite...Check-in and parking are accessed from Westlake, the street where the hotel is addressed.  My check-in experience was smooth and efficient.  Door access to the room uses a proximity reader rather than having to rely upon a magnetic strip being swiped in a traditional card reader.  Just hold the plain white card near the black circle above the door handle, and voila!This is a former Ramada Limited, so the WiFi SSID is "ramada" even though the instructions say to select "Holiday Inn Express on Wi-Fi".  Though I wasn't given the internet access code at check-in, a quick call to the front desk is all that was required.  As for speed, I was able to squeeze 2.1 Mbps down and 0.37 Mbps up using speedtest.net.  Not exactly stellar rates, but it seemed marginally useful.  Your authentication with the hotel's proxy seems to be reset at random times.  You'll be working along, and everything just stops.  Upon opening a new web page, you're redirected to the hotel's proxy authentication.  It really became quite irritating.  Ultimately, I had to switch to my Verizon cellular modem because even with authentication, the hotel's network kept losing connectivity with the internet.  This is a major failure on the part of a "hospitality" company.The desk area is adequately sized with a nice lamp and two electrical outlets.  Be prepared to use something as a mouse pad, because optical mice do not like the faux granite finish on the desktop.An exceptionally noisy exhaust fan is on the same switch with the bathroom light -- a major sore point with me, which you'll know if you've read any of my other reviews.  Hospitality folks, please, it's not rocket science: Separate switches for the bathroom light and fan.Judging from the bullet-proof glass I found across the counter at a nearby Jack-in-the-Box, this isn't the greatest part of town.  My experience walking to and from the Westlake / MacArthur Park subway station confirmed this suspicion.  Making my way through the trash, filth, disrepair, homeless, and hucksters, I felt lucky to make the short walk four days in a row without being mugged.  Do not go out at night unless you are driving your locked car to a better part of Los Angeles (if such a place exists).Wednesday, I returned to my room at 4:10 PM to find that it had yet to be cleaned.  Perhaps this is normal, but the hotel isn't exactly overrun with guests.  I would have thought the occupied rooms could have been cleaned well before that time.Dominos Pizza delivers to this hotel.  So does Tg Original Express if you like Thai or Chinese.  I would not recommend going out at night on foot.  I would scarcely recommend going out during the day on foot!  Your personal safety will definitely be in peril.  This is a nice, freshly-renovated HIE property, but the surrounding neighborhood is utterly awful.  I'm sad to say that means I will be staying elsewhere if I return to Los Angeles.  And that's a shame because all of the people who work at this property are terrifically warm, friendly, and helpful.  The people should get five stars, the property four, and the area less than ZERO.  So it averages out to three which is my rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>Check-in and parking are accessed from Westlake, the street where the hotel is addressed.  My check-in experience was smooth and efficient.  Door access to the room uses a proximity reader rather than having to rely upon a magnetic strip being swiped in a traditional card reader.  Just hold the plain white card near the black circle above the door handle, and voila!
+This is a former Ramada Limited, so the WiFi SSID is "ramada" even though the instructions say to select "Holiday Inn Express on Wi-Fi".  Though I wasn't given the internet access code at check-in, a quick call to the front desk is all that was required.  As for speed, I was able to squeeze 2.1 Mbps down and 0.37 Mbps up using speedtest.net.  Not exactly stellar rates, but it seemed marginally useful.  Your authentication with the hotel's proxy seems to be reset at random times.  You'll be working along, and everything just stops.  Upon opening a new web page, you're redirected to the hotel's proxy authentication.  It really became quite irritating.  Ultimately, I had to switch to my Verizon cellular modem because even with authentication, the hotel's network kept losing connectivity with the internet.  This is a major failure on the part of a "hospitality" company.
+The desk area is adequately sized with a nice lamp and two electrical outlets.  Be prepared to use something as a mouse pad, because optical mice do not like the faux granite...Check-in and parking are accessed from Westlake, the street where the hotel is addressed.  My check-in experience was smooth and efficient.  Door access to the room uses a proximity reader rather than having to rely upon a magnetic strip being swiped in a traditional card reader.  Just hold the plain white card near the black circle above the door handle, and voila!This is a former Ramada Limited, so the WiFi SSID is "ramada" even though the instructions say to select "Holiday Inn Express on Wi-Fi".  Though I wasn't given the internet access code at check-in, a quick call to the front desk is all that was required.  As for speed, I was able to squeeze 2.1 Mbps down and 0.37 Mbps up using speedtest.net.  Not exactly stellar rates, but it seemed marginally useful.  Your authentication with the hotel's proxy seems to be reset at random times.  You'll be working along, and everything just stops.  Upon opening a new web page, you're redirected to the hotel's proxy authentication.  It really became quite irritating.  Ultimately, I had to switch to my Verizon cellular modem because even with authentication, the hotel's network kept losing connectivity with the internet.  This is a major failure on the part of a "hospitality" company.The desk area is adequately sized with a nice lamp and two electrical outlets.  Be prepared to use something as a mouse pad, because optical mice do not like the faux granite finish on the desktop.An exceptionally noisy exhaust fan is on the same switch with the bathroom light -- a major sore point with me, which you'll know if you've read any of my other reviews.  Hospitality folks, please, it's not rocket science: Separate switches for the bathroom light and fan.Judging from the bullet-proof glass I found across the counter at a nearby Jack-in-the-Box, this isn't the greatest part of town.  My experience walking to and from the Westlake / MacArthur Park subway station confirmed this suspicion.  Making my way through the trash, filth, disrepair, homeless, and hucksters, I felt lucky to make the short walk four days in a row without being mugged.  Do not go out at night unless you are driving your locked car to a better part of Los Angeles (if such a place exists).Wednesday, I returned to my room at 4:10 PM to find that it had yet to be cleaned.  Perhaps this is normal, but the hotel isn't exactly overrun with guests.  I would have thought the occupied rooms could have been cleaned well before that time.Dominos Pizza delivers to this hotel.  So does Tg Original Express if you like Thai or Chinese.  I would not recommend going out at night on foot.  I would scarcely recommend going out during the day on foot!  Your personal safety will definitely be in peril.  This is a nice, freshly-renovated HIE property, but the surrounding neighborhood is utterly awful.  I'm sad to say that means I will be staying elsewhere if I return to Los Angeles.  And that's a shame because all of the people who work at this property are terrifically warm, friendly, and helpful.  The people should get five stars, the property four, and the area less than ZERO.  So it averages out to three which is my rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r84703676-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>84703676</t>
+  </si>
+  <si>
+    <t>10/24/2010</t>
+  </si>
+  <si>
+    <t>Nice hotel for quality and value</t>
+  </si>
+  <si>
+    <t>For downtown Los Angeles, this was an okay hotel in accordance with the cost.  The check-in service was great.  When we acquired about local sites, the representative was able to give us menus and printed a map from the computer that gave us directions to a specific address--she really went out of the way.  At the check-in, there were free granola bars, hard candies, coffee, and apples.  Parking was free and I felt safe where we parked.  As to cleanliness, there was nothing noted out of the ordinary; seemed clean.  Room/bathroom had typical amenities.  With the AAA discount, price was good, especially to be only about 7 minutes away from Staples Center, Nokia, etc.  Sleep quality was satisfactory.  The rating of the location depends on the type of person you are.  I respect all cultures and am not afraid to mingle with people so I felt comfortable walking to the nearby Yoshinoya and Jack in the Box.  With that being said, you will see graffiti and there are street vendors selling items on the street near (but not in front of) the hotel.  There is a continental breakfast that I can't complain about due to the cost of the hotel.  The breakfast consisted of cereal (4 to choose from), fruit cocktail, waffles, toast, boiled eggs, juice, coffee, apples, cup of noodles....I believe that's all.  So.....nice hotel for quality and value.  You get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>For downtown Los Angeles, this was an okay hotel in accordance with the cost.  The check-in service was great.  When we acquired about local sites, the representative was able to give us menus and printed a map from the computer that gave us directions to a specific address--she really went out of the way.  At the check-in, there were free granola bars, hard candies, coffee, and apples.  Parking was free and I felt safe where we parked.  As to cleanliness, there was nothing noted out of the ordinary; seemed clean.  Room/bathroom had typical amenities.  With the AAA discount, price was good, especially to be only about 7 minutes away from Staples Center, Nokia, etc.  Sleep quality was satisfactory.  The rating of the location depends on the type of person you are.  I respect all cultures and am not afraid to mingle with people so I felt comfortable walking to the nearby Yoshinoya and Jack in the Box.  With that being said, you will see graffiti and there are street vendors selling items on the street near (but not in front of) the hotel.  There is a continental breakfast that I can't complain about due to the cost of the hotel.  The breakfast consisted of cereal (4 to choose from), fruit cocktail, waffles, toast, boiled eggs, juice, coffee, apples, cup of noodles....I believe that's all.  So.....nice hotel for quality and value.  You get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r54886220-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>54886220</t>
+  </si>
+  <si>
+    <t>01/31/2010</t>
+  </si>
+  <si>
+    <t>STAY AWAY STAY AWAY STAY AWAY</t>
+  </si>
+  <si>
+    <t>I just stayed at this hotel with a couple of friends through booking from Priceline.  When we checked in, the lady was kind and we headed to our room. The following morning, my friend goes down for continental breakfast and mentions about the two of us in which Jorge (horrible customer service clerk) states that because there are 3 people we have to be charged an ADDITIONAL 10 bulks. I was so furious that because the lady didnt tell us in the beginning we felt that it was on the hotel's mistake not us. Unfortunately, because Jorge would not provide us with a supervisor on the premise and would not honor the request, we  are going to have to complain the following day to reach the supervisor on Monday. It's very unfortunate that this hotel could have handled it with more professionalism. And it is very unfortunate that we will not be coming here EVER. If you want quality service, don't go here!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>I just stayed at this hotel with a couple of friends through booking from Priceline.  When we checked in, the lady was kind and we headed to our room. The following morning, my friend goes down for continental breakfast and mentions about the two of us in which Jorge (horrible customer service clerk) states that because there are 3 people we have to be charged an ADDITIONAL 10 bulks. I was so furious that because the lady didnt tell us in the beginning we felt that it was on the hotel's mistake not us. Unfortunately, because Jorge would not provide us with a supervisor on the premise and would not honor the request, we  are going to have to complain the following day to reach the supervisor on Monday. It's very unfortunate that this hotel could have handled it with more professionalism. And it is very unfortunate that we will not be coming here EVER. If you want quality service, don't go here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r40047516-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>40047516</t>
+  </si>
+  <si>
+    <t>09/07/2009</t>
+  </si>
+  <si>
+    <t>The worst hotel on the planet</t>
+  </si>
+  <si>
+    <t>Our stay at this hotel was a horrible experience from beginning to end. When we arrived at check-in, the desk associate by the name of Monica made check-in the most difficult of situations. We had a pre-paid reservation in hand, which stated we had requested a non-smoking room. Monica informed us that we were in the computer for a smoking room and that she could not do anything to change it. She then handed us the keys to this smoking room. When we arrived at the room, the room had not yet been cleaned (beds un-made,trash in waste baskets). This was very upsetting, check in for this hotel is 2pm, we arrived at the hotel @4:15pm. I then went back down stairs only to have her inform us that we had to wait 20-30 minutes for the room to be cleaned. My husband and I waited in the lobby for almost 10 minutes, the I began to question her because the hotel looked as though it was empty. I asked why we just couldn't have another room. She responded that it was because I was rude to her. She then checked the computer, and gave us another room. When we arrived at room #2 this room was un-cleaned as well. When I got down to the desk and explained to her, her excuse was that the cleaning woman was late that day, no apology. The then gave me a 3rd...Our stay at this hotel was a horrible experience from beginning to end. When we arrived at check-in, the desk associate by the name of Monica made check-in the most difficult of situations. We had a pre-paid reservation in hand, which stated we had requested a non-smoking room. Monica informed us that we were in the computer for a smoking room and that she could not do anything to change it. She then handed us the keys to this smoking room. When we arrived at the room, the room had not yet been cleaned (beds un-made,trash in waste baskets). This was very upsetting, check in for this hotel is 2pm, we arrived at the hotel @4:15pm. I then went back down stairs only to have her inform us that we had to wait 20-30 minutes for the room to be cleaned. My husband and I waited in the lobby for almost 10 minutes, the I began to question her because the hotel looked as though it was empty. I asked why we just couldn't have another room. She responded that it was because I was rude to her. She then checked the computer, and gave us another room. When we arrived at room #2 this room was un-cleaned as well. When I got down to the desk and explained to her, her excuse was that the cleaning woman was late that day, no apology. The then gave me a 3rd room key for the room that we ultimately stayed in. After a long flight you can imagine this was very fustrating. Especially since I was informed that the manager was not present and would not available until Monday 8/31.If that wasn't enough, the next incident occured the very next evening. Monica was on duty. The iron in our room took 10 minutes to heat and when it did, water was draining from the bottom of the iron onto our clothing. I called down to the desk and asked Monica for an iron. She told me no problem and that she would take care of it. I waited for 20 minutes with no response, so finally I went down to the lobby. I asked her what the status was on our iron and she stated that unfortunately she was the only one there and that she could probably get me an iron in the morning. I asked her why she didn't tell me that over the phone and why she had me under the impression that we would soon be recieving an iron. We needed the iron because we were on our way out to celebrate by husband's birthday and could not wait until morning. She then called the security guard to assist by getting another iron from one of the other rooms. This gentleman was extremely helpful and pleasant.The next morning I went down and informed the desk manager of all that had occurred. She wrote down the information that I had given her and told me that she would get Monica's side and she would get back with me. She was apologetic at that point in time, but that changed. We left the hotel overnight, but returned on the evening of 9/1. When we checked out the next morning, I had asked the desk associate for a reciept or a copy of the credit card inprint that they took at the time of checkin for my records. She informed me that there was no reciept because we had a pre-paid reservation. I again asked for the desk manager. She can out and she told the associate that it was okay to give a copy of the inprint. She also gave me an update of the situation with Monica. This time she was not apologetic and stated that the only reason why I was inconvienced was because there was an error in the computer as far as the rooms being noted as cleaned. That was the only thing that she addressed. My husband and I have stayed at numerous hotels over the years. We have never had such a horrible experience and been treated so badly at any of the hotels we've ever stayed in. I have never wrote hotel review or commented on my stay after a hotel stay, but this situation was totally necessary.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>Our stay at this hotel was a horrible experience from beginning to end. When we arrived at check-in, the desk associate by the name of Monica made check-in the most difficult of situations. We had a pre-paid reservation in hand, which stated we had requested a non-smoking room. Monica informed us that we were in the computer for a smoking room and that she could not do anything to change it. She then handed us the keys to this smoking room. When we arrived at the room, the room had not yet been cleaned (beds un-made,trash in waste baskets). This was very upsetting, check in for this hotel is 2pm, we arrived at the hotel @4:15pm. I then went back down stairs only to have her inform us that we had to wait 20-30 minutes for the room to be cleaned. My husband and I waited in the lobby for almost 10 minutes, the I began to question her because the hotel looked as though it was empty. I asked why we just couldn't have another room. She responded that it was because I was rude to her. She then checked the computer, and gave us another room. When we arrived at room #2 this room was un-cleaned as well. When I got down to the desk and explained to her, her excuse was that the cleaning woman was late that day, no apology. The then gave me a 3rd...Our stay at this hotel was a horrible experience from beginning to end. When we arrived at check-in, the desk associate by the name of Monica made check-in the most difficult of situations. We had a pre-paid reservation in hand, which stated we had requested a non-smoking room. Monica informed us that we were in the computer for a smoking room and that she could not do anything to change it. She then handed us the keys to this smoking room. When we arrived at the room, the room had not yet been cleaned (beds un-made,trash in waste baskets). This was very upsetting, check in for this hotel is 2pm, we arrived at the hotel @4:15pm. I then went back down stairs only to have her inform us that we had to wait 20-30 minutes for the room to be cleaned. My husband and I waited in the lobby for almost 10 minutes, the I began to question her because the hotel looked as though it was empty. I asked why we just couldn't have another room. She responded that it was because I was rude to her. She then checked the computer, and gave us another room. When we arrived at room #2 this room was un-cleaned as well. When I got down to the desk and explained to her, her excuse was that the cleaning woman was late that day, no apology. The then gave me a 3rd room key for the room that we ultimately stayed in. After a long flight you can imagine this was very fustrating. Especially since I was informed that the manager was not present and would not available until Monday 8/31.If that wasn't enough, the next incident occured the very next evening. Monica was on duty. The iron in our room took 10 minutes to heat and when it did, water was draining from the bottom of the iron onto our clothing. I called down to the desk and asked Monica for an iron. She told me no problem and that she would take care of it. I waited for 20 minutes with no response, so finally I went down to the lobby. I asked her what the status was on our iron and she stated that unfortunately she was the only one there and that she could probably get me an iron in the morning. I asked her why she didn't tell me that over the phone and why she had me under the impression that we would soon be recieving an iron. We needed the iron because we were on our way out to celebrate by husband's birthday and could not wait until morning. She then called the security guard to assist by getting another iron from one of the other rooms. This gentleman was extremely helpful and pleasant.The next morning I went down and informed the desk manager of all that had occurred. She wrote down the information that I had given her and told me that she would get Monica's side and she would get back with me. She was apologetic at that point in time, but that changed. We left the hotel overnight, but returned on the evening of 9/1. When we checked out the next morning, I had asked the desk associate for a reciept or a copy of the credit card inprint that they took at the time of checkin for my records. She informed me that there was no reciept because we had a pre-paid reservation. I again asked for the desk manager. She can out and she told the associate that it was okay to give a copy of the inprint. She also gave me an update of the situation with Monica. This time she was not apologetic and stated that the only reason why I was inconvienced was because there was an error in the computer as far as the rooms being noted as cleaned. That was the only thing that she addressed. My husband and I have stayed at numerous hotels over the years. We have never had such a horrible experience and been treated so badly at any of the hotels we've ever stayed in. I have never wrote hotel review or commented on my stay after a hotel stay, but this situation was totally necessary.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r34504933-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>34504933</t>
+  </si>
+  <si>
+    <t>07/11/2009</t>
+  </si>
+  <si>
+    <t>Horrible, under construction hotel in the sketchyest part of LA!</t>
+  </si>
+  <si>
+    <t>This hotel was absolute crappola! The pictures are not representative of the actual building, as it currently looks more like a construction site than a hotel. The first night we got there, our toilette flooded, the front desk person asked us for a cigarette, and told us that the neighborhodd was safe to walk in, eventhough we learned quite quickly that it was very dangerous. To get to the restaurant for the "continental breakfast" you have to dodge through a swarm of bugs! Buyer beware!!! It may be cheap, but you get what you pay for!</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r18628150-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>18628150</t>
+  </si>
+  <si>
+    <t>08/04/2008</t>
+  </si>
+  <si>
+    <t>Dissapointing and expensive</t>
+  </si>
+  <si>
+    <t>We were suppose to stay for a week, but we ended up staying only for 3 days. We had to ask for new towels every morning and would get them after about an hour later. The free internet connection sucks. Weak or limited signals all day long. When I asked them to fix it, they say that they are not the internet company and there's nothing that they could do (from a male staff). The boss / manager is from Taiwan, and she is really nice to us. The location is alright since it is near downtown LA, but not really a safe environment.</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r11946451-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>11946451</t>
+  </si>
+  <si>
+    <t>12/25/2007</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>I stayed there for 1-week as it is very close to St Vincent medical center. Considering that is more expensive than Motels in the area ($100 vs $60-80) and the brand RAMADA, I would have expected better quality. The personnel is friendly but the Hotel is old and would need a refurbshment. The sensatio is not of a clean Hotel</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r7191332-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>7191332</t>
+  </si>
+  <si>
+    <t>03/18/2007</t>
+  </si>
+  <si>
+    <t>Do Not stay here or at the Wilshire Blvd. Koreatown location!</t>
+  </si>
+  <si>
+    <t>I booked my reservation for the Ramada Limited - S. Westlake on triprewards.com.  It was a choice between that hotel and the Ramada Wilshire Center.  Unfortunately, after seeing the 2 hotels in person it was pretty much a catch 22.   Neither one is worth the price of stay but the S. Westlake location is completely horrible.  As we drove up Westlake to the hotel, there were a few police cars directly in front of us that ended up blocking the entrance to the hotel.  A bunch of cops then proceeded to run into the hotel to do God knows what.  Needless to say, we did not stay and had to argue with the staff to get our reservation cancelled without get charged for it.  I then called the next day to make sure that the reservation was cancelled without charge and had to argue with the manager because "regardless of what is happening on the street, we require 48 hours notice for cancellation without charging you."  Now, what kind of establishment, let alone a chain like Ramada, would treat their customers like that?  Whatever you do, please heed my advice and do not stay at this hotel OR the location down the street on Wilshire Blvd. in Koreatown.  They are completely run down, despite the pictures you may see online.   You are much better off staying somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>I booked my reservation for the Ramada Limited - S. Westlake on triprewards.com.  It was a choice between that hotel and the Ramada Wilshire Center.  Unfortunately, after seeing the 2 hotels in person it was pretty much a catch 22.   Neither one is worth the price of stay but the S. Westlake location is completely horrible.  As we drove up Westlake to the hotel, there were a few police cars directly in front of us that ended up blocking the entrance to the hotel.  A bunch of cops then proceeded to run into the hotel to do God knows what.  Needless to say, we did not stay and had to argue with the staff to get our reservation cancelled without get charged for it.  I then called the next day to make sure that the reservation was cancelled without charge and had to argue with the manager because "regardless of what is happening on the street, we require 48 hours notice for cancellation without charging you."  Now, what kind of establishment, let alone a chain like Ramada, would treat their customers like that?  Whatever you do, please heed my advice and do not stay at this hotel OR the location down the street on Wilshire Blvd. in Koreatown.  They are completely run down, despite the pictures you may see online.   You are much better off staying somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r1754585-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>1754585</t>
+  </si>
+  <si>
+    <t>03/29/2004</t>
+  </si>
+  <si>
+    <t>Disappointing for a 3 star</t>
+  </si>
+  <si>
+    <t>For a three star hotel, I was extremely disappointed. Hotel looked old and not well maintained. Carpets had what appeared to be bleach spots and the bathrooms needed a good scrubbing. Parking was minimal at best. Would not stay there again.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2685,6234 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>157</v>
+      </c>
+      <c r="X16" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>165</v>
+      </c>
+      <c r="O17" t="s">
+        <v>166</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>165</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>172</v>
+      </c>
+      <c r="X18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>187</v>
+      </c>
+      <c r="X20" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>207</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>207</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>207</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>218</v>
+      </c>
+      <c r="X25" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O26" t="s">
+        <v>166</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" t="s">
+        <v>228</v>
+      </c>
+      <c r="K27" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s">
+        <v>230</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>231</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" t="s">
+        <v>236</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>237</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>238</v>
+      </c>
+      <c r="X28" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>242</v>
+      </c>
+      <c r="J29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L29" t="s">
+        <v>245</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>246</v>
+      </c>
+      <c r="O29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>248</v>
+      </c>
+      <c r="J30" t="s">
+        <v>249</v>
+      </c>
+      <c r="K30" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" t="s">
+        <v>251</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>252</v>
+      </c>
+      <c r="O30" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>254</v>
+      </c>
+      <c r="J31" t="s">
+        <v>255</v>
+      </c>
+      <c r="K31" t="s">
+        <v>256</v>
+      </c>
+      <c r="L31" t="s">
+        <v>257</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>258</v>
+      </c>
+      <c r="O31" t="s">
+        <v>166</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>259</v>
+      </c>
+      <c r="X31" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>263</v>
+      </c>
+      <c r="J32" t="s">
+        <v>264</v>
+      </c>
+      <c r="K32" t="s">
+        <v>265</v>
+      </c>
+      <c r="L32" t="s">
+        <v>266</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>267</v>
+      </c>
+      <c r="O32" t="s">
+        <v>166</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>268</v>
+      </c>
+      <c r="X32" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" t="s">
+        <v>274</v>
+      </c>
+      <c r="L33" t="s">
+        <v>275</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>276</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>278</v>
+      </c>
+      <c r="J34" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" t="s">
+        <v>280</v>
+      </c>
+      <c r="L34" t="s">
+        <v>281</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>252</v>
+      </c>
+      <c r="O34" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>282</v>
+      </c>
+      <c r="X34" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>285</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>286</v>
+      </c>
+      <c r="J35" t="s">
+        <v>287</v>
+      </c>
+      <c r="K35" t="s">
+        <v>288</v>
+      </c>
+      <c r="L35" t="s">
+        <v>289</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>291</v>
+      </c>
+      <c r="J36" t="s">
+        <v>292</v>
+      </c>
+      <c r="K36" t="s">
+        <v>293</v>
+      </c>
+      <c r="L36" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>295</v>
+      </c>
+      <c r="O36" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>297</v>
+      </c>
+      <c r="J37" t="s">
+        <v>298</v>
+      </c>
+      <c r="K37" t="s">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s">
+        <v>300</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>301</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>303</v>
+      </c>
+      <c r="J38" t="s">
+        <v>304</v>
+      </c>
+      <c r="K38" t="s">
+        <v>305</v>
+      </c>
+      <c r="L38" t="s">
+        <v>306</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>307</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>309</v>
+      </c>
+      <c r="J39" t="s">
+        <v>310</v>
+      </c>
+      <c r="K39" t="s">
+        <v>311</v>
+      </c>
+      <c r="L39" t="s">
+        <v>312</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>307</v>
+      </c>
+      <c r="O39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>313</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>314</v>
+      </c>
+      <c r="J40" t="s">
+        <v>315</v>
+      </c>
+      <c r="K40" t="s">
+        <v>316</v>
+      </c>
+      <c r="L40" t="s">
+        <v>317</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>307</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>319</v>
+      </c>
+      <c r="J41" t="s">
+        <v>320</v>
+      </c>
+      <c r="K41" t="s">
+        <v>321</v>
+      </c>
+      <c r="L41" t="s">
+        <v>322</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>323</v>
+      </c>
+      <c r="O41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>324</v>
+      </c>
+      <c r="X41" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>327</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>328</v>
+      </c>
+      <c r="J42" t="s">
+        <v>329</v>
+      </c>
+      <c r="K42" t="s">
+        <v>330</v>
+      </c>
+      <c r="L42" t="s">
+        <v>331</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>323</v>
+      </c>
+      <c r="O42" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>332</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>333</v>
+      </c>
+      <c r="J43" t="s">
+        <v>334</v>
+      </c>
+      <c r="K43" t="s">
+        <v>335</v>
+      </c>
+      <c r="L43" t="s">
+        <v>336</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>276</v>
+      </c>
+      <c r="O43" t="s">
+        <v>166</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>337</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>338</v>
+      </c>
+      <c r="J44" t="s">
+        <v>339</v>
+      </c>
+      <c r="K44" t="s">
+        <v>340</v>
+      </c>
+      <c r="L44" t="s">
+        <v>341</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>276</v>
+      </c>
+      <c r="O44" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>342</v>
+      </c>
+      <c r="X44" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>345</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>346</v>
+      </c>
+      <c r="J45" t="s">
+        <v>347</v>
+      </c>
+      <c r="K45" t="s">
+        <v>348</v>
+      </c>
+      <c r="L45" t="s">
+        <v>349</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>276</v>
+      </c>
+      <c r="O45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>350</v>
+      </c>
+      <c r="X45" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>353</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>354</v>
+      </c>
+      <c r="J46" t="s">
+        <v>355</v>
+      </c>
+      <c r="K46" t="s">
+        <v>356</v>
+      </c>
+      <c r="L46" t="s">
+        <v>357</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>358</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>359</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>360</v>
+      </c>
+      <c r="J47" t="s">
+        <v>361</v>
+      </c>
+      <c r="K47" t="s">
+        <v>362</v>
+      </c>
+      <c r="L47" t="s">
+        <v>363</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>364</v>
+      </c>
+      <c r="O47" t="s">
+        <v>116</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>365</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>366</v>
+      </c>
+      <c r="J48" t="s">
+        <v>367</v>
+      </c>
+      <c r="K48" t="s">
+        <v>368</v>
+      </c>
+      <c r="L48" t="s">
+        <v>369</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>370</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>372</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>373</v>
+      </c>
+      <c r="J49" t="s">
+        <v>374</v>
+      </c>
+      <c r="K49" t="s">
+        <v>375</v>
+      </c>
+      <c r="L49" t="s">
+        <v>376</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>377</v>
+      </c>
+      <c r="O49" t="s">
+        <v>166</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>378</v>
+      </c>
+      <c r="X49" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>381</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>382</v>
+      </c>
+      <c r="J50" t="s">
+        <v>383</v>
+      </c>
+      <c r="K50" t="s">
+        <v>211</v>
+      </c>
+      <c r="L50" t="s">
+        <v>384</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>385</v>
+      </c>
+      <c r="O50" t="s">
+        <v>69</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>386</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>387</v>
+      </c>
+      <c r="J51" t="s">
+        <v>388</v>
+      </c>
+      <c r="K51" t="s">
+        <v>389</v>
+      </c>
+      <c r="L51" t="s">
+        <v>390</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>385</v>
+      </c>
+      <c r="O51" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>392</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>393</v>
+      </c>
+      <c r="J52" t="s">
+        <v>394</v>
+      </c>
+      <c r="K52" t="s">
+        <v>395</v>
+      </c>
+      <c r="L52" t="s">
+        <v>396</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>397</v>
+      </c>
+      <c r="O52" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>399</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>400</v>
+      </c>
+      <c r="J53" t="s">
+        <v>401</v>
+      </c>
+      <c r="K53" t="s">
+        <v>402</v>
+      </c>
+      <c r="L53" t="s">
+        <v>403</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>377</v>
+      </c>
+      <c r="O53" t="s">
+        <v>61</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>404</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>405</v>
+      </c>
+      <c r="J54" t="s">
+        <v>406</v>
+      </c>
+      <c r="K54" t="s">
+        <v>407</v>
+      </c>
+      <c r="L54" t="s">
+        <v>408</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>409</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>410</v>
+      </c>
+      <c r="J55" t="s">
+        <v>411</v>
+      </c>
+      <c r="K55" t="s">
+        <v>412</v>
+      </c>
+      <c r="L55" t="s">
+        <v>413</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>377</v>
+      </c>
+      <c r="O55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>414</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>415</v>
+      </c>
+      <c r="J56" t="s">
+        <v>416</v>
+      </c>
+      <c r="K56" t="s">
+        <v>417</v>
+      </c>
+      <c r="L56" t="s">
+        <v>418</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>419</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>421</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>422</v>
+      </c>
+      <c r="J57" t="s">
+        <v>423</v>
+      </c>
+      <c r="K57" t="s">
+        <v>424</v>
+      </c>
+      <c r="L57" t="s">
+        <v>425</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>426</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>427</v>
+      </c>
+      <c r="X57" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>430</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>431</v>
+      </c>
+      <c r="J58" t="s">
+        <v>432</v>
+      </c>
+      <c r="K58" t="s">
+        <v>433</v>
+      </c>
+      <c r="L58" t="s">
+        <v>434</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>419</v>
+      </c>
+      <c r="O58" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>436</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>437</v>
+      </c>
+      <c r="J59" t="s">
+        <v>438</v>
+      </c>
+      <c r="K59" t="s">
+        <v>439</v>
+      </c>
+      <c r="L59" t="s">
+        <v>440</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>441</v>
+      </c>
+      <c r="O59" t="s">
+        <v>61</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>443</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>444</v>
+      </c>
+      <c r="J60" t="s">
+        <v>445</v>
+      </c>
+      <c r="K60" t="s">
+        <v>446</v>
+      </c>
+      <c r="L60" t="s">
+        <v>447</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>441</v>
+      </c>
+      <c r="O60" t="s">
+        <v>69</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>448</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>449</v>
+      </c>
+      <c r="J61" t="s">
+        <v>450</v>
+      </c>
+      <c r="K61" t="s">
+        <v>451</v>
+      </c>
+      <c r="L61" t="s">
+        <v>452</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>453</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>454</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>455</v>
+      </c>
+      <c r="J62" t="s">
+        <v>456</v>
+      </c>
+      <c r="K62" t="s">
+        <v>457</v>
+      </c>
+      <c r="L62" t="s">
+        <v>458</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>459</v>
+      </c>
+      <c r="O62" t="s">
+        <v>166</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>461</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>462</v>
+      </c>
+      <c r="J63" t="s">
+        <v>463</v>
+      </c>
+      <c r="K63" t="s">
+        <v>464</v>
+      </c>
+      <c r="L63" t="s">
+        <v>465</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>466</v>
+      </c>
+      <c r="O63" t="s">
+        <v>69</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>467</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>468</v>
+      </c>
+      <c r="J64" t="s">
+        <v>469</v>
+      </c>
+      <c r="K64" t="s">
+        <v>470</v>
+      </c>
+      <c r="L64" t="s">
+        <v>471</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>472</v>
+      </c>
+      <c r="O64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>474</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>475</v>
+      </c>
+      <c r="J65" t="s">
+        <v>476</v>
+      </c>
+      <c r="K65" t="s">
+        <v>477</v>
+      </c>
+      <c r="L65" t="s">
+        <v>478</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>479</v>
+      </c>
+      <c r="O65" t="s">
+        <v>69</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>480</v>
+      </c>
+      <c r="X65" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>483</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>484</v>
+      </c>
+      <c r="J66" t="s">
+        <v>485</v>
+      </c>
+      <c r="K66" t="s">
+        <v>486</v>
+      </c>
+      <c r="L66" t="s">
+        <v>487</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>488</v>
+      </c>
+      <c r="O66" t="s">
+        <v>166</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>490</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>491</v>
+      </c>
+      <c r="J67" t="s">
+        <v>492</v>
+      </c>
+      <c r="K67" t="s">
+        <v>493</v>
+      </c>
+      <c r="L67" t="s">
+        <v>494</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>466</v>
+      </c>
+      <c r="O67" t="s">
+        <v>116</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>496</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>497</v>
+      </c>
+      <c r="J68" t="s">
+        <v>498</v>
+      </c>
+      <c r="K68" t="s">
+        <v>499</v>
+      </c>
+      <c r="L68" t="s">
+        <v>500</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>501</v>
+      </c>
+      <c r="O68" t="s">
+        <v>69</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>503</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>504</v>
+      </c>
+      <c r="J69" t="s">
+        <v>505</v>
+      </c>
+      <c r="K69" t="s">
+        <v>506</v>
+      </c>
+      <c r="L69" t="s">
+        <v>507</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>508</v>
+      </c>
+      <c r="O69" t="s">
+        <v>61</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>509</v>
+      </c>
+      <c r="X69" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>512</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>513</v>
+      </c>
+      <c r="J70" t="s">
+        <v>514</v>
+      </c>
+      <c r="K70" t="s">
+        <v>515</v>
+      </c>
+      <c r="L70" t="s">
+        <v>516</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>508</v>
+      </c>
+      <c r="O70" t="s">
+        <v>61</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>517</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>518</v>
+      </c>
+      <c r="J71" t="s">
+        <v>519</v>
+      </c>
+      <c r="K71" t="s">
+        <v>520</v>
+      </c>
+      <c r="L71" t="s">
+        <v>521</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>522</v>
+      </c>
+      <c r="O71" t="s">
+        <v>69</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>523</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>524</v>
+      </c>
+      <c r="J72" t="s">
+        <v>525</v>
+      </c>
+      <c r="K72" t="s">
+        <v>526</v>
+      </c>
+      <c r="L72" t="s">
+        <v>527</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>529</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>530</v>
+      </c>
+      <c r="J73" t="s">
+        <v>531</v>
+      </c>
+      <c r="K73" t="s">
+        <v>532</v>
+      </c>
+      <c r="L73" t="s">
+        <v>533</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>534</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>535</v>
+      </c>
+      <c r="J74" t="s">
+        <v>536</v>
+      </c>
+      <c r="K74" t="s">
+        <v>537</v>
+      </c>
+      <c r="L74" t="s">
+        <v>538</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>488</v>
+      </c>
+      <c r="O74" t="s">
+        <v>116</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>540</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>541</v>
+      </c>
+      <c r="J75" t="s">
+        <v>542</v>
+      </c>
+      <c r="K75" t="s">
+        <v>543</v>
+      </c>
+      <c r="L75" t="s">
+        <v>544</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>545</v>
+      </c>
+      <c r="O75" t="s">
+        <v>69</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>546</v>
+      </c>
+      <c r="X75" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>549</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>550</v>
+      </c>
+      <c r="J76" t="s">
+        <v>551</v>
+      </c>
+      <c r="K76" t="s">
+        <v>552</v>
+      </c>
+      <c r="L76" t="s">
+        <v>553</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>545</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>554</v>
+      </c>
+      <c r="X76" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>557</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>558</v>
+      </c>
+      <c r="J77" t="s">
+        <v>559</v>
+      </c>
+      <c r="K77" t="s">
+        <v>560</v>
+      </c>
+      <c r="L77" t="s">
+        <v>561</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>545</v>
+      </c>
+      <c r="O77" t="s">
+        <v>69</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>563</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>564</v>
+      </c>
+      <c r="J78" t="s">
+        <v>565</v>
+      </c>
+      <c r="K78" t="s">
+        <v>566</v>
+      </c>
+      <c r="L78" t="s">
+        <v>567</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>545</v>
+      </c>
+      <c r="O78" t="s">
+        <v>69</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>568</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>569</v>
+      </c>
+      <c r="J79" t="s">
+        <v>565</v>
+      </c>
+      <c r="K79" t="s">
+        <v>570</v>
+      </c>
+      <c r="L79" t="s">
+        <v>571</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>545</v>
+      </c>
+      <c r="O79" t="s">
+        <v>61</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>572</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>573</v>
+      </c>
+      <c r="J80" t="s">
+        <v>574</v>
+      </c>
+      <c r="K80" t="s">
+        <v>575</v>
+      </c>
+      <c r="L80" t="s">
+        <v>576</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>577</v>
+      </c>
+      <c r="O80" t="s">
+        <v>69</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>578</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>579</v>
+      </c>
+      <c r="J81" t="s">
+        <v>580</v>
+      </c>
+      <c r="K81" t="s">
+        <v>581</v>
+      </c>
+      <c r="L81" t="s">
+        <v>582</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>583</v>
+      </c>
+      <c r="O81" t="s">
+        <v>61</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>584</v>
+      </c>
+      <c r="X81" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>587</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>588</v>
+      </c>
+      <c r="J82" t="s">
+        <v>589</v>
+      </c>
+      <c r="K82" t="s">
+        <v>590</v>
+      </c>
+      <c r="L82" t="s">
+        <v>591</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>592</v>
+      </c>
+      <c r="O82" t="s">
+        <v>69</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>593</v>
+      </c>
+      <c r="X82" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>596</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>597</v>
+      </c>
+      <c r="J83" t="s">
+        <v>598</v>
+      </c>
+      <c r="K83" t="s">
+        <v>599</v>
+      </c>
+      <c r="L83" t="s">
+        <v>600</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>601</v>
+      </c>
+      <c r="O83" t="s">
+        <v>166</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>602</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>603</v>
+      </c>
+      <c r="J84" t="s">
+        <v>604</v>
+      </c>
+      <c r="K84" t="s">
+        <v>605</v>
+      </c>
+      <c r="L84" t="s">
+        <v>606</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>607</v>
+      </c>
+      <c r="O84" t="s">
+        <v>61</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>609</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>610</v>
+      </c>
+      <c r="J85" t="s">
+        <v>611</v>
+      </c>
+      <c r="K85" t="s">
+        <v>612</v>
+      </c>
+      <c r="L85" t="s">
+        <v>613</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>614</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>615</v>
+      </c>
+      <c r="X85" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>618</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>619</v>
+      </c>
+      <c r="J86" t="s">
+        <v>620</v>
+      </c>
+      <c r="K86" t="s">
+        <v>621</v>
+      </c>
+      <c r="L86" t="s">
+        <v>622</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>623</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>624</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>625</v>
+      </c>
+      <c r="J87" t="s">
+        <v>620</v>
+      </c>
+      <c r="K87" t="s">
+        <v>626</v>
+      </c>
+      <c r="L87" t="s">
+        <v>627</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>628</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>629</v>
+      </c>
+      <c r="J88" t="s">
+        <v>630</v>
+      </c>
+      <c r="K88" t="s">
+        <v>631</v>
+      </c>
+      <c r="L88" t="s">
+        <v>632</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>633</v>
+      </c>
+      <c r="O88" t="s">
+        <v>69</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>634</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>635</v>
+      </c>
+      <c r="J89" t="s">
+        <v>636</v>
+      </c>
+      <c r="K89" t="s">
+        <v>637</v>
+      </c>
+      <c r="L89" t="s">
+        <v>638</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>614</v>
+      </c>
+      <c r="O89" t="s">
+        <v>69</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>639</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>640</v>
+      </c>
+      <c r="J90" t="s">
+        <v>641</v>
+      </c>
+      <c r="K90" t="s">
+        <v>642</v>
+      </c>
+      <c r="L90" t="s">
+        <v>643</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>644</v>
+      </c>
+      <c r="O90" t="s">
+        <v>61</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>646</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>647</v>
+      </c>
+      <c r="J91" t="s">
+        <v>648</v>
+      </c>
+      <c r="K91" t="s">
+        <v>649</v>
+      </c>
+      <c r="L91" t="s">
+        <v>650</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>644</v>
+      </c>
+      <c r="O91" t="s">
+        <v>69</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>652</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>653</v>
+      </c>
+      <c r="J92" t="s">
+        <v>654</v>
+      </c>
+      <c r="K92" t="s">
+        <v>655</v>
+      </c>
+      <c r="L92" t="s">
+        <v>656</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>657</v>
+      </c>
+      <c r="O92" t="s">
+        <v>166</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>659</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>660</v>
+      </c>
+      <c r="J93" t="s">
+        <v>661</v>
+      </c>
+      <c r="K93" t="s">
+        <v>662</v>
+      </c>
+      <c r="L93" t="s">
+        <v>663</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>664</v>
+      </c>
+      <c r="O93" t="s">
+        <v>166</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>666</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>667</v>
+      </c>
+      <c r="J94" t="s">
+        <v>668</v>
+      </c>
+      <c r="K94" t="s">
+        <v>669</v>
+      </c>
+      <c r="L94" t="s">
+        <v>670</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>671</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>673</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>674</v>
+      </c>
+      <c r="J95" t="s">
+        <v>675</v>
+      </c>
+      <c r="K95" t="s">
+        <v>676</v>
+      </c>
+      <c r="L95" t="s">
+        <v>677</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>678</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>679</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>680</v>
+      </c>
+      <c r="J96" t="s">
+        <v>681</v>
+      </c>
+      <c r="K96" t="s">
+        <v>682</v>
+      </c>
+      <c r="L96" t="s">
+        <v>683</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>684</v>
+      </c>
+      <c r="O96" t="s">
+        <v>69</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1</v>
+      </c>
+      <c r="S96" t="n">
+        <v>2</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>685</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>686</v>
+      </c>
+      <c r="J97" t="s">
+        <v>687</v>
+      </c>
+      <c r="K97" t="s">
+        <v>688</v>
+      </c>
+      <c r="L97" t="s">
+        <v>689</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="s">
+        <v>690</v>
+      </c>
+      <c r="O97" t="s">
+        <v>61</v>
+      </c>
+      <c r="P97" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>2</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>691</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>692</v>
+      </c>
+      <c r="J98" t="s">
+        <v>693</v>
+      </c>
+      <c r="K98" t="s">
+        <v>694</v>
+      </c>
+      <c r="L98" t="s">
+        <v>695</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>696</v>
+      </c>
+      <c r="O98" t="s">
+        <v>61</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>34321</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>698</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>699</v>
+      </c>
+      <c r="J99" t="s">
+        <v>700</v>
+      </c>
+      <c r="K99" t="s">
+        <v>701</v>
+      </c>
+      <c r="L99" t="s">
+        <v>702</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>702</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_369.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_369.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="799">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Michael J</t>
   </si>
   <si>
     <t>07/04/2018</t>
@@ -189,6 +192,9 @@
 Now, we come to the room! I must say that the room was so close to being what I expected, minus the (what appeared to be) ejaculate stains on the headboard. Things like that...Where to start with this place. We stayed at this Holiday Inn Express this week. Don't let the name fool you, this hotel is not downtown proper. It is located east of downtown in the MacArthur Park area. For those unaware, MacArthur Park is an LA landmark, at which you can participate in many fun activities such as purchasing narcotics, drinking in public, or urinating in the open (which can also be a spectator sport, as I saw no less than six exposed penises in my short time there). In fact, the day we arrived, the LAPD held a fishing event of some sort where they pulled a dead body out of the lake! Fascinating! You can enjoy your walk to and from the park as well, passing by everyone blocking the sidewalks hawking their wares such as pirated DVD's and expired foods. Now, I will admit, upon arrival we noted the parking situation at this hotel was fantastic. No issues there. Underground parking with CCTV cameras left us feeling like our car was safe and secure for the whole stay. The check in process was simple, as usual with most Holiday Inn locations. Staff was helpful and accommodating, and welcome us and our dog happily. Now, we come to the room! I must say that the room was so close to being what I expected, minus the (what appeared to be) ejaculate stains on the headboard. Things like that tend to make me lose faith in the cleanliness of the room as a whole. Hard to sleep comfortably, knowing something like that was overlooked.We were on the fifth floor. At least the view should be nice, right? And not a hotel to disappoint, the trash pile and parking lot outside was truly the scenic overlook we were hoping for!All said and done, I must say, you'd probably be better off parking in a decent neighborhood, sleeping in your car, and using the $300 as kindling to keep warm. You'll end up about on par with staying here. More</t>
   </si>
   <si>
+    <t>Diane P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r578104619-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>This hotel is very well managed. There was not a single employee who did not go out of their way to greet us and make sure we had everything we needed. So many smiling faces and everyone working hard to keep the hotel running smoothly and efficiently. It was such a treat to have employees greeting us with a smile. They seemed happy to be working and happy to have us there as customers. Refreshing cold water and delicious (not too sweet) pink lemonade in the lobby. The best part of this hotel was the shuttle service. They will gladly take you anywhere within 4 miles of the hotel. The beds were so comfortable which was wonderful after a hard day's work. Traveling would be a dream if every hotel were like this!More</t>
   </si>
   <si>
+    <t>SuperFlyTNT2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r569577082-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>I require a handicapped space. On our 2nd day, a car without a handicapped sticker was parked in the handicapped space in front of the hotel. The front desk would not ask him to move. I had to park farther away, shoved into a space next to a van and a wall...I could barely open my door. I won't be staying here again. It must have been a friend of theirs parked there.More</t>
   </si>
   <si>
+    <t>IrishKnight1942</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r549154321-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -259,6 +271,9 @@
   </si>
   <si>
     <t>December 2017</t>
+  </si>
+  <si>
+    <t>whitrd92</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r546501138-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
@@ -287,6 +302,9 @@
 From this establishment and calling prior to arriving and speaking to the employee who works the front desk we were under the assumption the price was final. Upon walking into this establishment we were surprised with a $150 deposit in addition to paying for the room. Not only was she not helpful, she didn’t try to resolve the issue, her only help was trying to get us to cancel the room. I was under the assumption this hotel was military friendly but that is obviously not the case. I reserved this room for my wife and I upon receiving orders to California and our stay was ruined by the employee who worked the front desk that day. I will also be contacting corporate to make sure this problem is resolved. The employee who was working the front desk should be re trained on how to greet guest properly and make the guest feel more welcome. From my understanding a deposit is required when you pay with cash or if the guest is perceived to be a high risk stay and neither was the case here as I payed with my visa and my appearance was professional so the fact that I was charged a deposit...On the morning of the 8th of December my wife and I attempted to check into this hotel after having reserved the room 2 weeks in advance. After confirming the price sent to my emailFrom this establishment and calling prior to arriving and speaking to the employee who works the front desk we were under the assumption the price was final. Upon walking into this establishment we were surprised with a $150 deposit in addition to paying for the room. Not only was she not helpful, she didn’t try to resolve the issue, her only help was trying to get us to cancel the room. I was under the assumption this hotel was military friendly but that is obviously not the case. I reserved this room for my wife and I upon receiving orders to California and our stay was ruined by the employee who worked the front desk that day. I will also be contacting corporate to make sure this problem is resolved. The employee who was working the front desk should be re trained on how to greet guest properly and make the guest feel more welcome. From my understanding a deposit is required when you pay with cash or if the guest is perceived to be a high risk stay and neither was the case here as I payed with my visa and my appearance was professional so the fact that I was charged a deposit at the discretion of the employee who worked the front desk makes me feel as if my wife and I were discriminated against. In writing this I hope some form of corrective action is taken to prevent this from happening to guest in the future. Thank you for your time.More</t>
   </si>
   <si>
+    <t>siropderable</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r539846411-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -314,6 +332,9 @@
     <t>As everyone mentioned not the best location but for me it was very close to my customer and who wants to sit in LA traffic when you don’t have to? Rooms were clean and newly decorated. It’s a Downtown hotel so there will be noise. Didn’t bother me. Breakfast was very good and the staff attentive. Parking was not overly expensive and the location allows you to easily get around and visit if you have a car. Enjoyed my stay. More</t>
   </si>
   <si>
+    <t>Amit_Sengupta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r528177757-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -341,6 +362,9 @@
     <t>We stayed here for a couple of nights and the staff was warm and friendly. Did not like the location - though it is close to downtown, walked around a bit and did not feel comfortable in the locality - retail and food options around it was not appealing and we drove down to downtown next day for lunch... Tried the gym here and like most other Expresses, it was not good as well... only one treadmill, an exercise bike and no weights... will possibly not go back...More</t>
   </si>
   <si>
+    <t>Trevor C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r525981759-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -359,6 +383,9 @@
     <t>Here are the four primary reasons my stay at this property was so awesome:  1) Aida 2) Rafael  3) Juan  4) Ivan.   Wow!  These four individual know customer service.  Aida was the person who checked me in.  She made me feel as though our meeting was a reunion of sorts.  For me, the reception is almost everything, and her reception truly set the stage for the remainder of my stay.  Aida's style of welcoming me was an 11, on a scale of 1 to 10, with 10 being the highest.  Rafael was the person who prepared the breakfast each morning.  If I didn't know any better, I would think that he and I were best friends back in high school.  He is one of the happiest and most pleasant persons you'll ever come across.  Each day I needed a ride in the hotel van to the Staples Center area, and that's where Ivan and Juan took center stage.  These gentlemen transported me with such pleasure, it's as if they were told that I was some sort of dignitary.  Each morning there was a wonderful hot breakfast.  The hotel was typical Holiday Inn quality.  The hotel offers complimentary messages.  There's free Wi-Fi.  One evening there was a wine tasting.  I don't recall if the lady hosting this event said that this was done Tue and Thur, or just Tue.  One thing is for sure, it was each week.  There were other...Here are the four primary reasons my stay at this property was so awesome:  1) Aida 2) Rafael  3) Juan  4) Ivan.   Wow!  These four individual know customer service.  Aida was the person who checked me in.  She made me feel as though our meeting was a reunion of sorts.  For me, the reception is almost everything, and her reception truly set the stage for the remainder of my stay.  Aida's style of welcoming me was an 11, on a scale of 1 to 10, with 10 being the highest.  Rafael was the person who prepared the breakfast each morning.  If I didn't know any better, I would think that he and I were best friends back in high school.  He is one of the happiest and most pleasant persons you'll ever come across.  Each day I needed a ride in the hotel van to the Staples Center area, and that's where Ivan and Juan took center stage.  These gentlemen transported me with such pleasure, it's as if they were told that I was some sort of dignitary.  Each morning there was a wonderful hot breakfast.  The hotel was typical Holiday Inn quality.  The hotel offers complimentary messages.  There's free Wi-Fi.  One evening there was a wine tasting.  I don't recall if the lady hosting this event said that this was done Tue and Thur, or just Tue.  One thing is for sure, it was each week.  There were other snacks to go along with the wine offering.  Oh, and then there was free ice cream available.  For you old schoolers, you would appreciate having to dip it from this 5-gallon drum.  I loved it.  I have ice cream maybe 10 times a year.  During my 4-day stay, I treated myself each night.  It was just too tasty.  There was a microwave in the breakfast area.  There was a refrigerator in my room.  The location of the hotel is very convenient to the Staples Center area, without the high price tag of hotels in the middle of the Staples Center area.  I had a rental car for one day, and there's FREE parking.  If I ever have a stay in the downtown/Staples Center area in the future, I know where I'll book my hotel stay.   Aida, Rafael, Ivan, and Juan, thank you very, very, very much for a most pleasurable experience.  The amenities were great, but you all, with your 5-star level of customer service made all the difference!More</t>
   </si>
   <si>
+    <t>flipper95</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r521098426-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -377,6 +404,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Jeff S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r486666240-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -398,6 +428,9 @@
     <t>I have stayed with holiday inn chain for a month now, so you'd think I was a "loyal &amp;I trusted" guest right? Wrong! This poor excuse of a hotel left me standing on the street after they refused to use my credit card because it did not have my name on it! I have a confirmation of my booking inc. the credit card, which is the same card I have used all over the country! They could not help me at all! No offers to assist in anyway, no offer to let me pay cash. Mind you the place looks abandoned from out side!I refuse to use any holiday inn after this and will now try the competition at La Quinta!! Ps. I have been travelling with a friend who also will book his room elsewhere from now on!More</t>
   </si>
   <si>
+    <t>ChristianAmmann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r480375092-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -413,6 +446,9 @@
     <t xml:space="preserve">I have spend many nights in different Hotels in LA and California. Now being at home I have to say that this stay was one of my most pleasant. Honest, friendly and super close to downtown. I also stayed in different HI Express and this one was definitely the best!I find it honest to put ear blocks in the room knowing that LA downtown is busy and noisy during the night. But I liked the kindness. </t>
   </si>
   <si>
+    <t>hmlphoenix</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r477578791-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -434,6 +470,9 @@
     <t>Let me start with the one and only bad thing, the photos we saw online depict a large lovely pool. There is a small pool/hot tub approximately 12'x15' (?) it's not what was in the photo. However, it was relaxing after a long day of walking. Nice breakfast, good, fresh selection . Friendly staff. Clean! The room was clean, quiet, and comfortable. The location: keep in mind that you are in downtown LA. The neighborhood has a lot of homeless on the streets, the park is questionable however we went for a walk there, didn't get robbed. Every morning there are little "booths" set up on the streets with locals selling all sorts of things. Felt like Tijuana. However, you turn the corner towards the hotel and go in and it's clean, modern and quite safe. You can get anywhere in about 30 minutes it seemed. Uber found us with no problem. Uber Eats was great, lots to choose from in the area.We used the fitness room. No weights but there was enough to have a good cardio workout.I would stay there again. I would recommend it to others. The hotel was great and the staff were very nice.More</t>
   </si>
   <si>
+    <t>Tessx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r468564490-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -450,6 +489,9 @@
   </si>
   <si>
     <t>March 2017</t>
+  </si>
+  <si>
+    <t>M D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r456008279-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
@@ -483,6 +525,9 @@
 The hotel and room looked tired and dated. The breakfast was so, so and nothing special, and in my opinion, not as good or varied a breakfast as we get in HIE in the UK. My expectation and experience is that US hotels are usually of a much better standard than in the UK, but unfortunately not in this case.  Also, the cost of the room was incredibly high for the quality. I've stayed in 4* hotels in central London for much cheaper than this. But to be fair I do appreciate hotel costs are always relative to the city...I'm from the Uk, so bear that in mind when reading this review!  I was in LA on business and asked to get somewhere close to the office under $200. My travel company found me this place.  It was 1.7 miles from my office, and I had planned to walk from hotel to office, however after spending 10 mins walking down the street, I quickly came to the conclusion that the immediate area around the hotel was not safe to walk around, even in daylight.  So effectively I became a prisoner in the hotel, having to order deliveries for dinner and having to take a cab/hotel shuttle everywhere.  The view out of the back of the hotel is horrendous, looks like something out of a gangster movie, with a view of derelict buildings and homeless people sleeping out the back.  The hotel and room looked tired and dated. The breakfast was so, so and nothing special, and in my opinion, not as good or varied a breakfast as we get in HIE in the UK. My expectation and experience is that US hotels are usually of a much better standard than in the UK, but unfortunately not in this case.  Also, the cost of the room was incredibly high for the quality. I've stayed in 4* hotels in central London for much cheaper than this. But to be fair I do appreciate hotel costs are always relative to the city you're in and I have no previous experience of LA.The wifi in the hotel was poor. It regularly dropped and was consistently slow, which added to my feelings of frustration and imprisonment! I struggled to make an audio facetime call back home.The only real positive from my stay was the staff.  Without exception, they were helpful and friendly, so no complaints in that department. The free hotel shuttle was usually available and very useful given the hotel's location.More</t>
   </si>
   <si>
+    <t>Jim W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r443185255-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -510,6 +555,9 @@
     <t>It's close to downtown businesses area and hotel provide free shuttles to there. The staffs there are very friendly and helpful, especially the front desk and the shuttle driver. I got also room upgraded.More</t>
   </si>
   <si>
+    <t>VeraH31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r422671020-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -531,6 +579,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>purplenell53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r421294465-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -555,6 +606,9 @@
     <t>Stayed here for 6 nights while in town for a conference.  The great parts...Dennis who drove the shuttle and does just about every thing else here.  A delightful man who steered us to wonderful restaurants in the area and was so very wonderful getting us to and from the convention center. The not so good parts...Robert, one of the desk clerks who flat out lied on a couple occassions and made a few times very difficult.  He just plain makes up stuff.  I finally learned not to believe a thing he said.  The in between parts...the room - the air conditioner leaked and the carpeting was soaked.  There is a refridgerator in the room but no microwave.  The maid skipped the room totally one day however they did bring fresh towels when I called and they came in one day even with the "do not disturb" sign on the door.  I will say that there was money and electronics left out that day and not a thing was taken.  I've had thefts by house staff in much 'fancier' hotels.  The room was otherwise just fine and was overall very clean.  The vending machine would keep money and not dispense but the on duty lady at the desk reimburse me without question.  The neighborhood isn't the 'best' and there are many homeless in the area however I never felt unsafe, even as a single woman.  There are lots of sirens in...Stayed here for 6 nights while in town for a conference.  The great parts...Dennis who drove the shuttle and does just about every thing else here.  A delightful man who steered us to wonderful restaurants in the area and was so very wonderful getting us to and from the convention center. The not so good parts...Robert, one of the desk clerks who flat out lied on a couple occassions and made a few times very difficult.  He just plain makes up stuff.  I finally learned not to believe a thing he said.  The in between parts...the room - the air conditioner leaked and the carpeting was soaked.  There is a refridgerator in the room but no microwave.  The maid skipped the room totally one day however they did bring fresh towels when I called and they came in one day even with the "do not disturb" sign on the door.  I will say that there was money and electronics left out that day and not a thing was taken.  I've had thefts by house staff in much 'fancier' hotels.  The room was otherwise just fine and was overall very clean.  The vending machine would keep money and not dispense but the on duty lady at the desk reimburse me without question.  The neighborhood isn't the 'best' and there are many homeless in the area however I never felt unsafe, even as a single woman.  There are lots of sirens in the area at all times but unless you normally live in the country the noise wasn't actually disturbing.More</t>
   </si>
   <si>
+    <t>peejay10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r420009606-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -571,6 +625,9 @@
   </si>
   <si>
     <t>Experienced a comfortable stay in Westlake area at this highly rated HI Express. Agree with most positive comments and compared to downtown LA, the price was right and free parking too.  Clean room nicely set up for business traveler with well lit desk, large TV with numerous channels and comfortable bed.Just a few comments to share include that the top floor is best since the sound barrier between other floors is not good. You can hear others walking above and if you're a light sleeper, this could an issue. Also, two of three nights a police chopper hovered near the hotel area for 20 minutes each time with full spotlight searching for something/someone. The neighborhood is not ideal so stayed in the hotel at night. Next door is an abandoned dilapidated building - not a nice view from my window in 414.More</t>
+  </si>
+  <si>
+    <t>metsontheroad</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r410241173-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
@@ -606,6 +663,9 @@
 While the rooms were clean and the beds comfortable the rest of...First the good.  The rooms were very clean and the bed was super comfortable.  The bed may have been close to brand new.  The staff was very nice and very helpful.  Great security (which is necessary as I will detail later).  Free parking, which is almost unheard of in California, especially Los Angeles.   However, when they call this hotel "Los Angeles Downtown West" they do not mean the west side of downtown, they mean WEST of downtown... which is not a nice neighborhood.  The hotel is surrounded by low income housing with bars on the windows, pawn shops, a body shop and sketchy looking people.  During the day the neighborhood was pretty busy and I would feel safe walking a few blocks if I needed but at night I absolutely would not have walked anywhere.  In any event, the hotel is probably a mile from the real downtown area and about a 15 minutes drive from the main touristy section of Hollywood.  A car is absolutely essential here.  I will give the hotel credit though for the excellent security.  You needed a key to enter the building, to use the elevator, to get into the business center, even to get into the lobby bathrooms.  When I needed a new key they actually asked for ID.  They definitely take guest security seriously which is very important in this  neighborhood.  While the rooms were clean and the beds comfortable the rest of the furnishings were rather old and dated.  There was a lack of electrical outlets and the room seemed poorly lit in general.  The outdoor pool they claim to have is a total joke.  I have seen bathtubs larger than this pool.  In addition, it could not be a less inviting location.  Basically surrounded by concrete and 10 foot walls.  They would be better off not even advertising they have a pool.  If I had booked this hotel because I really wanted a pool I would have been very upset.  The breakfast was ok.  Average holiday inn express fare.  They probably need a second person working the breakfast area.  The woman working there was very nice, very helpful and seemed to be very on top of refilling things but it was basically impossible for her to stay on top of it all during the breakfast rush.  No sooner she would come out with a new tray of food, something else would be empty.  She was doing the best she could but clearly a second person is needed or resources should be redirected when the breakfast area is as busy as it was.  Overall, the hotel was okay.  A nicer neighborhood (or at least a more accurate description of the actual neighborhood) and newer furnishings and it would have earned 4 stars.More</t>
   </si>
   <si>
+    <t>230JH230</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r408977012-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -622,6 +682,9 @@
   </si>
   <si>
     <t>Some mixed reviews on here, but after 8 nights I think I am well placed to comment.The hotelWe had very good service throughout this our stay. The room was clean and spacious with everything we needed. It wasn't modern but it was fine. There was plenty for breakfast and a good variety - all included in the room rate.Plenty of free parking and a good location if you ha e a car to get to all the attractions - pretty central.The area-Not very good. Very sad to see the amount of homeless people and the poor living conditions. We walked from the hotel into the city one day, once past the business area the city is in a bad way. As I said before you need a car here, it wasn't safe to go out at night and we couldn't fine anywhere safe to eat nearby.On a positive note the area meant that we spent our week exploring other parts of LA and had a full packed agenda.The hotel was safe, don't let this put you off.More</t>
+  </si>
+  <si>
+    <t>wishfrog</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r408273904-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
@@ -648,6 +711,9 @@
 -The free breakfast in the mornings was off the hook! It was a big time- and money-saver for our group to be able to start the day with a good meal and very good cup (or two) of coffee or tea (they even had hot chocolate) before starting the day's work. Breakfast consisted of: cartons of milk, greek and regular yogurt, dry cereal, instant oatmeal, bananas, apples, oranges, and peaches, ham, bacon, biscuits, gravy, scrambled...Just spent a week here on business. Was extremely happy with the choice to stay here! Why?-For downtown Los Angeles, it was inexpensive. And with a Metro stop a five-minute walk away, not to mention all the Metro buses, getting to/from downtown and the rest of LA was extremely easy. We went out a lot more to area restaurants as well as attractions because the transit was so easy from the hotel. [We had zero problems with the neighborhood, and we were out and about at all hours, men and women singly and in groups. Yes, it's gritty, but it's not dangerous.]-Free parking! Free parking! Free parking! And if that weren't enough the hotel has a free shuttle van with a four-mile radius, which is plenty to get you to the convention center/Staples. And our shuttle drivers were rad! Their friendliness and knowledge of the area really increased our enjoyment of the hotel. Can't say enough good about them (looking at you, Dennis!)-The free breakfast in the mornings was off the hook! It was a big time- and money-saver for our group to be able to start the day with a good meal and very good cup (or two) of coffee or tea (they even had hot chocolate) before starting the day's work. Breakfast consisted of: cartons of milk, greek and regular yogurt, dry cereal, instant oatmeal, bananas, apples, oranges, and peaches, ham, bacon, biscuits, gravy, scrambled and hard-boiled eggs, bagels, english muffins, pancakes (with butter, honey, or syrup), juice, cinnamon rolls...I think that's all. Nobody in our group complained about breakfast, that's for sure!-Nice common area for reading the paper or watching the Olympics any time of day, which was nice.-Nice rooms, too! Maxi minifridge, ironing board, plenty of towels and toiletries, a desk, a chair...quite comfortable. Efficient A/C, which we appreciated.-Great staff; efficient, knew what they were doing, friendly (nice to be greeted whenever I strolled in--I appreciated that)My only complaint is the wifi--unless I was there in the middle of the day when everyone else was out, it was so slow as to be completely unusable. This really needs to be addressed, because this property really has a lot going for it, but the wifi was a total bummer. Even so, I still recommend this Holiday Inn Express for business in the downtown Los Angeles area.More</t>
   </si>
   <si>
+    <t>Pedro G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r390195923-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -666,6 +732,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Ashish K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r386200847-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -681,6 +750,9 @@
     <t xml:space="preserve">Most places in Los Angeles are either expensive or lack some facility or the other. Holiday Inn Express at Los Angeles Downtown ticks a lot of boxes. They have good parking. Security is good. There are places you can drive to to eat. Unfortunately apart from some fast food places like McDonald's, there aren't many places nearby for food. You need to have your wits about you to walk around. The above were the reasons for one less star. The rooms are good. Breakfast is standard Holiday Inn Express breakfast. The people behind the front desk were very helpful and helped us arrange bus tour of LA. </t>
   </si>
   <si>
+    <t>Rafamar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r383865266-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -705,6 +777,9 @@
     <t>If you are renting a car like we did, may not be a concern as much as what you are going to do is outside this area (if you are on a family trip). The hotel is ok is a holiday inn like any other one. The location is dodgy to be honest. Plan in advance and pick another location. The rates are expensive anyway.More</t>
   </si>
   <si>
+    <t>Joe S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r380435541-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -720,6 +795,9 @@
     <t>We stayed for one night prior to flying back to the UK.  Great rooms , very spacious clean and modern . The staff stood out with their friendliness on the front desk and could not have been more helpful . Always nice and reassuring . Thank you</t>
   </si>
   <si>
+    <t>Keri K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r377117197-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -738,6 +816,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Angie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r370670105-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -765,6 +846,9 @@
     <t>The hotel itself is a nice hotel.  The staff were super friendly and helpful, the place was clean, and the free breakfast was good.  You also can't beat the free parking, hard to come by in downtown LA.  I was a little concerned at first staying here after reading reviews because I was spending the week exploring, mostly with just me and my girls, while my husband was working downtown.  Yes, the neighborhood is not the best, but it wasn't anything to be afraid of.  There always seemed to be people around heading to and from places outside, and I didn't see many creepy people just hanging around for no reason.  Yes, you may want to avoid the park that is a block behind the hotel, but getting us to and from the metro station just down around the corner was not a concern.  They do offer a free shuttle that will go within something like 4 miles that we didn't make use of, when we went out for the day we took our car or rode the metro. That being said, we didn't head out after dark alone, and probably wouldn't have.  As far as the rooms go, we had one that faced the street and it was a bit noisy at times (cars, sirens, street noises, etc) but the sound of the AC at night was what I mostly heard.  If you need quiet to sleep, I suggest...The hotel itself is a nice hotel.  The staff were super friendly and helpful, the place was clean, and the free breakfast was good.  You also can't beat the free parking, hard to come by in downtown LA.  I was a little concerned at first staying here after reading reviews because I was spending the week exploring, mostly with just me and my girls, while my husband was working downtown.  Yes, the neighborhood is not the best, but it wasn't anything to be afraid of.  There always seemed to be people around heading to and from places outside, and I didn't see many creepy people just hanging around for no reason.  Yes, you may want to avoid the park that is a block behind the hotel, but getting us to and from the metro station just down around the corner was not a concern.  They do offer a free shuttle that will go within something like 4 miles that we didn't make use of, when we went out for the day we took our car or rode the metro. That being said, we didn't head out after dark alone, and probably wouldn't have.  As far as the rooms go, we had one that faced the street and it was a bit noisy at times (cars, sirens, street noises, etc) but the sound of the AC at night was what I mostly heard.  If you need quiet to sleep, I suggest asking the staff for a room away from the front, or bring some ear plugs.  All in all, it was nice hotel at a good price that was close to many things by car or metro.More</t>
   </si>
   <si>
+    <t>Sean B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r347781731-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -783,6 +867,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>qchess</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r340772251-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -801,6 +888,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Taylor P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r338290314-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -828,6 +918,9 @@
     <t>The hotel itself is nice enough. its clean, the staff is friendly, and the free breakfast is decent. The major thing that turned me off about this particular Holiday Inn was the location. I always use Holiday Inn because I have never been disappointed in their hotels, but this location was not the best.More</t>
   </si>
   <si>
+    <t>deepakkalra9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r319726489-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -855,6 +948,9 @@
     <t>This hotel is nice and clean,but the area surrounding isn't good,a convenient way to I board the metro train,but the flip side is that it's not close to any restaurants,the name downtown doesn't mean that it's in downtown LA,it's quite a distance from the real downtown area of LA,the locality is an average one,once in the hotel things are comfortable,would love to explore Tarantino in the real downtown area though.More</t>
   </si>
   <si>
+    <t>Actually3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r318793663-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -873,6 +969,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Lauren C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r312999679-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -897,6 +996,9 @@
     <t>Hotel is clean and comfortable, and the service is friendly. The A/C is loud but helps to drown out the street noise.  The breakfast is decent and has good options.  I agree with the other reviewers that the hotel has no control over the neighborhood, BUT it is important to know that there are few restaurants within walking distance and the hotel has NO room service, bar or food for sale.  If you are traveling alone for business, as I was, or traveling with a family you may not want to explore the neighborhood to find a place to eat.  The hotel will only recommend one Chinese restaurant in the area; they give you a list of places that deliver.  Otherwise, you can take a cab/Uber to a restaurant.  The hotel also has a shuttle, which I did not use, that can take you places as well.  For delivery, I recommend Amante Pizza &amp; Pasta.More</t>
   </si>
   <si>
+    <t>sastri2339cricket</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r298387883-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -912,6 +1014,9 @@
     <t>The service is excellent,the rooms are clean,the staff makes you feel welcome.I look forward to visiting this hotel in November. So simple,make people feel  comfortable,maybe someone from embassysuites river drive, miami should visit this hotel.thank you</t>
   </si>
   <si>
+    <t>Jon B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r296188532-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -930,6 +1035,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>ldyluck2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r293498420-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -948,6 +1056,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>MemphisLove2travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r284851371-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -966,6 +1077,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>KansasSummertraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r284051559-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -981,6 +1095,9 @@
     <t>We had   a convention  downtown &amp; they provide FREE shuttle back &amp; forth which was so convenient..staff all excellent &amp; helpful. Motel nice &amp; safe though in rough part of town..as many downtown areas are.</t>
   </si>
   <si>
+    <t>Ozlem Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r279629173-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -996,6 +1113,9 @@
     <t>Best in this area. Free parking and free wifi. Helpful employers. I asked the silent room because of my sleeping problems and he gave us the silence one. And gave the map and marked the must see places. We walked around there. Located mexican area (as everbody talks spanish). Very near to hollywood sign walk frame and universal</t>
   </si>
   <si>
+    <t>Ravish2905</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r269068939-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1023,6 +1143,9 @@
     <t>I stayed in this hotel for a week on a business trip. The hotel itself is OK but the area is a little shady. Not many restaurants in the vicinity and you have to rely on deliveries. They have weird rule of using the room keys for elevators and most of the rooms are without the microwave.More</t>
   </si>
   <si>
+    <t>Alex B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r267544193-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1038,6 +1161,9 @@
     <t>The people here are very nice, the facility is spotless, the rooms are very comfortable, breakfast is nice, and all of our points of interest are a short drive away. Yes, the area may not be the best, but, that can be said about hotels in many big cities. I do not feel the least bit unsafe staying here nor does the rest of my family. We do not walk around at times and/or places that we should not. Basic situational awareness is important at all travel destinations and customized accordingly.</t>
   </si>
   <si>
+    <t>lovetotravel2withyou</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r266098980-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1053,6 +1179,9 @@
     <t>My friend and I stayed there for a conference who had recommended this motel. The room was clean and the beds were comfortable and cozy. All the staff were helpful and wonderful with everything. A very pleasant stay</t>
   </si>
   <si>
+    <t>threedandj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r259323135-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1077,6 +1206,9 @@
     <t>The rooms are fair, in a gray decorated sort of way.  The hotel is not located in a really good part of town. It does not feel safe.  The staff at the hotel tries to do a good job and be helpful. They did not reach that end game.   And watch your use of the shuttle.  I was told they would pick me up from the conference center at any time. When I called they said the shuttle was not available today from 1 to 4 PM. This was after three employees at the front desk promoted and insisted it would be better to take the shuttle.  Not one of them mentioned that the shuttle would not be available that afternoon.  When I finally took a taxi back to the hotel, there was the shuttle leaving with a customer. There are worse hotels in downtown LA however I would check out other options before staying here.  More</t>
   </si>
   <si>
+    <t>Tatiana R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r259197742-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1101,6 +1233,9 @@
     <t>The hotel is very clean and close to LA Convention Center. Is not a very nice neighbourhood but the price-value is good! The staff is nice and breakfast is good! It is a good place, The WIFI is not good, but pillows are great! They also offer shuttle! More</t>
   </si>
   <si>
+    <t>Xue V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r257200036-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1119,6 +1254,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>iamstevenmichael</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r243408639-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1137,6 +1275,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>j1027l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r242526536-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1158,6 +1299,9 @@
     <t>I was attending the Los Angles Auto Show with my wife and this was the closest location to the show.  That was very convenient with the drop off and pick up shuttle service provided by the hotel.  The area of town is SO SCARY we were afraid to venture out at night AT ALL.  We were forced to eat delivered pizza both nights we were there.  The area is just FILTHY, trash everywhere, homeless people everywhere as well.  This is just like any other major downtown hotel one would say, BUT that is not true.  Go to downtown San Antonio, TX and it is clean, landscaped and VERY WELL patrolled so one feels totally safe there.  I was just not comfortable with my surroundings in LA at all.  That I blame on the city NOT the hotel.  The hotel was nice, clean and the staff was very helpful as well.  I was worried about my vehicle in these surroundings, but the staff assured me all would be just fine and it was.  Would I recommend this hotel, the HOTEL itself, YES, where it is located, NEVER!More</t>
   </si>
   <si>
+    <t>AmandaSasso</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r241736814-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1185,6 +1329,9 @@
     <t>After American Airlines lost my luggage we finally drove about 30 minutes from LAX to the hotel. Our first impressions were horrible and we were scared of the area and underground parking. Its a pretty bad area and sketchy at night. Checking in it was 6am Toronto time and we were so thirsty. The guy at the desk gave us complimentary waters. The hotel was clean inside, no complaints. We finally fell asleep then at 8am I thought my friend was blowdrying her hair, then stopping, then re blowdrying her hair. I was really annoyed. I finally woke up and realized it wasn't her. But the hotel staff decided that 8am was a great time to vacuum the floor.  So we walk downstairs to the free breakfast. It consists of microwaved eggs, microwaved bacon, cereal, a weird pancake machine that sometimes works. They had juice that was pretty good though. Theres no gift shop or restaurant anywhere near by. There was one really nice girl at the front young and spanish maybe. When ever we asked her about going somewhere she would print us off papers and help us out. Also do not rent your car with Hertz. This black lady was the rudest person we encountered on our whole trip. They gave us a car with damage and didn't have someone there to take note of the damage. then when we returned the car they had the audacity to...After American Airlines lost my luggage we finally drove about 30 minutes from LAX to the hotel. Our first impressions were horrible and we were scared of the area and underground parking. Its a pretty bad area and sketchy at night. Checking in it was 6am Toronto time and we were so thirsty. The guy at the desk gave us complimentary waters. The hotel was clean inside, no complaints. We finally fell asleep then at 8am I thought my friend was blowdrying her hair, then stopping, then re blowdrying her hair. I was really annoyed. I finally woke up and realized it wasn't her. But the hotel staff decided that 8am was a great time to vacuum the floor.  So we walk downstairs to the free breakfast. It consists of microwaved eggs, microwaved bacon, cereal, a weird pancake machine that sometimes works. They had juice that was pretty good though. Theres no gift shop or restaurant anywhere near by. There was one really nice girl at the front young and spanish maybe. When ever we asked her about going somewhere she would print us off papers and help us out. Also do not rent your car with Hertz. This black lady was the rudest person we encountered on our whole trip. They gave us a car with damage and didn't have someone there to take note of the damage. then when we returned the car they had the audacity to ask us about the damage, good thing I took a picture of it prior to leaving the lot.More</t>
   </si>
   <si>
+    <t>Tom R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r237494391-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1200,6 +1347,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Jamil J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r235452890-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1218,6 +1368,9 @@
     <t>Ignore any negative reviews about location.  This is downtown los angeles and no different than any other large urban city.  The location was amazing.  Minutes from downtown and a easy drive to all area attractions.  Disneyland was a 40 mins drive at 8am and 30 minutes returning.  Parking can be spotty but again,  its downtown los angeles and its included in room fee. Front desk staff was exceptional.  The lady during check in was knowledgeable and made me feel welcomed.  The room was spotless.  I have been to the most expensive hotels and it bothers when i see any hair in the bathroom this room was like it was brand new.  Housekeeping cleaned my room immaculately daily. The breakfast in the morning was amazing.  Yay for passion fruit juice. This location will maintain my business for my next trip to la.  Thank you for a wonderful stayMore</t>
   </si>
   <si>
+    <t>Schmidie2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r232805947-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1239,6 +1392,9 @@
     <t>Beautiful clean room with the most comfortable beds. Location a bit more downtown but we like to be away from the trendy areas.The customer service at this hotel was the best we had experienced throughout our travels of the US. On arrival they could see we were tired after a long day in the car and offered to take us locally to an eatery via their courtesy bus which was great (highly recommend China Town). They also helped book a tour for the following day.Upon our departure we found we had a flat tyre and were a little stressed as we had plans for the day. Reception organised for the courtesy bus driver to take my husband to a motor shop, waited until the tyre had been patched and bought him back to the hotel. All I can say is a HUGE thank you - we will return based on this awesome service.More</t>
   </si>
   <si>
+    <t>ila6968</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r228662223-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1254,6 +1410,9 @@
     <t>We stayed at this hotel for 3 nights. the hotel is nice, new, clean and equipped with all comfort. has a room with computer and free wifi access, free parking, free breakfast and plentiful and also coffee and hot tea was available all day. also present daily newspapers in the area. staff very friendly and qualified. The hotel also has one other thing that is very convenient a shuttle that brings hotel guests free within 4 miles. the only flaw we found is that the hotel is completely decentralized and in the neighborhood somewhat degraded. very inconvenient to get to the walk of fame, hollywood and bevery hills</t>
   </si>
   <si>
+    <t>cmbarry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r228206394-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1269,6 +1428,9 @@
     <t xml:space="preserve">We arrived in town at 9AM and were very surprised that the hotel immediately checked us in. The staff was awesome but I felt the rooms were not equal to the rate. The hotel value was not there. I am totally basing my opinion on other Holiday Inn's where I have stayed. </t>
   </si>
   <si>
+    <t>Paris P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r223968590-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1284,6 +1446,9 @@
     <t>I love to stay at IHG properties for there great customer service. Aida was magnificent  always attentive to my needs, always assisting everyone in a very pleasant manner. The only thing I didn't like was the attitude from apparently the General  Manager. As a Manager myself, you don't tell your employees what you did wrong in front  of customers. That's very unprofessional and disrespectful towards the employee and customers. Overall, I really enjoyed myself.</t>
   </si>
   <si>
+    <t>stephanieOakton_VA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r218363594-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1305,6 +1470,9 @@
     <t>The hotels in the downtown area range from $300-700/night!  Whew!  I'm paying $170/night.  The immediate area isn't one you want to stroll around in, but they offer shuttle service to anywhere in a 4 mile radius....you need to prearrange for the shuttle.  The hotel itself is relatively new and so it feels very comfortable.  There is NO street noise in the room with the windows closed, even though there is a lot of car traffic outside.  Wi-fi is free.  And a really expansive breakfast is included....think sweet rolls, cereals, eggs, ham, sausage, pancakes, waffles, fruit...etc.  Plus parking is free!! The front desk staff could not have been nicer.  Seyed checked us in and was very efficient and thoughtful in welcoming us and getting our paperwork correct. if you want to stay close to downtown LA and don't want to break the bank...this is a great place to stay.  A note to the management - when we stayed you were completely booked.  So you knew every room was going to be used that night.  The AC should have been turned on in every room BEFORE  guests arrive!  It's just basic hospitality.More</t>
   </si>
   <si>
+    <t>RMFOX222</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r218061943-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1332,6 +1500,9 @@
     <t>Room was clean.  Older hotel but kept up.  Breakfast was good as expected at a HI Express Hotel.  However, this is not an area to walk around during the day but especially after dark.  MacArthur Park is across the street from Metro and is full of homeless people.  I would not go out there alone.  We felt out of place since it is a largely Hispanic community and people were not speaking English.  We were not bothered by anyone but were alert to the atmosphere around us at all times.  If you take the Metro, use the rear entrance and that will avoid the area around MacArthur Park.More</t>
   </si>
   <si>
+    <t>Deanna D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r216629212-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1350,6 +1521,9 @@
     <t>This hotel was clean, comfortable and roomy.  Breakfast was super!!  Dennis at the front counter was even better!  Dennis made great suggestions of things to do, places to eat.The only downfall possibly was the location, the area is a bit sketchy.  It is very interesting as there is a large Mexican community around the hotel area, so it feels like you are in Mexico in the evenings.  Around the corner from the hotel is a grocery store and on the way there in the evenings you can see people with blankets laid out on the sidewalk selling clothing, dvds, personal hygiene items as well, cooking tortillas, chicken, selling pop and chips, everyone is out of their apartments and wandering around the street. Very unique atmosphere.  Felt more like you are in Mexico.  We did walk to LA LIve several times, to the Redline and the bus stops, no one bothered us or made us feel uneasy at all.More</t>
   </si>
   <si>
+    <t>mrskp91</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r206639642-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1371,6 +1545,9 @@
     <t>My family and I had such a great experience at this hotel. We tried to check in early but our room was not ready, but Aida at the front desk was awesome and checked out baggage in so we could explore LA. The shuttle service was excellent and Martin gave a recommendation for a restaurant in the area, which was so good we ended up going there twice! Free shuttle service to USC campus for graduation was a definite plus due to the crazy traffic and parking problems. The rooms were very comfortable. I would recommend this hotel to anyone that has to stay in the Downtown LA area. Close proximity to the Staples Center, USC. etc. Great breakfast buffet. Overall a fantastic stay!More</t>
   </si>
   <si>
+    <t>Sunrey40</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r206255899-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1386,6 +1563,9 @@
     <t>As an IHG member, I always choose this hotel for business stay. I had never experience such a magnificent customer service Supervisor Aida was way beyond attentive and helpful. She was able to answer all my questions and not mentioned the upgrade to a beautiful and spacious suite.Now, I know where to stay on my next stay in Los Angeles. The free shuttle was a plus to my trip.</t>
   </si>
   <si>
+    <t>Yu Wei C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r202736386-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1402,6 +1582,9 @@
   </si>
   <si>
     <t>April 2014</t>
+  </si>
+  <si>
+    <t>LondonBusinessAgent</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r196353477-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
@@ -1449,6 +1632,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Herod L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r192905133-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1470,6 +1656,9 @@
     <t>This was my second stay here (first was September 2013) and both times I was ever so blessed to have Juan the shuttle driver picked me up at Union Station after my train ride. Juan sets the standard for the rest of the staff, who are also friendly. The hotel is in not the best neighborhood, at least at night. But I felt plenty safe walking around during the day and I'm on old white guy. The rooms are ok and the hotel is an excellent place to stay if you have business in downtown LA. I'd take the train to LA and call the hotel shuttle to pick you up. Maybe you'll luck out and get Juan as your driver!More</t>
   </si>
   <si>
+    <t>Jessica P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r186794615-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1497,6 +1686,9 @@
     <t>There was an odor in both the hallway and the room.There were no outlets close to the bed, so could not charge my e-reader or phone next to the bed.The door to the bathroom felt tacky like the paint was still wet, there was a hair stuck to the wall and the tub didn't seem very clean.  There was no water pressure in the shower, the tub didn't drain well, and after I was finished taking a shower, there was A LOT of water on the bathroom floor.  Had to use 2 towels to sop it up.  The water also tasted like it came from rusty pipes when I brushed my teeth.  I used bottled water to brush my teeth thereafter.The wifi access was very slow and sometimes just periodically cut out.Housekeeping didn't come to my room until 4pm and since the room didn't feel all that clean to begin with, I just told them not to bother.I would not recommend this hotel.More</t>
   </si>
   <si>
+    <t>ArianaAKS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r186273111-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1516,6 +1708,9 @@
   </si>
   <si>
     <t>I have brittle bones and find it incredible difficult to travel to a new city and find any place I can feel safe, simply because of how vulnerable I am to damage, at all times. However, the staff and manager, Javier, here have gone out of their way to make me feel safe and never made me feel as if I was burdening them when asking for help with something. Even if they couldn't help directly, they will try to find the answer for you. One time, I had to go out and needed a backpack just for the day and couldn't buy a new one as I was late and the manger emptied and lent me his own personal backpack until I returned. I also respect how the hotel always appears to be trying to improve their guest experience and paying attention to detail. One time I stayed and the light on one of the elevator buttons was out. I came back a month or so later and they had this fixed. And they had also added the idea of giving guests a little "goodie bag" (water, pretzels/snacks, toothbrush/toothpaste etc) upon checkin. Little details like this show me the hotel staff really care about quality and the manager clearly takes pride in good work ethic.More</t>
+  </si>
+  <si>
+    <t>BlogGrandVoyageur</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r185171286-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
@@ -1544,6 +1739,9 @@
 Did not have breakfast, but...Booked this location for one night because it was close to the wedding venue I was attending and to gain some points as an IHG Rewards Club member before heading to LAX the next day. Outdoor parking was free unlike true downtown hotels, which slightly compensates for the high price of $190 with tax for a flexible rate. Checkin by Aida was friendly and efficient although it's more like a motel so there was no offer to help with luggage. There were also a few policemen in the lobby maybe responding to a disturbance, but there was nothing that I could notice. As a platinum member I was given a large double queen room with kitchenette and also a small bag with chips and water. I certainly wouldn't recommend the hotel for a special occasion as the room was rather dark, but it was clean and spacious if you have a family. The neighborhood seemed fine during the daytime with lots of people around, but as in any large city I would be more cautious at night especially near the park. I was surprised that the shuttle service was free to any place within a few miles, and not just to Staples Center. The driver was friendly and dropped me off at the wedding venue at the requested time. After the wedding we went downtown so I just took a cab back to the hotel. Did not have breakfast, but it's probably quite basic like any HIX. When I woke up there was an express checkout receipt under the door, so checkout was a breeze. I also gained a lot of points for the stay, which largely compensated for the price difference with some of the other hotels in the area. Overall the hotel is nothing special, but I give it an extra star for the friendly and professional service I experienced. I would only recommend it if you really have to be in this particular area; for tourists other locations would probably be cheaper and closer to the beach, etc. I've stayed in 5 star hotels in Asia for the same price, but that would be an unfair comparison.More</t>
   </si>
   <si>
+    <t>Nik P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r182961261-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1565,6 +1763,9 @@
     <t>The overall stay was ok, but the hotel shuttle service is not up the par.  I chose this hotel because it was close the venue I had attend.  The shuttle service to the venue was superb by Martin, but the shuttle service when we were scheduled to be picked up was terrible.  We had a shuttle pick up scheduled at 5:30pm.  We were not picked up until 6:30pm.  There was not any apology, and the driver Juan stated he came there 3 times which was a bold face lie.  I called the front desk and spoke with Dennis at least 4 times, and he had no sense of urgency.  This issue was a big deal because we were women in an unknown place, and it was nearly dark when we were picked up.  Martin was great, but Juan and Dennis was terrible.More</t>
   </si>
   <si>
+    <t>EnricoNovelli</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r180504979-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1592,6 +1793,9 @@
     <t>I chose this hotel as I needed a suite to share with another family in the downtown area. The room was very large and had two queen beds and a queen sofa bed. Even with the sofa bed open, there was a ton of space left. The kitchenette included a fridge and a microwave oven. On the negative side, there was no door or even a real partition between the area with the queen beds and the adjacent room with the sofa bed so there was no privacy. The continental buffet breakfast was included and definitely a plus. We were told by the cab driver not to walk around the hotel at night for safety reasons, and we did not, although the neighborhood seemed ok by day. The hotel is 30 min from LAX and 45 min from Orange County Airport with no traffic.More</t>
   </si>
   <si>
+    <t>Oh-oh-oh-0h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r179064115-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1625,6 +1829,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Baibella</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r171652435-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1643,6 +1850,9 @@
     <t>We stayed on night on points for the location near he staples center for a concert. As I approached the hotel at 3:00 pm to check in, I was nervous. The area seemed a bit rough and run down. However once inside the hotel the staff was friendly and helpful. They informed us of a free shuttle service to LA LIVE ( staples center) and that was a complete bonus. The room was huge and beautiful. I never left the hotel and my daughter and her friend took the shuttle, and I called in for food, as I wouldn't recommend walking or even driving In the neighborhood if unfamiliar. The shuttle service, manager, housekeeping; everyone we encountered was professional and friendly. The kicker was after I checked out and was home, I realized I had left an antique and sentimental ring in the room. I feared the worst. However, the kind and friendly housekeeping staff that greeted us as we left our room turned in my ring. They locked it in a safe and now are sending it to me!  Not only was the staff everything listed above, they were ethical!  So happy to have honest and trustworthy people working in a hotel. Awesome staff, just awesome!!!More</t>
   </si>
   <si>
+    <t>trixmac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r169426264-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1656,6 +1866,9 @@
   </si>
   <si>
     <t>The hotel was nice but it was located in a place where all the small vendors in the market were. It was scary to walk at night. In fairness, the room was clean. Typical of any holiday inn express hotel. Satisfied but was hoping I could walk to the better part of downtown</t>
+  </si>
+  <si>
+    <t>EL_GQ</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r165269827-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
@@ -1690,6 +1903,9 @@
 Overall the price cannot be beat. It offers a hotel shuttle and it's within a 5 min drive to Staples...Not sure why this hotel has a lot of negative reviews. I work in the hospitality industry and stayed in 5 to 3 stars hotels and I'm fully aware of great service and bad service. Hotel:Room is clean and checked bed board just in case for bed bugs like stated in a previous review. Of course it was spotless and so was all other areas of the room. Beds and pillows and comfy. Room offers a fridge and enough space for two adults. Location:It's located in an area that is highly populated by Latinos and it's a busy area. Yes it's not the glitz &amp; glam but if you have some common sense and consider yourself street smart you will be fine. I walked to the Jack N Da Box at 11pm 1/2 a block away and I was fine. The area offers a lot of Central American restaurants that are very authentic and boy the prices were cheap. Two Thumps Up On This! Also it's 1 block from the Subway for those who want to experience Los Angeles, Hollywood, etc by public transportation. Service:Solid and was asked reason for my visit and was given detailed information about area and the like by the Supervisor Aida and her Front Desk Agent. Was welcomed with a warm greeting. Overall the price cannot be beat. It offers a hotel shuttle and it's within a 5 min drive to Staples Center.More</t>
   </si>
   <si>
+    <t>Fady A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r163677504-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1717,6 +1933,9 @@
     <t>Where do I even begin? I have stayed at holiday Inns before and had a great experience and expecting to have a similar stay, I booked this hotel without doing a little more research and boy was it the worst mistake I have ever made. Not only was it in a very bad area away from anything you would want to come down to LA for, but the staff and the service here is just simply horrible. I checked in and as I usually do in any hotel i stay at, I inspect for bed bugs. I lifted the headboard and saw an infestation of BED BUGS. My coworker had a room as well and when inspecting his room, what do you know, MORE BED BUGS. I was disgusted and didn't want to spend another minute at the hotel. I walked down to the front desk after being at the hotel for no more than 10 minutes and the desk clerk was so rude in a situation where he should have stepped up he was giving me attitude. I asked him to make sure that I would not be billed for a room that I will not be staying in and he said that I would not be charged. A few days later I see a charge on my credit card from the Hotel. When I called to speak to the manager he said that he is not crediting anything...Where do I even begin? I have stayed at holiday Inns before and had a great experience and expecting to have a similar stay, I booked this hotel without doing a little more research and boy was it the worst mistake I have ever made. Not only was it in a very bad area away from anything you would want to come down to LA for, but the staff and the service here is just simply horrible. I checked in and as I usually do in any hotel i stay at, I inspect for bed bugs. I lifted the headboard and saw an infestation of BED BUGS. My coworker had a room as well and when inspecting his room, what do you know, MORE BED BUGS. I was disgusted and didn't want to spend another minute at the hotel. I walked down to the front desk after being at the hotel for no more than 10 minutes and the desk clerk was so rude in a situation where he should have stepped up he was giving me attitude. I asked him to make sure that I would not be billed for a room that I will not be staying in and he said that I would not be charged. A few days later I see a charge on my credit card from the Hotel. When I called to speak to the manager he said that he is not crediting anything back and that there is nothing with the room. Well I have pictures to prove my story. When I mentioned that I was going to write a bad review, he then went on to threaten that he will charge my card again and again and that "HE CAN PLAY DIRTY TOO" Well I don't need him to play dirty because the hotel is dirty enough. All I can say is that if you don't want to go through what I am going through now, DO NOT STAY HEREMore</t>
   </si>
   <si>
+    <t>numberoneson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r162705143-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1741,6 +1960,9 @@
     <t>the above is quite a statement, I may have stayed in over 100 HIsthe noise in the evening was incrediblemanagement did not bother to respond to any complaints about room not being cleanedsurrounding neighborhood was extremely rough, scary areaMore</t>
   </si>
   <si>
+    <t>Tami H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r161338853-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1759,6 +1981,9 @@
     <t>I recently attended a convention at the Los Angeles Convention Center and had a difficult time finding an affordable hotel near the convention location. I widened my search criteria and came across this hotel. As a loyal Holiday Inn Express guest I was willing to overlook the negative comments I'd read on various travel sites about this particular hotel and focus on the positives. I'm glad I did. Everything about my stay, from start to finish, was what I have come to expect from a quality Holiday Inn Express. The front desk staff, particularly Martin and Walter, are the new standard to which I will measure guest service representatives at other hotels. The shuttle staff also did a fantastic job of keeping on track with the schedule and getting myself and other convention guests to the venue in a timely manner (and complimentary to boot). The hotel itself was clean and well-cared for (although a fan in the work-out room would be greatly appreciated I'm sure) and my room was also clean and neat. True, the surrounding area was probably not a great place to go out exploring at night, based on appearances,  but I didn't really have the free time to do so. I would certainly stay at this hotel again if I find myself attending another convention in downtown LA.More</t>
   </si>
   <si>
+    <t>brandon m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r160839876-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1774,6 +1999,9 @@
     <t>Great newly renovated hotel.Great guest rooms w new hardware.Best Front Desk personality I've came across. Martin was super helpful and veryfriendly.Even the GM was exceptional.Not in the best part of town but thats not why I stayed. Took the shuttle to convention center every day.Would not hesitate to stay again.Thanks for the hospitality!</t>
   </si>
   <si>
+    <t>AkosiMichica</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r160799132-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1786,6 +2014,9 @@
     <t>The hotel s clean, room is good enough for our family just the bathroom s a bit small but good enough, staff is friendly, they even offered us a shuttle going to the concert venue, breakfast is good. The street is a little bit crowded but has given me the chance to see Jason Statham he's gorgeous!Overall I'm extremely satisfied would definitely go back to this hotel!</t>
   </si>
   <si>
+    <t>Miata P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r156544108-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1804,6 +2035,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Mic C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r156441807-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1831,6 +2065,9 @@
     <t>Overall, good service which includes a shuttle to nearby locations.  There's only one shuttle so in case you've got limited time, then you're much better off renting a car. Parking is free.Room is good, clean, comfortable.More</t>
   </si>
   <si>
+    <t>aghyba</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r152706541-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1858,6 +2095,9 @@
     <t>I did not stay there on my January 2013 trip to Hollywood because of the not so good, scary area part of town, hence I stayed in Hitlon Pasadena, CA, much better. I was able to look at the room and not up to a HIE standards. I askd the manager if it was safe to go out at night and she kindly said "As in other big cities use your judgement late at night." We were planning to stay late a couple of nights so we decided not to stay there. Frankly I would not recommend this hotel.More</t>
   </si>
   <si>
+    <t>garard c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r141543475-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1874,6 +2114,9 @@
   </si>
   <si>
     <t>September 2012</t>
+  </si>
+  <si>
+    <t>rocsmom0304</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r136412662-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
@@ -1901,6 +2144,9 @@
 Breakfast was fine, no major complaints.  Aside from hard, cold hard-boiled eggs, but perhaps that's me being picky.  There were eggs, sausage patties, yogurt, fresh...This property is newly remodeled and because of that, it's new, clean and very well decorated.  The outside of the property is freshly painted in Holiday Inn colors and almost looks out of place considering the neighborhood and other buildings around it.  It is in a very dirty part of town, let's just say that, with many people on the streets, walking, selling, hanging out, talking . . . we were concerned about the safety of our vehicle, but everything was fine. I wish there was a secured lot with a gate or something, but that's not the case here.  Parking is free which is nice!  The room is clean and everything worked fine.  We all got a good night's sleep, which was our goal, once the sirens stopped at about 11 PM.  We were at Dodger Stadium (which is a 10 min drive) until 9:30 PM, but heard 3 or 4 sirens go by in that hour and a half that we were in our room before going to sleep.  Do not expect to swim here, the pool is VERY SMALL -- we thought it was the hot tub!!  No more than 5 people will fit comfortably and don't even think about doing any playing or swimming, it's just enough to wet your feet.  Breakfast was fine, no major complaints.  Aside from hard, cold hard-boiled eggs, but perhaps that's me being picky.  There were eggs, sausage patties, yogurt, fresh bananas and oranges, and several toast, muffin and bagel offerings.  Typical Holiday Inn type of breakfast. It's the nicest option in the area -- if you need / want to stay in the area.  Just know, you won't be walking to and from dinner, the store, etc.More</t>
   </si>
   <si>
+    <t>Yijia L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r135745678-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1928,6 +2174,9 @@
     <t>in general this place is ok as the price is quite reasonable based on the location. however this is the first time I travelled to LA and I immediately got bug bite in this motel. the bed sheet wasn't very clean and the closet feels smelly as well. unforturenately we left all clothes we bought in outlet in the closet and we found bugs when we tried on them back home. we spent whole weekend and try all we can to kill the bugs. we wrote the Intercontinental group to raise this issue but the hotel insist their rooms are very clean after a "bug inspection" by outside company. anyway, just a friendly remind to those who are going to stay in this place, be careful!More</t>
   </si>
   <si>
+    <t>WPN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r135099505-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1946,6 +2195,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>davidbuland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r135037231-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1958,6 +2210,9 @@
     <t>If you need to get a passport quick, or other business at the Federal building, this hotel is a good fit.  Good breakfast.</t>
   </si>
   <si>
+    <t>Mike T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r134064956-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1976,6 +2231,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>deadgrassdog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r130977474-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1991,6 +2249,9 @@
     <t>The Hotel was great... I booked 3 rooms for some employees doing work in the area.  The rooms were nice and clean great hotel but the surroundings are pretty scary.  There was a shooting near the hotel and my employees called and requested that I change hotels for them.</t>
   </si>
   <si>
+    <t>carissae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r123390162-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2010,6 +2271,9 @@
   </si>
   <si>
     <t>The hotel is very well maintained and have a large free of charge parking!  That is a treat when you are in Los Angeles!  We had good hot breakfast! A pity as a priority club member, I did not receive any recognition for my 3 nights stay! We did not experience any fire sirens until the last day but the walls are thin, so we could hear the alarm clock ringing from next door or someone taken ill, coughing her heart out! The red line station is just 5 minutes away, so convenient to walk to but the neighborhood feels sleazy so I was uncomfortable walking out when it turns dark.  I prefer to drive then.More</t>
+  </si>
+  <si>
+    <t>Vejete_1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r123046258-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
@@ -2034,6 +2298,9 @@
 The desk area is adequately sized with a nice lamp and two electrical outlets.  Be prepared to use something as a mouse pad, because optical mice do not like the faux granite...Check-in and parking are accessed from Westlake, the street where the hotel is addressed.  My check-in experience was smooth and efficient.  Door access to the room uses a proximity reader rather than having to rely upon a magnetic strip being swiped in a traditional card reader.  Just hold the plain white card near the black circle above the door handle, and voila!This is a former Ramada Limited, so the WiFi SSID is "ramada" even though the instructions say to select "Holiday Inn Express on Wi-Fi".  Though I wasn't given the internet access code at check-in, a quick call to the front desk is all that was required.  As for speed, I was able to squeeze 2.1 Mbps down and 0.37 Mbps up using speedtest.net.  Not exactly stellar rates, but it seemed marginally useful.  Your authentication with the hotel's proxy seems to be reset at random times.  You'll be working along, and everything just stops.  Upon opening a new web page, you're redirected to the hotel's proxy authentication.  It really became quite irritating.  Ultimately, I had to switch to my Verizon cellular modem because even with authentication, the hotel's network kept losing connectivity with the internet.  This is a major failure on the part of a "hospitality" company.The desk area is adequately sized with a nice lamp and two electrical outlets.  Be prepared to use something as a mouse pad, because optical mice do not like the faux granite finish on the desktop.An exceptionally noisy exhaust fan is on the same switch with the bathroom light -- a major sore point with me, which you'll know if you've read any of my other reviews.  Hospitality folks, please, it's not rocket science: Separate switches for the bathroom light and fan.Judging from the bullet-proof glass I found across the counter at a nearby Jack-in-the-Box, this isn't the greatest part of town.  My experience walking to and from the Westlake / MacArthur Park subway station confirmed this suspicion.  Making my way through the trash, filth, disrepair, homeless, and hucksters, I felt lucky to make the short walk four days in a row without being mugged.  Do not go out at night unless you are driving your locked car to a better part of Los Angeles (if such a place exists).Wednesday, I returned to my room at 4:10 PM to find that it had yet to be cleaned.  Perhaps this is normal, but the hotel isn't exactly overrun with guests.  I would have thought the occupied rooms could have been cleaned well before that time.Dominos Pizza delivers to this hotel.  So does Tg Original Express if you like Thai or Chinese.  I would not recommend going out at night on foot.  I would scarcely recommend going out during the day on foot!  Your personal safety will definitely be in peril.  This is a nice, freshly-renovated HIE property, but the surrounding neighborhood is utterly awful.  I'm sad to say that means I will be staying elsewhere if I return to Los Angeles.  And that's a shame because all of the people who work at this property are terrifically warm, friendly, and helpful.  The people should get five stars, the property four, and the area less than ZERO.  So it averages out to three which is my rating.More</t>
   </si>
   <si>
+    <t>jaelindsey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r84703676-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2055,6 +2322,9 @@
     <t>For downtown Los Angeles, this was an okay hotel in accordance with the cost.  The check-in service was great.  When we acquired about local sites, the representative was able to give us menus and printed a map from the computer that gave us directions to a specific address--she really went out of the way.  At the check-in, there were free granola bars, hard candies, coffee, and apples.  Parking was free and I felt safe where we parked.  As to cleanliness, there was nothing noted out of the ordinary; seemed clean.  Room/bathroom had typical amenities.  With the AAA discount, price was good, especially to be only about 7 minutes away from Staples Center, Nokia, etc.  Sleep quality was satisfactory.  The rating of the location depends on the type of person you are.  I respect all cultures and am not afraid to mingle with people so I felt comfortable walking to the nearby Yoshinoya and Jack in the Box.  With that being said, you will see graffiti and there are street vendors selling items on the street near (but not in front of) the hotel.  There is a continental breakfast that I can't complain about due to the cost of the hotel.  The breakfast consisted of cereal (4 to choose from), fruit cocktail, waffles, toast, boiled eggs, juice, coffee, apples, cup of noodles....I believe that's all.  So.....nice hotel for quality and value.  You get what you pay for.More</t>
   </si>
   <si>
+    <t>ianjoel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r54886220-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2076,6 +2346,9 @@
     <t>I just stayed at this hotel with a couple of friends through booking from Priceline.  When we checked in, the lady was kind and we headed to our room. The following morning, my friend goes down for continental breakfast and mentions about the two of us in which Jorge (horrible customer service clerk) states that because there are 3 people we have to be charged an ADDITIONAL 10 bulks. I was so furious that because the lady didnt tell us in the beginning we felt that it was on the hotel's mistake not us. Unfortunately, because Jorge would not provide us with a supervisor on the premise and would not honor the request, we  are going to have to complain the following day to reach the supervisor on Monday. It's very unfortunate that this hotel could have handled it with more professionalism. And it is very unfortunate that we will not be coming here EVER. If you want quality service, don't go here!More</t>
   </si>
   <si>
+    <t>teedy9380</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r40047516-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2097,6 +2370,9 @@
     <t>Our stay at this hotel was a horrible experience from beginning to end. When we arrived at check-in, the desk associate by the name of Monica made check-in the most difficult of situations. We had a pre-paid reservation in hand, which stated we had requested a non-smoking room. Monica informed us that we were in the computer for a smoking room and that she could not do anything to change it. She then handed us the keys to this smoking room. When we arrived at the room, the room had not yet been cleaned (beds un-made,trash in waste baskets). This was very upsetting, check in for this hotel is 2pm, we arrived at the hotel @4:15pm. I then went back down stairs only to have her inform us that we had to wait 20-30 minutes for the room to be cleaned. My husband and I waited in the lobby for almost 10 minutes, the I began to question her because the hotel looked as though it was empty. I asked why we just couldn't have another room. She responded that it was because I was rude to her. She then checked the computer, and gave us another room. When we arrived at room #2 this room was un-cleaned as well. When I got down to the desk and explained to her, her excuse was that the cleaning woman was late that day, no apology. The then gave me a 3rd...Our stay at this hotel was a horrible experience from beginning to end. When we arrived at check-in, the desk associate by the name of Monica made check-in the most difficult of situations. We had a pre-paid reservation in hand, which stated we had requested a non-smoking room. Monica informed us that we were in the computer for a smoking room and that she could not do anything to change it. She then handed us the keys to this smoking room. When we arrived at the room, the room had not yet been cleaned (beds un-made,trash in waste baskets). This was very upsetting, check in for this hotel is 2pm, we arrived at the hotel @4:15pm. I then went back down stairs only to have her inform us that we had to wait 20-30 minutes for the room to be cleaned. My husband and I waited in the lobby for almost 10 minutes, the I began to question her because the hotel looked as though it was empty. I asked why we just couldn't have another room. She responded that it was because I was rude to her. She then checked the computer, and gave us another room. When we arrived at room #2 this room was un-cleaned as well. When I got down to the desk and explained to her, her excuse was that the cleaning woman was late that day, no apology. The then gave me a 3rd room key for the room that we ultimately stayed in. After a long flight you can imagine this was very fustrating. Especially since I was informed that the manager was not present and would not available until Monday 8/31.If that wasn't enough, the next incident occured the very next evening. Monica was on duty. The iron in our room took 10 minutes to heat and when it did, water was draining from the bottom of the iron onto our clothing. I called down to the desk and asked Monica for an iron. She told me no problem and that she would take care of it. I waited for 20 minutes with no response, so finally I went down to the lobby. I asked her what the status was on our iron and she stated that unfortunately she was the only one there and that she could probably get me an iron in the morning. I asked her why she didn't tell me that over the phone and why she had me under the impression that we would soon be recieving an iron. We needed the iron because we were on our way out to celebrate by husband's birthday and could not wait until morning. She then called the security guard to assist by getting another iron from one of the other rooms. This gentleman was extremely helpful and pleasant.The next morning I went down and informed the desk manager of all that had occurred. She wrote down the information that I had given her and told me that she would get Monica's side and she would get back with me. She was apologetic at that point in time, but that changed. We left the hotel overnight, but returned on the evening of 9/1. When we checked out the next morning, I had asked the desk associate for a reciept or a copy of the credit card inprint that they took at the time of checkin for my records. She informed me that there was no reciept because we had a pre-paid reservation. I again asked for the desk manager. She can out and she told the associate that it was okay to give a copy of the inprint. She also gave me an update of the situation with Monica. This time she was not apologetic and stated that the only reason why I was inconvienced was because there was an error in the computer as far as the rooms being noted as cleaned. That was the only thing that she addressed. My husband and I have stayed at numerous hotels over the years. We have never had such a horrible experience and been treated so badly at any of the hotels we've ever stayed in. I have never wrote hotel review or commented on my stay after a hotel stay, but this situation was totally necessary.More</t>
   </si>
   <si>
+    <t>Smith10Canada</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r34504933-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2115,6 +2391,9 @@
     <t>July 2009</t>
   </si>
   <si>
+    <t>i_zeman_8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r18628150-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2133,6 +2412,9 @@
     <t>July 2008</t>
   </si>
   <si>
+    <t>VV1London</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r11946451-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2151,6 +2433,9 @@
     <t>December 2007</t>
   </si>
   <si>
+    <t>ultramar23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r7191332-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2170,6 +2455,9 @@
   </si>
   <si>
     <t>I booked my reservation for the Ramada Limited - S. Westlake on triprewards.com.  It was a choice between that hotel and the Ramada Wilshire Center.  Unfortunately, after seeing the 2 hotels in person it was pretty much a catch 22.   Neither one is worth the price of stay but the S. Westlake location is completely horrible.  As we drove up Westlake to the hotel, there were a few police cars directly in front of us that ended up blocking the entrance to the hotel.  A bunch of cops then proceeded to run into the hotel to do God knows what.  Needless to say, we did not stay and had to argue with the staff to get our reservation cancelled without get charged for it.  I then called the next day to make sure that the reservation was cancelled without charge and had to argue with the manager because "regardless of what is happening on the street, we require 48 hours notice for cancellation without charging you."  Now, what kind of establishment, let alone a chain like Ramada, would treat their customers like that?  Whatever you do, please heed my advice and do not stay at this hotel OR the location down the street on Wilshire Blvd. in Koreatown.  They are completely run down, despite the pictures you may see online.   You are much better off staying somewhere else.More</t>
+  </si>
+  <si>
+    <t>gm_traveler_13</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84286-r1754585-Holiday_Inn_Express_Los_Angeles_Downtown_West-Los_Angeles_California.html</t>
@@ -2689,43 +2977,47 @@
       <c r="A2" t="n">
         <v>34321</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>15601</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2739,50 +3031,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>34321</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>1364</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2802,50 +3098,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>34321</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>192311</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -2863,56 +3163,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>34321</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>192312</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2926,50 +3230,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>34321</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>192313</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2981,56 +3289,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>34321</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>47614</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3042,56 +3354,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>34321</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>192314</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3107,56 +3423,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>34321</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>23115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>108</v>
       </c>
-      <c r="L9" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>101</v>
-      </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3174,50 +3494,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>34321</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>69626</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3231,50 +3555,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>34321</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>4598</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3288,50 +3616,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>34321</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>192315</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3345,50 +3677,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>34321</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>192316</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3408,50 +3744,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>34321</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>192317</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3465,50 +3805,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>34321</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>4399</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3526,56 +3870,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>34321</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>28420</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3587,56 +3935,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="X16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>34321</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>192318</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3654,50 +4006,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>34321</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>192319</v>
+      </c>
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -3715,56 +4071,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="X18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>34321</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>192320</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3782,50 +4142,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>34321</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>192321</v>
+      </c>
+      <c r="C20" t="s">
+        <v>199</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3843,47 +4207,51 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="X20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>34321</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>192322</v>
+      </c>
+      <c r="C21" t="s">
+        <v>209</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
@@ -3902,50 +4270,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>34321</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>192323</v>
+      </c>
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3965,50 +4337,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>34321</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>192324</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4022,50 +4398,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>34321</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>47890</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4079,50 +4459,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>34321</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>192325</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4134,56 +4518,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="X25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="Y25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>34321</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>298</v>
+      </c>
+      <c r="C26" t="s">
+        <v>245</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4203,50 +4591,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>34321</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>11027</v>
+      </c>
+      <c r="C27" t="s">
+        <v>251</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="J27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4264,50 +4656,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>34321</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>27885</v>
+      </c>
+      <c r="C28" t="s">
+        <v>258</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="J28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4325,56 +4721,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="X28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="Y28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>34321</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>24699</v>
+      </c>
+      <c r="C29" t="s">
+        <v>268</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4392,50 +4792,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>34321</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>192326</v>
+      </c>
+      <c r="C30" t="s">
+        <v>275</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="J30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4455,50 +4859,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>34321</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>43512</v>
+      </c>
+      <c r="C31" t="s">
+        <v>282</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -4516,56 +4924,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="X31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Y31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>34321</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>192327</v>
+      </c>
+      <c r="C32" t="s">
+        <v>292</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="K32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="O32" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4577,56 +4989,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="X32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="Y32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>34321</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>192328</v>
+      </c>
+      <c r="C33" t="s">
+        <v>302</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="J33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="K33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4646,50 +5062,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>34321</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>26588</v>
+      </c>
+      <c r="C34" t="s">
+        <v>309</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="J34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="K34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="O34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4707,47 +5127,51 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="X34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="Y34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>34321</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>192329</v>
+      </c>
+      <c r="C35" t="s">
+        <v>318</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="J35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="K35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -4766,50 +5190,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>34321</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>24696</v>
+      </c>
+      <c r="C36" t="s">
+        <v>324</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="O36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4827,50 +5255,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>34321</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>192330</v>
+      </c>
+      <c r="C37" t="s">
+        <v>331</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="J37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="O37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4884,50 +5316,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>34321</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>81729</v>
+      </c>
+      <c r="C38" t="s">
+        <v>338</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="J38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="K38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4947,50 +5383,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>34321</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>192331</v>
+      </c>
+      <c r="C39" t="s">
+        <v>345</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="J39" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="K39" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="L39" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="O39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5004,50 +5444,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>34321</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>192332</v>
+      </c>
+      <c r="C40" t="s">
+        <v>351</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="J40" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="K40" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5061,50 +5505,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>34321</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>192333</v>
+      </c>
+      <c r="C41" t="s">
+        <v>357</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="J41" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="O41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -5122,56 +5570,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="X41" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="Y41" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>34321</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>16687</v>
+      </c>
+      <c r="C42" t="s">
+        <v>367</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="J42" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="K42" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="O42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5185,50 +5637,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>34321</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>192334</v>
+      </c>
+      <c r="C43" t="s">
+        <v>373</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="J43" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="K43" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="L43" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="O43" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5248,50 +5704,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>34321</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>192335</v>
+      </c>
+      <c r="C44" t="s">
+        <v>379</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="J44" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="K44" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="L44" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="O44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5303,56 +5763,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="X44" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="Y44" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>34321</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>19441</v>
+      </c>
+      <c r="C45" t="s">
+        <v>388</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="J45" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="K45" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="L45" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="O45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5364,56 +5828,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="X45" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="Y45" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>34321</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>192336</v>
+      </c>
+      <c r="C46" t="s">
+        <v>397</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="J46" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="K46" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="L46" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5427,50 +5895,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>34321</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>192337</v>
+      </c>
+      <c r="C47" t="s">
+        <v>404</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="J47" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="K47" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="L47" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="O47" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5484,50 +5956,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>34321</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>192338</v>
+      </c>
+      <c r="C48" t="s">
+        <v>411</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="J48" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="K48" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5545,50 +6021,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>34321</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>192339</v>
+      </c>
+      <c r="C49" t="s">
+        <v>419</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="J49" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="K49" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="L49" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="O49" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5604,56 +6084,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="X49" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="Y49" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>34321</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>4843</v>
+      </c>
+      <c r="C50" t="s">
+        <v>429</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="J50" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="K50" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="L50" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="O50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5673,50 +6157,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>34321</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>192340</v>
+      </c>
+      <c r="C51" t="s">
+        <v>435</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="J51" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="K51" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="L51" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="O51" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5730,50 +6218,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>34321</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>192341</v>
+      </c>
+      <c r="C52" t="s">
+        <v>442</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="J52" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="K52" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="L52" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="O52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5791,50 +6283,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>34321</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>192342</v>
+      </c>
+      <c r="C53" t="s">
+        <v>450</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="J53" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="K53" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="L53" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="O53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5854,41 +6350,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>34321</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>192343</v>
+      </c>
+      <c r="C54" t="s">
+        <v>456</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="J54" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="K54" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="L54" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
@@ -5917,50 +6417,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>34321</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>192344</v>
+      </c>
+      <c r="C55" t="s">
+        <v>462</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="J55" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="K55" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="L55" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="O55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -5980,50 +6484,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>34321</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>192345</v>
+      </c>
+      <c r="C56" t="s">
+        <v>468</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="J56" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="K56" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="L56" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6043,50 +6551,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>34321</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>192346</v>
+      </c>
+      <c r="C57" t="s">
+        <v>476</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="J57" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="K57" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="L57" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -6104,56 +6616,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="X57" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="Y57" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>34321</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>68540</v>
+      </c>
+      <c r="C58" t="s">
+        <v>486</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="J58" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="K58" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="L58" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="O58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6173,50 +6689,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>34321</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>192347</v>
+      </c>
+      <c r="C59" t="s">
+        <v>493</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>436</v>
+        <v>494</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
       <c r="J59" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="K59" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="L59" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="O59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6240,50 +6760,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>34321</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>192348</v>
+      </c>
+      <c r="C60" t="s">
+        <v>501</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="J60" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="K60" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="L60" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="O60" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6307,50 +6831,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>34321</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>192349</v>
+      </c>
+      <c r="C61" t="s">
+        <v>507</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>449</v>
+        <v>509</v>
       </c>
       <c r="J61" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="K61" t="s">
-        <v>451</v>
+        <v>511</v>
       </c>
       <c r="L61" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6374,50 +6902,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>34321</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>192350</v>
+      </c>
+      <c r="C62" t="s">
+        <v>514</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>454</v>
+        <v>515</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="J62" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="K62" t="s">
-        <v>457</v>
+        <v>518</v>
       </c>
       <c r="L62" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="O62" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6441,50 +6973,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>34321</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>192343</v>
+      </c>
+      <c r="C63" t="s">
+        <v>462</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="J63" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="K63" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="L63" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="O63" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6508,50 +7044,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>34321</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>192351</v>
+      </c>
+      <c r="C64" t="s">
+        <v>528</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>468</v>
+        <v>530</v>
       </c>
       <c r="J64" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="K64" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="L64" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>472</v>
+        <v>534</v>
       </c>
       <c r="O64" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6565,50 +7105,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>34321</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>935</v>
+      </c>
+      <c r="C65" t="s">
+        <v>536</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>474</v>
+        <v>537</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
       <c r="J65" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
       <c r="K65" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="L65" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="O65" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P65" t="n">
         <v>2</v>
@@ -6630,56 +7174,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="X65" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="Y65" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>34321</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>192352</v>
+      </c>
+      <c r="C66" t="s">
+        <v>546</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="J66" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="K66" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="L66" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="O66" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6703,50 +7251,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>34321</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>192353</v>
+      </c>
+      <c r="C67" t="s">
+        <v>554</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>491</v>
+        <v>556</v>
       </c>
       <c r="J67" t="s">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="K67" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
       <c r="L67" t="s">
-        <v>494</v>
+        <v>559</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="O67" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6770,50 +7322,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>495</v>
+        <v>560</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>34321</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>192354</v>
+      </c>
+      <c r="C68" t="s">
+        <v>561</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="J68" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="K68" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="L68" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="O68" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6837,50 +7393,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>34321</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>192355</v>
+      </c>
+      <c r="C69" t="s">
+        <v>569</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>503</v>
+        <v>570</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>504</v>
+        <v>571</v>
       </c>
       <c r="J69" t="s">
-        <v>505</v>
+        <v>572</v>
       </c>
       <c r="K69" t="s">
-        <v>506</v>
+        <v>573</v>
       </c>
       <c r="L69" t="s">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
       <c r="O69" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="n">
@@ -6900,56 +7460,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>509</v>
+        <v>576</v>
       </c>
       <c r="X69" t="s">
-        <v>510</v>
+        <v>577</v>
       </c>
       <c r="Y69" t="s">
-        <v>511</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>34321</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>121056</v>
+      </c>
+      <c r="C70" t="s">
+        <v>579</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>513</v>
+        <v>581</v>
       </c>
       <c r="J70" t="s">
-        <v>514</v>
+        <v>582</v>
       </c>
       <c r="K70" t="s">
-        <v>515</v>
+        <v>583</v>
       </c>
       <c r="L70" t="s">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
       <c r="O70" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6973,50 +7537,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>516</v>
+        <v>584</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>34321</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>192343</v>
+      </c>
+      <c r="C71" t="s">
+        <v>462</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>517</v>
+        <v>585</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>518</v>
+        <v>586</v>
       </c>
       <c r="J71" t="s">
-        <v>519</v>
+        <v>587</v>
       </c>
       <c r="K71" t="s">
-        <v>520</v>
+        <v>588</v>
       </c>
       <c r="L71" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>522</v>
+        <v>590</v>
       </c>
       <c r="O71" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7040,41 +7608,45 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>34321</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>192356</v>
+      </c>
+      <c r="C72" t="s">
+        <v>591</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>523</v>
+        <v>592</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="J72" t="s">
-        <v>525</v>
+        <v>594</v>
       </c>
       <c r="K72" t="s">
-        <v>526</v>
+        <v>595</v>
       </c>
       <c r="L72" t="s">
-        <v>527</v>
+        <v>596</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
@@ -7103,41 +7675,45 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>34321</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>192357</v>
+      </c>
+      <c r="C73" t="s">
+        <v>598</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>529</v>
+        <v>599</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="J73" t="s">
-        <v>531</v>
+        <v>601</v>
       </c>
       <c r="K73" t="s">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="L73" t="s">
-        <v>533</v>
+        <v>603</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
@@ -7166,50 +7742,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>533</v>
+        <v>603</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>34321</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>192358</v>
+      </c>
+      <c r="C74" t="s">
+        <v>604</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>534</v>
+        <v>605</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="J74" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="K74" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="L74" t="s">
-        <v>538</v>
+        <v>609</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="O74" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7233,50 +7813,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>539</v>
+        <v>610</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>34321</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>192359</v>
+      </c>
+      <c r="C75" t="s">
+        <v>611</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="J75" t="s">
-        <v>542</v>
+        <v>614</v>
       </c>
       <c r="K75" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="L75" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="O75" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -7298,56 +7882,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="X75" t="s">
-        <v>547</v>
+        <v>619</v>
       </c>
       <c r="Y75" t="s">
-        <v>548</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>34321</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>192360</v>
+      </c>
+      <c r="C76" t="s">
+        <v>621</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>549</v>
+        <v>622</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
       <c r="J76" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="K76" t="s">
-        <v>552</v>
+        <v>625</v>
       </c>
       <c r="L76" t="s">
-        <v>553</v>
+        <v>626</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>1</v>
@@ -7369,56 +7957,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>554</v>
+        <v>627</v>
       </c>
       <c r="X76" t="s">
-        <v>555</v>
+        <v>628</v>
       </c>
       <c r="Y76" t="s">
-        <v>556</v>
+        <v>629</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>34321</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>15472</v>
+      </c>
+      <c r="C77" t="s">
+        <v>630</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>557</v>
+        <v>631</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
       <c r="J77" t="s">
-        <v>559</v>
+        <v>633</v>
       </c>
       <c r="K77" t="s">
-        <v>560</v>
+        <v>634</v>
       </c>
       <c r="L77" t="s">
-        <v>561</v>
+        <v>635</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="O77" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7442,50 +8034,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>562</v>
+        <v>636</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>34321</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>192361</v>
+      </c>
+      <c r="C78" t="s">
+        <v>637</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>563</v>
+        <v>638</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>564</v>
+        <v>639</v>
       </c>
       <c r="J78" t="s">
-        <v>565</v>
+        <v>640</v>
       </c>
       <c r="K78" t="s">
-        <v>566</v>
+        <v>641</v>
       </c>
       <c r="L78" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="O78" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7509,50 +8105,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>34321</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>192362</v>
+      </c>
+      <c r="C79" t="s">
+        <v>643</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>568</v>
+        <v>644</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>569</v>
+        <v>645</v>
       </c>
       <c r="J79" t="s">
-        <v>565</v>
+        <v>640</v>
       </c>
       <c r="K79" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
       <c r="L79" t="s">
-        <v>571</v>
+        <v>647</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="O79" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7576,50 +8176,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>571</v>
+        <v>647</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>34321</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>192363</v>
+      </c>
+      <c r="C80" t="s">
+        <v>648</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>572</v>
+        <v>649</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="J80" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
       <c r="K80" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="L80" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>577</v>
+        <v>654</v>
       </c>
       <c r="O80" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7643,50 +8247,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>34321</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>192364</v>
+      </c>
+      <c r="C81" t="s">
+        <v>655</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>578</v>
+        <v>656</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>579</v>
+        <v>657</v>
       </c>
       <c r="J81" t="s">
-        <v>580</v>
+        <v>658</v>
       </c>
       <c r="K81" t="s">
-        <v>581</v>
+        <v>659</v>
       </c>
       <c r="L81" t="s">
-        <v>582</v>
+        <v>660</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>583</v>
+        <v>661</v>
       </c>
       <c r="O81" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7708,56 +8316,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>584</v>
+        <v>662</v>
       </c>
       <c r="X81" t="s">
-        <v>585</v>
+        <v>663</v>
       </c>
       <c r="Y81" t="s">
-        <v>586</v>
+        <v>664</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>34321</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>119199</v>
+      </c>
+      <c r="C82" t="s">
+        <v>665</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>587</v>
+        <v>666</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>588</v>
+        <v>667</v>
       </c>
       <c r="J82" t="s">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="K82" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="L82" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="O82" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P82" t="n">
         <v>2</v>
@@ -7779,56 +8391,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="X82" t="s">
-        <v>594</v>
+        <v>673</v>
       </c>
       <c r="Y82" t="s">
-        <v>595</v>
+        <v>674</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>34321</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>192365</v>
+      </c>
+      <c r="C83" t="s">
+        <v>675</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>596</v>
+        <v>676</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="J83" t="s">
-        <v>598</v>
+        <v>678</v>
       </c>
       <c r="K83" t="s">
-        <v>599</v>
+        <v>679</v>
       </c>
       <c r="L83" t="s">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>601</v>
+        <v>681</v>
       </c>
       <c r="O83" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7852,50 +8468,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>600</v>
+        <v>680</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>34321</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>192366</v>
+      </c>
+      <c r="C84" t="s">
+        <v>682</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>602</v>
+        <v>683</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="J84" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="K84" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="L84" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="O84" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7919,50 +8539,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>34321</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>192367</v>
+      </c>
+      <c r="C85" t="s">
+        <v>690</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>609</v>
+        <v>691</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>610</v>
+        <v>692</v>
       </c>
       <c r="J85" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="K85" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
       <c r="L85" t="s">
-        <v>613</v>
+        <v>695</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>614</v>
+        <v>696</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -7984,56 +8608,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>615</v>
+        <v>697</v>
       </c>
       <c r="X85" t="s">
-        <v>616</v>
+        <v>698</v>
       </c>
       <c r="Y85" t="s">
-        <v>617</v>
+        <v>699</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>34321</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>192368</v>
+      </c>
+      <c r="C86" t="s">
+        <v>700</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>618</v>
+        <v>701</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>619</v>
+        <v>702</v>
       </c>
       <c r="J86" t="s">
-        <v>620</v>
+        <v>703</v>
       </c>
       <c r="K86" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
       <c r="L86" t="s">
-        <v>622</v>
+        <v>705</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>623</v>
+        <v>706</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8057,41 +8685,45 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>622</v>
+        <v>705</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>34321</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>192369</v>
+      </c>
+      <c r="C87" t="s">
+        <v>707</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>624</v>
+        <v>708</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="J87" t="s">
-        <v>620</v>
+        <v>703</v>
       </c>
       <c r="K87" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="L87" t="s">
-        <v>627</v>
+        <v>711</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
@@ -8120,50 +8752,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>627</v>
+        <v>711</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>34321</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>31778</v>
+      </c>
+      <c r="C88" t="s">
+        <v>712</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>628</v>
+        <v>713</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>629</v>
+        <v>714</v>
       </c>
       <c r="J88" t="s">
-        <v>630</v>
+        <v>715</v>
       </c>
       <c r="K88" t="s">
-        <v>631</v>
+        <v>716</v>
       </c>
       <c r="L88" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="O88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8187,50 +8823,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>34321</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>192370</v>
+      </c>
+      <c r="C89" t="s">
+        <v>719</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>634</v>
+        <v>720</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>635</v>
+        <v>721</v>
       </c>
       <c r="J89" t="s">
-        <v>636</v>
+        <v>722</v>
       </c>
       <c r="K89" t="s">
-        <v>637</v>
+        <v>723</v>
       </c>
       <c r="L89" t="s">
-        <v>638</v>
+        <v>724</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>614</v>
+        <v>696</v>
       </c>
       <c r="O89" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8254,50 +8894,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>638</v>
+        <v>724</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>34321</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>192371</v>
+      </c>
+      <c r="C90" t="s">
+        <v>725</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>639</v>
+        <v>726</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>640</v>
+        <v>727</v>
       </c>
       <c r="J90" t="s">
-        <v>641</v>
+        <v>728</v>
       </c>
       <c r="K90" t="s">
-        <v>642</v>
+        <v>729</v>
       </c>
       <c r="L90" t="s">
-        <v>643</v>
+        <v>730</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>644</v>
+        <v>731</v>
       </c>
       <c r="O90" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8321,50 +8965,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>645</v>
+        <v>732</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>34321</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>192372</v>
+      </c>
+      <c r="C91" t="s">
+        <v>733</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>646</v>
+        <v>734</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>647</v>
+        <v>735</v>
       </c>
       <c r="J91" t="s">
-        <v>648</v>
+        <v>736</v>
       </c>
       <c r="K91" t="s">
-        <v>649</v>
+        <v>737</v>
       </c>
       <c r="L91" t="s">
-        <v>650</v>
+        <v>738</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>644</v>
+        <v>731</v>
       </c>
       <c r="O91" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8388,50 +9036,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>651</v>
+        <v>739</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>34321</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>192373</v>
+      </c>
+      <c r="C92" t="s">
+        <v>740</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>652</v>
+        <v>741</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>653</v>
+        <v>742</v>
       </c>
       <c r="J92" t="s">
-        <v>654</v>
+        <v>743</v>
       </c>
       <c r="K92" t="s">
-        <v>655</v>
+        <v>744</v>
       </c>
       <c r="L92" t="s">
-        <v>656</v>
+        <v>745</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>657</v>
+        <v>746</v>
       </c>
       <c r="O92" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8455,50 +9107,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>658</v>
+        <v>747</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>34321</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>192374</v>
+      </c>
+      <c r="C93" t="s">
+        <v>748</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>660</v>
+        <v>750</v>
       </c>
       <c r="J93" t="s">
-        <v>661</v>
+        <v>751</v>
       </c>
       <c r="K93" t="s">
-        <v>662</v>
+        <v>752</v>
       </c>
       <c r="L93" t="s">
-        <v>663</v>
+        <v>753</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>664</v>
+        <v>754</v>
       </c>
       <c r="O93" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P93" t="n">
         <v>2</v>
@@ -8522,50 +9178,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>665</v>
+        <v>755</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>34321</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>192375</v>
+      </c>
+      <c r="C94" t="s">
+        <v>756</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>666</v>
+        <v>757</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>667</v>
+        <v>758</v>
       </c>
       <c r="J94" t="s">
-        <v>668</v>
+        <v>759</v>
       </c>
       <c r="K94" t="s">
-        <v>669</v>
+        <v>760</v>
       </c>
       <c r="L94" t="s">
-        <v>670</v>
+        <v>761</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>671</v>
+        <v>762</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -8589,50 +9249,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>672</v>
+        <v>763</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>34321</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>192376</v>
+      </c>
+      <c r="C95" t="s">
+        <v>764</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>673</v>
+        <v>765</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>674</v>
+        <v>766</v>
       </c>
       <c r="J95" t="s">
-        <v>675</v>
+        <v>767</v>
       </c>
       <c r="K95" t="s">
-        <v>676</v>
+        <v>768</v>
       </c>
       <c r="L95" t="s">
-        <v>677</v>
+        <v>769</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>678</v>
+        <v>770</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>2</v>
@@ -8656,50 +9320,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>677</v>
+        <v>769</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>34321</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>192377</v>
+      </c>
+      <c r="C96" t="s">
+        <v>771</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>679</v>
+        <v>772</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>680</v>
+        <v>773</v>
       </c>
       <c r="J96" t="s">
-        <v>681</v>
+        <v>774</v>
       </c>
       <c r="K96" t="s">
-        <v>682</v>
+        <v>775</v>
       </c>
       <c r="L96" t="s">
-        <v>683</v>
+        <v>776</v>
       </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
       <c r="N96" t="s">
-        <v>684</v>
+        <v>777</v>
       </c>
       <c r="O96" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P96" t="n">
         <v>1</v>
@@ -8723,50 +9391,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>683</v>
+        <v>776</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>34321</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>192378</v>
+      </c>
+      <c r="C97" t="s">
+        <v>778</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>685</v>
+        <v>779</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>686</v>
+        <v>780</v>
       </c>
       <c r="J97" t="s">
-        <v>687</v>
+        <v>781</v>
       </c>
       <c r="K97" t="s">
-        <v>688</v>
+        <v>782</v>
       </c>
       <c r="L97" t="s">
-        <v>689</v>
+        <v>783</v>
       </c>
       <c r="M97" t="n">
         <v>2</v>
       </c>
       <c r="N97" t="s">
-        <v>690</v>
+        <v>784</v>
       </c>
       <c r="O97" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P97" t="n">
         <v>2</v>
@@ -8790,50 +9462,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>689</v>
+        <v>783</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>34321</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>192379</v>
+      </c>
+      <c r="C98" t="s">
+        <v>785</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>691</v>
+        <v>786</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>692</v>
+        <v>787</v>
       </c>
       <c r="J98" t="s">
-        <v>693</v>
+        <v>788</v>
       </c>
       <c r="K98" t="s">
-        <v>694</v>
+        <v>789</v>
       </c>
       <c r="L98" t="s">
-        <v>695</v>
+        <v>790</v>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>696</v>
+        <v>791</v>
       </c>
       <c r="O98" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P98" t="n">
         <v>1</v>
@@ -8857,41 +9533,45 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>697</v>
+        <v>792</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>34321</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>192380</v>
+      </c>
+      <c r="C99" t="s">
+        <v>793</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>699</v>
+        <v>795</v>
       </c>
       <c r="J99" t="s">
-        <v>700</v>
+        <v>796</v>
       </c>
       <c r="K99" t="s">
-        <v>701</v>
+        <v>797</v>
       </c>
       <c r="L99" t="s">
-        <v>702</v>
+        <v>798</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
@@ -8910,7 +9590,7 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>702</v>
+        <v>798</v>
       </c>
     </row>
   </sheetData>
